--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="122">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -322,6 +322,12 @@
     <t>['54']</t>
   </si>
   <si>
+    <t>['35', '80']</t>
+  </si>
+  <si>
+    <t>['7', '42', '47']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -371,6 +377,9 @@
   </si>
   <si>
     <t>['84', '90+2']</t>
+  </si>
+  <si>
+    <t>['2', '75']</t>
   </si>
 </sst>
 </file>
@@ -732,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP25"/>
+  <dimension ref="A1:BP27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1403,7 +1412,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1481,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1609,7 +1618,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1815,7 +1824,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2021,7 +2030,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2433,7 +2442,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2639,7 +2648,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2720,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2845,7 +2854,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3051,7 +3060,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3463,7 +3472,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3669,7 +3678,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -3875,7 +3884,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4081,7 +4090,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q17">
         <v>2.1</v>
@@ -4287,7 +4296,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4699,7 +4708,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -4983,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5111,7 +5120,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5317,7 +5326,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q23">
         <v>2.42</v>
@@ -5729,7 +5738,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -5886,6 +5895,418 @@
       </c>
       <c r="BP25">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7781661</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45766.41666666666</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26" t="s">
+        <v>102</v>
+      </c>
+      <c r="P26" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q26">
+        <v>2.75</v>
+      </c>
+      <c r="R26">
+        <v>2.28</v>
+      </c>
+      <c r="S26">
+        <v>3.3</v>
+      </c>
+      <c r="T26">
+        <v>1.33</v>
+      </c>
+      <c r="U26">
+        <v>3.15</v>
+      </c>
+      <c r="V26">
+        <v>2.55</v>
+      </c>
+      <c r="W26">
+        <v>1.48</v>
+      </c>
+      <c r="X26">
+        <v>5.8</v>
+      </c>
+      <c r="Y26">
+        <v>1.09</v>
+      </c>
+      <c r="Z26">
+        <v>2.19</v>
+      </c>
+      <c r="AA26">
+        <v>3.64</v>
+      </c>
+      <c r="AB26">
+        <v>2.95</v>
+      </c>
+      <c r="AC26">
+        <v>1.02</v>
+      </c>
+      <c r="AD26">
+        <v>10</v>
+      </c>
+      <c r="AE26">
+        <v>1.2</v>
+      </c>
+      <c r="AF26">
+        <v>3.7</v>
+      </c>
+      <c r="AG26">
+        <v>1.77</v>
+      </c>
+      <c r="AH26">
+        <v>1.98</v>
+      </c>
+      <c r="AI26">
+        <v>1.58</v>
+      </c>
+      <c r="AJ26">
+        <v>2.14</v>
+      </c>
+      <c r="AK26">
+        <v>1.38</v>
+      </c>
+      <c r="AL26">
+        <v>1.27</v>
+      </c>
+      <c r="AM26">
+        <v>1.66</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>3</v>
+      </c>
+      <c r="AP26">
+        <v>1</v>
+      </c>
+      <c r="AQ26">
+        <v>2</v>
+      </c>
+      <c r="AR26">
+        <v>1.89</v>
+      </c>
+      <c r="AS26">
+        <v>1.71</v>
+      </c>
+      <c r="AT26">
+        <v>3.6</v>
+      </c>
+      <c r="AU26">
+        <v>13</v>
+      </c>
+      <c r="AV26">
+        <v>7</v>
+      </c>
+      <c r="AW26">
+        <v>4</v>
+      </c>
+      <c r="AX26">
+        <v>1</v>
+      </c>
+      <c r="AY26">
+        <v>17</v>
+      </c>
+      <c r="AZ26">
+        <v>8</v>
+      </c>
+      <c r="BA26">
+        <v>10</v>
+      </c>
+      <c r="BB26">
+        <v>5</v>
+      </c>
+      <c r="BC26">
+        <v>15</v>
+      </c>
+      <c r="BD26">
+        <v>1.95</v>
+      </c>
+      <c r="BE26">
+        <v>6.75</v>
+      </c>
+      <c r="BF26">
+        <v>2</v>
+      </c>
+      <c r="BG26">
+        <v>1.17</v>
+      </c>
+      <c r="BH26">
+        <v>4.35</v>
+      </c>
+      <c r="BI26">
+        <v>1.29</v>
+      </c>
+      <c r="BJ26">
+        <v>3.15</v>
+      </c>
+      <c r="BK26">
+        <v>1.49</v>
+      </c>
+      <c r="BL26">
+        <v>2.4</v>
+      </c>
+      <c r="BM26">
+        <v>1.77</v>
+      </c>
+      <c r="BN26">
+        <v>1.93</v>
+      </c>
+      <c r="BO26">
+        <v>2.17</v>
+      </c>
+      <c r="BP26">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7781668</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45766.41666666666</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>103</v>
+      </c>
+      <c r="P27" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q27">
+        <v>2.65</v>
+      </c>
+      <c r="R27">
+        <v>2.3</v>
+      </c>
+      <c r="S27">
+        <v>3.4</v>
+      </c>
+      <c r="T27">
+        <v>1.3</v>
+      </c>
+      <c r="U27">
+        <v>3.1</v>
+      </c>
+      <c r="V27">
+        <v>2.5</v>
+      </c>
+      <c r="W27">
+        <v>1.46</v>
+      </c>
+      <c r="X27">
+        <v>5.8</v>
+      </c>
+      <c r="Y27">
+        <v>1.09</v>
+      </c>
+      <c r="Z27">
+        <v>2.13</v>
+      </c>
+      <c r="AA27">
+        <v>3.61</v>
+      </c>
+      <c r="AB27">
+        <v>3.1</v>
+      </c>
+      <c r="AC27">
+        <v>1.02</v>
+      </c>
+      <c r="AD27">
+        <v>10</v>
+      </c>
+      <c r="AE27">
+        <v>1.18</v>
+      </c>
+      <c r="AF27">
+        <v>3.88</v>
+      </c>
+      <c r="AG27">
+        <v>1.75</v>
+      </c>
+      <c r="AH27">
+        <v>2</v>
+      </c>
+      <c r="AI27">
+        <v>1.57</v>
+      </c>
+      <c r="AJ27">
+        <v>2.16</v>
+      </c>
+      <c r="AK27">
+        <v>1.36</v>
+      </c>
+      <c r="AL27">
+        <v>1.28</v>
+      </c>
+      <c r="AM27">
+        <v>1.68</v>
+      </c>
+      <c r="AN27">
+        <v>2</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>2.33</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>1.52</v>
+      </c>
+      <c r="AS27">
+        <v>1.38</v>
+      </c>
+      <c r="AT27">
+        <v>2.9</v>
+      </c>
+      <c r="AU27">
+        <v>8</v>
+      </c>
+      <c r="AV27">
+        <v>6</v>
+      </c>
+      <c r="AW27">
+        <v>8</v>
+      </c>
+      <c r="AX27">
+        <v>18</v>
+      </c>
+      <c r="AY27">
+        <v>16</v>
+      </c>
+      <c r="AZ27">
+        <v>24</v>
+      </c>
+      <c r="BA27">
+        <v>6</v>
+      </c>
+      <c r="BB27">
+        <v>7</v>
+      </c>
+      <c r="BC27">
+        <v>13</v>
+      </c>
+      <c r="BD27">
+        <v>2.17</v>
+      </c>
+      <c r="BE27">
+        <v>6.75</v>
+      </c>
+      <c r="BF27">
+        <v>1.81</v>
+      </c>
+      <c r="BG27">
+        <v>1.18</v>
+      </c>
+      <c r="BH27">
+        <v>4.3</v>
+      </c>
+      <c r="BI27">
+        <v>1.3</v>
+      </c>
+      <c r="BJ27">
+        <v>3.05</v>
+      </c>
+      <c r="BK27">
+        <v>1.52</v>
+      </c>
+      <c r="BL27">
+        <v>2.33</v>
+      </c>
+      <c r="BM27">
+        <v>1.82</v>
+      </c>
+      <c r="BN27">
+        <v>1.86</v>
+      </c>
+      <c r="BO27">
+        <v>2.23</v>
+      </c>
+      <c r="BP27">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="128">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -328,6 +328,15 @@
     <t>['7', '42', '47']</t>
   </si>
   <si>
+    <t>['19', '59', '61', '90+6']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['50', '60']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -380,6 +389,15 @@
   </si>
   <si>
     <t>['2', '75']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['47', '54']</t>
   </si>
 </sst>
 </file>
@@ -741,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP27"/>
+  <dimension ref="A1:BP31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1078,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
         <v>1.5</v>
@@ -1412,7 +1430,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1618,7 +1636,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1824,7 +1842,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -1905,7 +1923,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2030,7 +2048,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2111,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2442,7 +2460,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2648,7 +2666,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2726,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -2854,7 +2872,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -2935,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="AQ11">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3060,7 +3078,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3141,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3472,7 +3490,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3678,7 +3696,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -3884,7 +3902,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4090,7 +4108,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q17">
         <v>2.1</v>
@@ -4296,7 +4314,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4708,7 +4726,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -5120,7 +5138,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5201,7 +5219,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>1.35</v>
@@ -5326,7 +5344,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q23">
         <v>2.42</v>
@@ -5738,7 +5756,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -5944,7 +5962,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6307,6 +6325,830 @@
       </c>
       <c r="BP27">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7781666</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45767.33333333334</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28" t="s">
+        <v>104</v>
+      </c>
+      <c r="P28" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q28">
+        <v>3.3</v>
+      </c>
+      <c r="R28">
+        <v>2.4</v>
+      </c>
+      <c r="S28">
+        <v>2.6</v>
+      </c>
+      <c r="T28">
+        <v>1.26</v>
+      </c>
+      <c r="U28">
+        <v>3.4</v>
+      </c>
+      <c r="V28">
+        <v>2.3</v>
+      </c>
+      <c r="W28">
+        <v>1.53</v>
+      </c>
+      <c r="X28">
+        <v>5.1</v>
+      </c>
+      <c r="Y28">
+        <v>1.12</v>
+      </c>
+      <c r="Z28">
+        <v>2.96</v>
+      </c>
+      <c r="AA28">
+        <v>3.79</v>
+      </c>
+      <c r="AB28">
+        <v>2.14</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
+        <v>12</v>
+      </c>
+      <c r="AE28">
+        <v>1.15</v>
+      </c>
+      <c r="AF28">
+        <v>4.3</v>
+      </c>
+      <c r="AG28">
+        <v>1.73</v>
+      </c>
+      <c r="AH28">
+        <v>1.91</v>
+      </c>
+      <c r="AI28">
+        <v>1.49</v>
+      </c>
+      <c r="AJ28">
+        <v>2.35</v>
+      </c>
+      <c r="AK28">
+        <v>1.68</v>
+      </c>
+      <c r="AL28">
+        <v>1.26</v>
+      </c>
+      <c r="AM28">
+        <v>1.38</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>3</v>
+      </c>
+      <c r="AP28">
+        <v>1.5</v>
+      </c>
+      <c r="AQ28">
+        <v>1.5</v>
+      </c>
+      <c r="AR28">
+        <v>1.05</v>
+      </c>
+      <c r="AS28">
+        <v>1.61</v>
+      </c>
+      <c r="AT28">
+        <v>2.66</v>
+      </c>
+      <c r="AU28">
+        <v>10</v>
+      </c>
+      <c r="AV28">
+        <v>11</v>
+      </c>
+      <c r="AW28">
+        <v>4</v>
+      </c>
+      <c r="AX28">
+        <v>9</v>
+      </c>
+      <c r="AY28">
+        <v>14</v>
+      </c>
+      <c r="AZ28">
+        <v>20</v>
+      </c>
+      <c r="BA28">
+        <v>2</v>
+      </c>
+      <c r="BB28">
+        <v>7</v>
+      </c>
+      <c r="BC28">
+        <v>9</v>
+      </c>
+      <c r="BD28">
+        <v>2.55</v>
+      </c>
+      <c r="BE28">
+        <v>6.75</v>
+      </c>
+      <c r="BF28">
+        <v>1.6</v>
+      </c>
+      <c r="BG28">
+        <v>1.22</v>
+      </c>
+      <c r="BH28">
+        <v>3.8</v>
+      </c>
+      <c r="BI28">
+        <v>1.4</v>
+      </c>
+      <c r="BJ28">
+        <v>2.7</v>
+      </c>
+      <c r="BK28">
+        <v>1.65</v>
+      </c>
+      <c r="BL28">
+        <v>2.08</v>
+      </c>
+      <c r="BM28">
+        <v>1.98</v>
+      </c>
+      <c r="BN28">
+        <v>1.72</v>
+      </c>
+      <c r="BO28">
+        <v>2.5</v>
+      </c>
+      <c r="BP28">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7781665</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45767.41666666666</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>87</v>
+      </c>
+      <c r="P29" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q29">
+        <v>2.7</v>
+      </c>
+      <c r="R29">
+        <v>2.23</v>
+      </c>
+      <c r="S29">
+        <v>3.45</v>
+      </c>
+      <c r="T29">
+        <v>1.33</v>
+      </c>
+      <c r="U29">
+        <v>3.15</v>
+      </c>
+      <c r="V29">
+        <v>2.55</v>
+      </c>
+      <c r="W29">
+        <v>1.47</v>
+      </c>
+      <c r="X29">
+        <v>5.8</v>
+      </c>
+      <c r="Y29">
+        <v>1.09</v>
+      </c>
+      <c r="Z29">
+        <v>2.15</v>
+      </c>
+      <c r="AA29">
+        <v>3.67</v>
+      </c>
+      <c r="AB29">
+        <v>3</v>
+      </c>
+      <c r="AC29">
+        <v>1.04</v>
+      </c>
+      <c r="AD29">
+        <v>8.5</v>
+      </c>
+      <c r="AE29">
+        <v>1.21</v>
+      </c>
+      <c r="AF29">
+        <v>3.6</v>
+      </c>
+      <c r="AG29">
+        <v>1.77</v>
+      </c>
+      <c r="AH29">
+        <v>1.98</v>
+      </c>
+      <c r="AI29">
+        <v>1.6</v>
+      </c>
+      <c r="AJ29">
+        <v>2.12</v>
+      </c>
+      <c r="AK29">
+        <v>1.36</v>
+      </c>
+      <c r="AL29">
+        <v>1.27</v>
+      </c>
+      <c r="AM29">
+        <v>1.68</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>2</v>
+      </c>
+      <c r="AR29">
+        <v>1.8</v>
+      </c>
+      <c r="AS29">
+        <v>2</v>
+      </c>
+      <c r="AT29">
+        <v>3.8</v>
+      </c>
+      <c r="AU29">
+        <v>12</v>
+      </c>
+      <c r="AV29">
+        <v>5</v>
+      </c>
+      <c r="AW29">
+        <v>3</v>
+      </c>
+      <c r="AX29">
+        <v>3</v>
+      </c>
+      <c r="AY29">
+        <v>15</v>
+      </c>
+      <c r="AZ29">
+        <v>8</v>
+      </c>
+      <c r="BA29">
+        <v>13</v>
+      </c>
+      <c r="BB29">
+        <v>4</v>
+      </c>
+      <c r="BC29">
+        <v>17</v>
+      </c>
+      <c r="BD29">
+        <v>1.65</v>
+      </c>
+      <c r="BE29">
+        <v>7</v>
+      </c>
+      <c r="BF29">
+        <v>2.43</v>
+      </c>
+      <c r="BG29">
+        <v>1.19</v>
+      </c>
+      <c r="BH29">
+        <v>4.1</v>
+      </c>
+      <c r="BI29">
+        <v>1.33</v>
+      </c>
+      <c r="BJ29">
+        <v>2.95</v>
+      </c>
+      <c r="BK29">
+        <v>1.54</v>
+      </c>
+      <c r="BL29">
+        <v>2.3</v>
+      </c>
+      <c r="BM29">
+        <v>1.85</v>
+      </c>
+      <c r="BN29">
+        <v>1.83</v>
+      </c>
+      <c r="BO29">
+        <v>2.3</v>
+      </c>
+      <c r="BP29">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7781662</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45767.41666666666</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30" t="s">
+        <v>105</v>
+      </c>
+      <c r="P30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q30">
+        <v>3.42</v>
+      </c>
+      <c r="R30">
+        <v>2.11</v>
+      </c>
+      <c r="S30">
+        <v>2.95</v>
+      </c>
+      <c r="T30">
+        <v>1.36</v>
+      </c>
+      <c r="U30">
+        <v>2.89</v>
+      </c>
+      <c r="V30">
+        <v>2.81</v>
+      </c>
+      <c r="W30">
+        <v>1.38</v>
+      </c>
+      <c r="X30">
+        <v>7.3</v>
+      </c>
+      <c r="Y30">
+        <v>1.03</v>
+      </c>
+      <c r="Z30">
+        <v>2.87</v>
+      </c>
+      <c r="AA30">
+        <v>3.36</v>
+      </c>
+      <c r="AB30">
+        <v>2.36</v>
+      </c>
+      <c r="AC30">
+        <v>1.01</v>
+      </c>
+      <c r="AD30">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE30">
+        <v>1.25</v>
+      </c>
+      <c r="AF30">
+        <v>3.28</v>
+      </c>
+      <c r="AG30">
+        <v>1.94</v>
+      </c>
+      <c r="AH30">
+        <v>1.8</v>
+      </c>
+      <c r="AI30">
+        <v>1.72</v>
+      </c>
+      <c r="AJ30">
+        <v>2</v>
+      </c>
+      <c r="AK30">
+        <v>1.56</v>
+      </c>
+      <c r="AL30">
+        <v>1.3</v>
+      </c>
+      <c r="AM30">
+        <v>1.41</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AP30">
+        <v>1.5</v>
+      </c>
+      <c r="AQ30">
+        <v>2</v>
+      </c>
+      <c r="AR30">
+        <v>1.53</v>
+      </c>
+      <c r="AS30">
+        <v>1.85</v>
+      </c>
+      <c r="AT30">
+        <v>3.38</v>
+      </c>
+      <c r="AU30">
+        <v>7</v>
+      </c>
+      <c r="AV30">
+        <v>12</v>
+      </c>
+      <c r="AW30">
+        <v>5</v>
+      </c>
+      <c r="AX30">
+        <v>4</v>
+      </c>
+      <c r="AY30">
+        <v>12</v>
+      </c>
+      <c r="AZ30">
+        <v>16</v>
+      </c>
+      <c r="BA30">
+        <v>2</v>
+      </c>
+      <c r="BB30">
+        <v>7</v>
+      </c>
+      <c r="BC30">
+        <v>9</v>
+      </c>
+      <c r="BD30">
+        <v>2.3</v>
+      </c>
+      <c r="BE30">
+        <v>7</v>
+      </c>
+      <c r="BF30">
+        <v>1.72</v>
+      </c>
+      <c r="BG30">
+        <v>1.19</v>
+      </c>
+      <c r="BH30">
+        <v>4.1</v>
+      </c>
+      <c r="BI30">
+        <v>1.33</v>
+      </c>
+      <c r="BJ30">
+        <v>2.95</v>
+      </c>
+      <c r="BK30">
+        <v>1.54</v>
+      </c>
+      <c r="BL30">
+        <v>2.3</v>
+      </c>
+      <c r="BM30">
+        <v>1.85</v>
+      </c>
+      <c r="BN30">
+        <v>1.83</v>
+      </c>
+      <c r="BO30">
+        <v>2.3</v>
+      </c>
+      <c r="BP30">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7781664</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45767.5</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31" t="s">
+        <v>106</v>
+      </c>
+      <c r="P31" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q31">
+        <v>1.98</v>
+      </c>
+      <c r="R31">
+        <v>2.4</v>
+      </c>
+      <c r="S31">
+        <v>5.4</v>
+      </c>
+      <c r="T31">
+        <v>1.3</v>
+      </c>
+      <c r="U31">
+        <v>3.1</v>
+      </c>
+      <c r="V31">
+        <v>2.48</v>
+      </c>
+      <c r="W31">
+        <v>1.47</v>
+      </c>
+      <c r="X31">
+        <v>5.8</v>
+      </c>
+      <c r="Y31">
+        <v>1.09</v>
+      </c>
+      <c r="Z31">
+        <v>1.44</v>
+      </c>
+      <c r="AA31">
+        <v>4.5</v>
+      </c>
+      <c r="AB31">
+        <v>6.4</v>
+      </c>
+      <c r="AC31">
+        <v>1.04</v>
+      </c>
+      <c r="AD31">
+        <v>8.5</v>
+      </c>
+      <c r="AE31">
+        <v>1.19</v>
+      </c>
+      <c r="AF31">
+        <v>3.78</v>
+      </c>
+      <c r="AG31">
+        <v>1.78</v>
+      </c>
+      <c r="AH31">
+        <v>1.94</v>
+      </c>
+      <c r="AI31">
+        <v>1.79</v>
+      </c>
+      <c r="AJ31">
+        <v>1.85</v>
+      </c>
+      <c r="AK31">
+        <v>1.12</v>
+      </c>
+      <c r="AL31">
+        <v>1.21</v>
+      </c>
+      <c r="AM31">
+        <v>2.55</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>2</v>
+      </c>
+      <c r="AP31">
+        <v>3</v>
+      </c>
+      <c r="AQ31">
+        <v>1.33</v>
+      </c>
+      <c r="AR31">
+        <v>1.83</v>
+      </c>
+      <c r="AS31">
+        <v>1.28</v>
+      </c>
+      <c r="AT31">
+        <v>3.11</v>
+      </c>
+      <c r="AU31">
+        <v>12</v>
+      </c>
+      <c r="AV31">
+        <v>8</v>
+      </c>
+      <c r="AW31">
+        <v>3</v>
+      </c>
+      <c r="AX31">
+        <v>2</v>
+      </c>
+      <c r="AY31">
+        <v>15</v>
+      </c>
+      <c r="AZ31">
+        <v>10</v>
+      </c>
+      <c r="BA31">
+        <v>1</v>
+      </c>
+      <c r="BB31">
+        <v>8</v>
+      </c>
+      <c r="BC31">
+        <v>9</v>
+      </c>
+      <c r="BD31">
+        <v>1.44</v>
+      </c>
+      <c r="BE31">
+        <v>7</v>
+      </c>
+      <c r="BF31">
+        <v>3.05</v>
+      </c>
+      <c r="BG31">
+        <v>1.29</v>
+      </c>
+      <c r="BH31">
+        <v>3.15</v>
+      </c>
+      <c r="BI31">
+        <v>1.5</v>
+      </c>
+      <c r="BJ31">
+        <v>2.38</v>
+      </c>
+      <c r="BK31">
+        <v>1.81</v>
+      </c>
+      <c r="BL31">
+        <v>1.88</v>
+      </c>
+      <c r="BM31">
+        <v>2.25</v>
+      </c>
+      <c r="BN31">
+        <v>1.55</v>
+      </c>
+      <c r="BO31">
+        <v>2.9</v>
+      </c>
+      <c r="BP31">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="129">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>['50', '60']</t>
+  </si>
+  <si>
+    <t>['19', '23', '58', '86']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -759,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP31"/>
+  <dimension ref="A1:BP32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1430,7 +1433,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1636,7 +1639,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1842,7 +1845,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2048,7 +2051,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2460,7 +2463,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2666,7 +2669,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2872,7 +2875,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3078,7 +3081,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3490,7 +3493,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3696,7 +3699,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -3902,7 +3905,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4108,7 +4111,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q17">
         <v>2.1</v>
@@ -4314,7 +4317,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4726,7 +4729,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -5138,7 +5141,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5344,7 +5347,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q23">
         <v>2.42</v>
@@ -5756,7 +5759,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -5962,7 +5965,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6374,7 +6377,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6580,7 +6583,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6786,7 +6789,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -7149,6 +7152,212 @@
       </c>
       <c r="BP31">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7781667</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45768.33333333334</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32" t="s">
+        <v>107</v>
+      </c>
+      <c r="P32" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q32">
+        <v>2.3</v>
+      </c>
+      <c r="R32">
+        <v>2.3</v>
+      </c>
+      <c r="S32">
+        <v>5</v>
+      </c>
+      <c r="T32">
+        <v>1.36</v>
+      </c>
+      <c r="U32">
+        <v>3</v>
+      </c>
+      <c r="V32">
+        <v>2.63</v>
+      </c>
+      <c r="W32">
+        <v>1.44</v>
+      </c>
+      <c r="X32">
+        <v>7</v>
+      </c>
+      <c r="Y32">
+        <v>1.1</v>
+      </c>
+      <c r="Z32">
+        <v>1.57</v>
+      </c>
+      <c r="AA32">
+        <v>4.3</v>
+      </c>
+      <c r="AB32">
+        <v>5</v>
+      </c>
+      <c r="AC32">
+        <v>1.01</v>
+      </c>
+      <c r="AD32">
+        <v>11</v>
+      </c>
+      <c r="AE32">
+        <v>1.19</v>
+      </c>
+      <c r="AF32">
+        <v>3.75</v>
+      </c>
+      <c r="AG32">
+        <v>1.73</v>
+      </c>
+      <c r="AH32">
+        <v>1.91</v>
+      </c>
+      <c r="AI32">
+        <v>1.8</v>
+      </c>
+      <c r="AJ32">
+        <v>1.95</v>
+      </c>
+      <c r="AK32">
+        <v>1.17</v>
+      </c>
+      <c r="AL32">
+        <v>1.2</v>
+      </c>
+      <c r="AM32">
+        <v>2.05</v>
+      </c>
+      <c r="AN32">
+        <v>3</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>3</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>1.92</v>
+      </c>
+      <c r="AS32">
+        <v>1.33</v>
+      </c>
+      <c r="AT32">
+        <v>3.25</v>
+      </c>
+      <c r="AU32">
+        <v>6</v>
+      </c>
+      <c r="AV32">
+        <v>4</v>
+      </c>
+      <c r="AW32">
+        <v>11</v>
+      </c>
+      <c r="AX32">
+        <v>3</v>
+      </c>
+      <c r="AY32">
+        <v>17</v>
+      </c>
+      <c r="AZ32">
+        <v>7</v>
+      </c>
+      <c r="BA32">
+        <v>6</v>
+      </c>
+      <c r="BB32">
+        <v>6</v>
+      </c>
+      <c r="BC32">
+        <v>12</v>
+      </c>
+      <c r="BD32">
+        <v>1.61</v>
+      </c>
+      <c r="BE32">
+        <v>9</v>
+      </c>
+      <c r="BF32">
+        <v>2.68</v>
+      </c>
+      <c r="BG32">
+        <v>1.25</v>
+      </c>
+      <c r="BH32">
+        <v>3.45</v>
+      </c>
+      <c r="BI32">
+        <v>1.3</v>
+      </c>
+      <c r="BJ32">
+        <v>2.97</v>
+      </c>
+      <c r="BK32">
+        <v>1.56</v>
+      </c>
+      <c r="BL32">
+        <v>2.21</v>
+      </c>
+      <c r="BM32">
+        <v>1.95</v>
+      </c>
+      <c r="BN32">
+        <v>1.77</v>
+      </c>
+      <c r="BO32">
+        <v>2.51</v>
+      </c>
+      <c r="BP32">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="130">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>['19', '23', '58', '86']</t>
+  </si>
+  <si>
+    <t>['7', '53']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -762,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP32"/>
+  <dimension ref="A1:BP33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1433,7 +1436,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1639,7 +1642,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1845,7 +1848,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2051,7 +2054,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2463,7 +2466,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2544,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2669,7 +2672,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2875,7 +2878,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -2953,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>1.5</v>
@@ -3081,7 +3084,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3493,7 +3496,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3699,7 +3702,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -3905,7 +3908,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4111,7 +4114,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q17">
         <v>2.1</v>
@@ -4317,7 +4320,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4729,7 +4732,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -5141,7 +5144,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5347,7 +5350,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q23">
         <v>2.42</v>
@@ -5759,7 +5762,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -5965,7 +5968,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6377,7 +6380,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6583,7 +6586,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6789,7 +6792,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -7358,6 +7361,212 @@
       </c>
       <c r="BP32">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7781663</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45769.58333333334</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33" t="s">
+        <v>108</v>
+      </c>
+      <c r="P33" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>2.15</v>
+      </c>
+      <c r="S33">
+        <v>3.1</v>
+      </c>
+      <c r="T33">
+        <v>1.36</v>
+      </c>
+      <c r="U33">
+        <v>2.9</v>
+      </c>
+      <c r="V33">
+        <v>2.65</v>
+      </c>
+      <c r="W33">
+        <v>1.42</v>
+      </c>
+      <c r="X33">
+        <v>7.3</v>
+      </c>
+      <c r="Y33">
+        <v>1.03</v>
+      </c>
+      <c r="Z33">
+        <v>2.63</v>
+      </c>
+      <c r="AA33">
+        <v>3.38</v>
+      </c>
+      <c r="AB33">
+        <v>2.53</v>
+      </c>
+      <c r="AC33">
+        <v>1.01</v>
+      </c>
+      <c r="AD33">
+        <v>11.5</v>
+      </c>
+      <c r="AE33">
+        <v>1.25</v>
+      </c>
+      <c r="AF33">
+        <v>3.55</v>
+      </c>
+      <c r="AG33">
+        <v>1.98</v>
+      </c>
+      <c r="AH33">
+        <v>1.77</v>
+      </c>
+      <c r="AI33">
+        <v>1.65</v>
+      </c>
+      <c r="AJ33">
+        <v>2.05</v>
+      </c>
+      <c r="AK33">
+        <v>1.45</v>
+      </c>
+      <c r="AL33">
+        <v>1.25</v>
+      </c>
+      <c r="AM33">
+        <v>1.5</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>3</v>
+      </c>
+      <c r="AP33">
+        <v>1.5</v>
+      </c>
+      <c r="AQ33">
+        <v>1.5</v>
+      </c>
+      <c r="AR33">
+        <v>1.44</v>
+      </c>
+      <c r="AS33">
+        <v>1.78</v>
+      </c>
+      <c r="AT33">
+        <v>3.22</v>
+      </c>
+      <c r="AU33">
+        <v>10</v>
+      </c>
+      <c r="AV33">
+        <v>13</v>
+      </c>
+      <c r="AW33">
+        <v>4</v>
+      </c>
+      <c r="AX33">
+        <v>12</v>
+      </c>
+      <c r="AY33">
+        <v>14</v>
+      </c>
+      <c r="AZ33">
+        <v>25</v>
+      </c>
+      <c r="BA33">
+        <v>4</v>
+      </c>
+      <c r="BB33">
+        <v>3</v>
+      </c>
+      <c r="BC33">
+        <v>7</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <v>0</v>
+      </c>
+      <c r="BI33">
+        <v>0</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>0</v>
+      </c>
+      <c r="BL33">
+        <v>0</v>
+      </c>
+      <c r="BM33">
+        <v>1.98</v>
+      </c>
+      <c r="BN33">
+        <v>1.82</v>
+      </c>
+      <c r="BO33">
+        <v>0</v>
+      </c>
+      <c r="BP33">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="135">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -343,6 +343,15 @@
     <t>['7', '53']</t>
   </si>
   <si>
+    <t>['14', '57']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -404,6 +413,12 @@
   </si>
   <si>
     <t>['47', '54']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['34', '42']</t>
   </si>
 </sst>
 </file>
@@ -765,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP33"/>
+  <dimension ref="A1:BP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1436,7 +1451,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1642,7 +1657,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1848,7 +1863,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -1926,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ6">
         <v>2</v>
@@ -2054,7 +2069,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2338,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2466,7 +2481,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2672,7 +2687,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2878,7 +2893,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -2959,7 +2974,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3084,7 +3099,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3162,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3371,7 +3386,7 @@
         <v>3</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3496,7 +3511,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3702,7 +3717,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -3908,7 +3923,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4114,7 +4129,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q17">
         <v>2.1</v>
@@ -4195,7 +4210,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4320,7 +4335,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4398,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4732,7 +4747,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -4810,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ20">
         <v>0</v>
@@ -5019,7 +5034,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
         <v>1.91</v>
@@ -5144,7 +5159,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5350,7 +5365,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q23">
         <v>2.42</v>
@@ -5762,7 +5777,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -5968,7 +5983,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6380,7 +6395,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6461,7 +6476,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.05</v>
@@ -6586,7 +6601,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6792,7 +6807,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -7566,6 +7581,624 @@
         <v>0</v>
       </c>
       <c r="BP33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7781676</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45773.41666666666</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34" t="s">
+        <v>109</v>
+      </c>
+      <c r="P34" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q34">
+        <v>2.92</v>
+      </c>
+      <c r="R34">
+        <v>2.14</v>
+      </c>
+      <c r="S34">
+        <v>3.38</v>
+      </c>
+      <c r="T34">
+        <v>1.35</v>
+      </c>
+      <c r="U34">
+        <v>2.94</v>
+      </c>
+      <c r="V34">
+        <v>2.69</v>
+      </c>
+      <c r="W34">
+        <v>1.41</v>
+      </c>
+      <c r="X34">
+        <v>6.4</v>
+      </c>
+      <c r="Y34">
+        <v>1.05</v>
+      </c>
+      <c r="Z34">
+        <v>2.25</v>
+      </c>
+      <c r="AA34">
+        <v>3.62</v>
+      </c>
+      <c r="AB34">
+        <v>2.86</v>
+      </c>
+      <c r="AC34">
+        <v>1.02</v>
+      </c>
+      <c r="AD34">
+        <v>10</v>
+      </c>
+      <c r="AE34">
+        <v>1.22</v>
+      </c>
+      <c r="AF34">
+        <v>3.5</v>
+      </c>
+      <c r="AG34">
+        <v>1.65</v>
+      </c>
+      <c r="AH34">
+        <v>2.13</v>
+      </c>
+      <c r="AI34">
+        <v>1.66</v>
+      </c>
+      <c r="AJ34">
+        <v>2.09</v>
+      </c>
+      <c r="AK34">
+        <v>1.42</v>
+      </c>
+      <c r="AL34">
+        <v>1.29</v>
+      </c>
+      <c r="AM34">
+        <v>1.55</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AP34">
+        <v>2</v>
+      </c>
+      <c r="AQ34">
+        <v>0.5</v>
+      </c>
+      <c r="AR34">
+        <v>1.47</v>
+      </c>
+      <c r="AS34">
+        <v>1.2</v>
+      </c>
+      <c r="AT34">
+        <v>2.67</v>
+      </c>
+      <c r="AU34">
+        <v>10</v>
+      </c>
+      <c r="AV34">
+        <v>12</v>
+      </c>
+      <c r="AW34">
+        <v>5</v>
+      </c>
+      <c r="AX34">
+        <v>1</v>
+      </c>
+      <c r="AY34">
+        <v>15</v>
+      </c>
+      <c r="AZ34">
+        <v>13</v>
+      </c>
+      <c r="BA34">
+        <v>7</v>
+      </c>
+      <c r="BB34">
+        <v>6</v>
+      </c>
+      <c r="BC34">
+        <v>13</v>
+      </c>
+      <c r="BD34">
+        <v>1.54</v>
+      </c>
+      <c r="BE34">
+        <v>7</v>
+      </c>
+      <c r="BF34">
+        <v>2.65</v>
+      </c>
+      <c r="BG34">
+        <v>1.24</v>
+      </c>
+      <c r="BH34">
+        <v>3.65</v>
+      </c>
+      <c r="BI34">
+        <v>1.42</v>
+      </c>
+      <c r="BJ34">
+        <v>2.65</v>
+      </c>
+      <c r="BK34">
+        <v>1.68</v>
+      </c>
+      <c r="BL34">
+        <v>2.05</v>
+      </c>
+      <c r="BM34">
+        <v>2.05</v>
+      </c>
+      <c r="BN34">
+        <v>1.68</v>
+      </c>
+      <c r="BO34">
+        <v>2.55</v>
+      </c>
+      <c r="BP34">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7781671</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45773.41666666666</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35" t="s">
+        <v>110</v>
+      </c>
+      <c r="P35" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q35">
+        <v>2.46</v>
+      </c>
+      <c r="R35">
+        <v>2.09</v>
+      </c>
+      <c r="S35">
+        <v>4.55</v>
+      </c>
+      <c r="T35">
+        <v>1.4</v>
+      </c>
+      <c r="U35">
+        <v>2.73</v>
+      </c>
+      <c r="V35">
+        <v>3.04</v>
+      </c>
+      <c r="W35">
+        <v>1.33</v>
+      </c>
+      <c r="X35">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y35">
+        <v>1.02</v>
+      </c>
+      <c r="Z35">
+        <v>1.74</v>
+      </c>
+      <c r="AA35">
+        <v>3.94</v>
+      </c>
+      <c r="AB35">
+        <v>4.1</v>
+      </c>
+      <c r="AC35">
+        <v>1</v>
+      </c>
+      <c r="AD35">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE35">
+        <v>1.3</v>
+      </c>
+      <c r="AF35">
+        <v>2.98</v>
+      </c>
+      <c r="AG35">
+        <v>2.23</v>
+      </c>
+      <c r="AH35">
+        <v>1.58</v>
+      </c>
+      <c r="AI35">
+        <v>1.9</v>
+      </c>
+      <c r="AJ35">
+        <v>1.8</v>
+      </c>
+      <c r="AK35">
+        <v>1.24</v>
+      </c>
+      <c r="AL35">
+        <v>1.28</v>
+      </c>
+      <c r="AM35">
+        <v>1.89</v>
+      </c>
+      <c r="AN35">
+        <v>1.5</v>
+      </c>
+      <c r="AO35">
+        <v>0.5</v>
+      </c>
+      <c r="AP35">
+        <v>1</v>
+      </c>
+      <c r="AQ35">
+        <v>1.33</v>
+      </c>
+      <c r="AR35">
+        <v>1.03</v>
+      </c>
+      <c r="AS35">
+        <v>1.21</v>
+      </c>
+      <c r="AT35">
+        <v>2.24</v>
+      </c>
+      <c r="AU35">
+        <v>7</v>
+      </c>
+      <c r="AV35">
+        <v>9</v>
+      </c>
+      <c r="AW35">
+        <v>4</v>
+      </c>
+      <c r="AX35">
+        <v>1</v>
+      </c>
+      <c r="AY35">
+        <v>11</v>
+      </c>
+      <c r="AZ35">
+        <v>10</v>
+      </c>
+      <c r="BA35">
+        <v>5</v>
+      </c>
+      <c r="BB35">
+        <v>2</v>
+      </c>
+      <c r="BC35">
+        <v>7</v>
+      </c>
+      <c r="BD35">
+        <v>1.44</v>
+      </c>
+      <c r="BE35">
+        <v>7.5</v>
+      </c>
+      <c r="BF35">
+        <v>3.05</v>
+      </c>
+      <c r="BG35">
+        <v>1.23</v>
+      </c>
+      <c r="BH35">
+        <v>3.65</v>
+      </c>
+      <c r="BI35">
+        <v>1.41</v>
+      </c>
+      <c r="BJ35">
+        <v>2.65</v>
+      </c>
+      <c r="BK35">
+        <v>1.66</v>
+      </c>
+      <c r="BL35">
+        <v>2.08</v>
+      </c>
+      <c r="BM35">
+        <v>2</v>
+      </c>
+      <c r="BN35">
+        <v>1.7</v>
+      </c>
+      <c r="BO35">
+        <v>2.55</v>
+      </c>
+      <c r="BP35">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7781672</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45773.41666666666</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>111</v>
+      </c>
+      <c r="P36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q36">
+        <v>2.75</v>
+      </c>
+      <c r="R36">
+        <v>2.2</v>
+      </c>
+      <c r="S36">
+        <v>3.75</v>
+      </c>
+      <c r="T36">
+        <v>1.36</v>
+      </c>
+      <c r="U36">
+        <v>3</v>
+      </c>
+      <c r="V36">
+        <v>2.75</v>
+      </c>
+      <c r="W36">
+        <v>1.4</v>
+      </c>
+      <c r="X36">
+        <v>7</v>
+      </c>
+      <c r="Y36">
+        <v>1.1</v>
+      </c>
+      <c r="Z36">
+        <v>2.12</v>
+      </c>
+      <c r="AA36">
+        <v>3.39</v>
+      </c>
+      <c r="AB36">
+        <v>3.29</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>1.85</v>
+      </c>
+      <c r="AH36">
+        <v>1.89</v>
+      </c>
+      <c r="AI36">
+        <v>1.7</v>
+      </c>
+      <c r="AJ36">
+        <v>2.05</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>2</v>
+      </c>
+      <c r="AO36">
+        <v>1.5</v>
+      </c>
+      <c r="AP36">
+        <v>2.33</v>
+      </c>
+      <c r="AQ36">
+        <v>1</v>
+      </c>
+      <c r="AR36">
+        <v>1.71</v>
+      </c>
+      <c r="AS36">
+        <v>2.15</v>
+      </c>
+      <c r="AT36">
+        <v>3.86</v>
+      </c>
+      <c r="AU36">
+        <v>8</v>
+      </c>
+      <c r="AV36">
+        <v>6</v>
+      </c>
+      <c r="AW36">
+        <v>5</v>
+      </c>
+      <c r="AX36">
+        <v>5</v>
+      </c>
+      <c r="AY36">
+        <v>13</v>
+      </c>
+      <c r="AZ36">
+        <v>11</v>
+      </c>
+      <c r="BA36">
+        <v>9</v>
+      </c>
+      <c r="BB36">
+        <v>5</v>
+      </c>
+      <c r="BC36">
+        <v>14</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36">
+        <v>0</v>
+      </c>
+      <c r="BG36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36">
+        <v>0</v>
+      </c>
+      <c r="BJ36">
+        <v>0</v>
+      </c>
+      <c r="BK36">
+        <v>0</v>
+      </c>
+      <c r="BL36">
+        <v>0</v>
+      </c>
+      <c r="BM36">
+        <v>0</v>
+      </c>
+      <c r="BN36">
+        <v>0</v>
+      </c>
+      <c r="BO36">
+        <v>0</v>
+      </c>
+      <c r="BP36">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="138">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,6 +352,9 @@
     <t>['53']</t>
   </si>
   <si>
+    <t>['21']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -419,6 +422,12 @@
   </si>
   <si>
     <t>['34', '42']</t>
+  </si>
+  <si>
+    <t>['7', '10', '27', '38', '41']</t>
+  </si>
+  <si>
+    <t>['9', '24', '45+1', '75']</t>
   </si>
 </sst>
 </file>
@@ -780,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP36"/>
+  <dimension ref="A1:BP38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1326,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1451,7 +1460,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1657,7 +1666,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1738,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1863,7 +1872,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2069,7 +2078,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2481,7 +2490,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2687,7 +2696,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2893,7 +2902,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -2971,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3099,7 +3108,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3511,7 +3520,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3717,7 +3726,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -3923,7 +3932,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4129,7 +4138,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17">
         <v>2.1</v>
@@ -4335,7 +4344,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4416,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR18">
         <v>0.99</v>
@@ -4747,7 +4756,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -5159,7 +5168,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5365,7 +5374,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q23">
         <v>2.42</v>
@@ -5446,7 +5455,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR23">
         <v>2.18</v>
@@ -5777,7 +5786,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -5983,7 +5992,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6395,7 +6404,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6601,7 +6610,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6807,7 +6816,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -7503,7 +7512,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -7631,7 +7640,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q34">
         <v>2.92</v>
@@ -7837,7 +7846,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q35">
         <v>2.46</v>
@@ -8200,6 +8209,418 @@
       </c>
       <c r="BP36">
         <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7781670</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45774.33333333334</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>6</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="N37">
+        <v>6</v>
+      </c>
+      <c r="O37" t="s">
+        <v>112</v>
+      </c>
+      <c r="P37" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q37">
+        <v>3.16</v>
+      </c>
+      <c r="R37">
+        <v>2.09</v>
+      </c>
+      <c r="S37">
+        <v>3.22</v>
+      </c>
+      <c r="T37">
+        <v>1.36</v>
+      </c>
+      <c r="U37">
+        <v>2.89</v>
+      </c>
+      <c r="V37">
+        <v>2.85</v>
+      </c>
+      <c r="W37">
+        <v>1.37</v>
+      </c>
+      <c r="X37">
+        <v>7.6</v>
+      </c>
+      <c r="Y37">
+        <v>1.03</v>
+      </c>
+      <c r="Z37">
+        <v>2.55</v>
+      </c>
+      <c r="AA37">
+        <v>3.35</v>
+      </c>
+      <c r="AB37">
+        <v>2.63</v>
+      </c>
+      <c r="AC37">
+        <v>1.01</v>
+      </c>
+      <c r="AD37">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE37">
+        <v>1.24</v>
+      </c>
+      <c r="AF37">
+        <v>3.36</v>
+      </c>
+      <c r="AG37">
+        <v>1.91</v>
+      </c>
+      <c r="AH37">
+        <v>1.83</v>
+      </c>
+      <c r="AI37">
+        <v>1.7</v>
+      </c>
+      <c r="AJ37">
+        <v>2.03</v>
+      </c>
+      <c r="AK37">
+        <v>1.48</v>
+      </c>
+      <c r="AL37">
+        <v>1.3</v>
+      </c>
+      <c r="AM37">
+        <v>1.48</v>
+      </c>
+      <c r="AN37">
+        <v>1.5</v>
+      </c>
+      <c r="AO37">
+        <v>2</v>
+      </c>
+      <c r="AP37">
+        <v>1</v>
+      </c>
+      <c r="AQ37">
+        <v>2.33</v>
+      </c>
+      <c r="AR37">
+        <v>1.64</v>
+      </c>
+      <c r="AS37">
+        <v>1.88</v>
+      </c>
+      <c r="AT37">
+        <v>3.52</v>
+      </c>
+      <c r="AU37">
+        <v>4</v>
+      </c>
+      <c r="AV37">
+        <v>11</v>
+      </c>
+      <c r="AW37">
+        <v>4</v>
+      </c>
+      <c r="AX37">
+        <v>6</v>
+      </c>
+      <c r="AY37">
+        <v>8</v>
+      </c>
+      <c r="AZ37">
+        <v>17</v>
+      </c>
+      <c r="BA37">
+        <v>2</v>
+      </c>
+      <c r="BB37">
+        <v>7</v>
+      </c>
+      <c r="BC37">
+        <v>9</v>
+      </c>
+      <c r="BD37">
+        <v>2.28</v>
+      </c>
+      <c r="BE37">
+        <v>6.75</v>
+      </c>
+      <c r="BF37">
+        <v>1.75</v>
+      </c>
+      <c r="BG37">
+        <v>1.25</v>
+      </c>
+      <c r="BH37">
+        <v>3.45</v>
+      </c>
+      <c r="BI37">
+        <v>1.45</v>
+      </c>
+      <c r="BJ37">
+        <v>2.55</v>
+      </c>
+      <c r="BK37">
+        <v>1.73</v>
+      </c>
+      <c r="BL37">
+        <v>1.98</v>
+      </c>
+      <c r="BM37">
+        <v>2.12</v>
+      </c>
+      <c r="BN37">
+        <v>1.64</v>
+      </c>
+      <c r="BO37">
+        <v>2.65</v>
+      </c>
+      <c r="BP37">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7781673</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45774.33333333334</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
+      <c r="N38">
+        <v>4</v>
+      </c>
+      <c r="O38" t="s">
+        <v>87</v>
+      </c>
+      <c r="P38" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q38">
+        <v>2.81</v>
+      </c>
+      <c r="R38">
+        <v>2.13</v>
+      </c>
+      <c r="S38">
+        <v>3.58</v>
+      </c>
+      <c r="T38">
+        <v>1.35</v>
+      </c>
+      <c r="U38">
+        <v>2.94</v>
+      </c>
+      <c r="V38">
+        <v>2.57</v>
+      </c>
+      <c r="W38">
+        <v>1.44</v>
+      </c>
+      <c r="X38">
+        <v>6.05</v>
+      </c>
+      <c r="Y38">
+        <v>1.06</v>
+      </c>
+      <c r="Z38">
+        <v>1.91</v>
+      </c>
+      <c r="AA38">
+        <v>3.72</v>
+      </c>
+      <c r="AB38">
+        <v>3.59</v>
+      </c>
+      <c r="AC38">
+        <v>1.01</v>
+      </c>
+      <c r="AD38">
+        <v>11</v>
+      </c>
+      <c r="AE38">
+        <v>1.2</v>
+      </c>
+      <c r="AF38">
+        <v>3.72</v>
+      </c>
+      <c r="AG38">
+        <v>1.83</v>
+      </c>
+      <c r="AH38">
+        <v>1.8</v>
+      </c>
+      <c r="AI38">
+        <v>1.61</v>
+      </c>
+      <c r="AJ38">
+        <v>2.17</v>
+      </c>
+      <c r="AK38">
+        <v>1.37</v>
+      </c>
+      <c r="AL38">
+        <v>1.3</v>
+      </c>
+      <c r="AM38">
+        <v>1.61</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>1</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>1.67</v>
+      </c>
+      <c r="AR38">
+        <v>2.08</v>
+      </c>
+      <c r="AS38">
+        <v>2.3</v>
+      </c>
+      <c r="AT38">
+        <v>4.38</v>
+      </c>
+      <c r="AU38">
+        <v>8</v>
+      </c>
+      <c r="AV38">
+        <v>8</v>
+      </c>
+      <c r="AW38">
+        <v>8</v>
+      </c>
+      <c r="AX38">
+        <v>4</v>
+      </c>
+      <c r="AY38">
+        <v>16</v>
+      </c>
+      <c r="AZ38">
+        <v>12</v>
+      </c>
+      <c r="BA38">
+        <v>11</v>
+      </c>
+      <c r="BB38">
+        <v>4</v>
+      </c>
+      <c r="BC38">
+        <v>15</v>
+      </c>
+      <c r="BD38">
+        <v>1.64</v>
+      </c>
+      <c r="BE38">
+        <v>7</v>
+      </c>
+      <c r="BF38">
+        <v>2.48</v>
+      </c>
+      <c r="BG38">
+        <v>1.16</v>
+      </c>
+      <c r="BH38">
+        <v>4.4</v>
+      </c>
+      <c r="BI38">
+        <v>1.29</v>
+      </c>
+      <c r="BJ38">
+        <v>3.15</v>
+      </c>
+      <c r="BK38">
+        <v>1.49</v>
+      </c>
+      <c r="BL38">
+        <v>2.4</v>
+      </c>
+      <c r="BM38">
+        <v>1.78</v>
+      </c>
+      <c r="BN38">
+        <v>1.92</v>
+      </c>
+      <c r="BO38">
+        <v>2.18</v>
+      </c>
+      <c r="BP38">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="139">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -428,6 +428,9 @@
   </si>
   <si>
     <t>['9', '24', '45+1', '75']</t>
+  </si>
+  <si>
+    <t>['71']</t>
   </si>
 </sst>
 </file>
@@ -789,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP38"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1953,7 +1956,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3598,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -5246,7 +5249,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -6691,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR29">
         <v>1.8</v>
@@ -8621,6 +8624,212 @@
       </c>
       <c r="BP38">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7781674</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45774.33333333334</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>87</v>
+      </c>
+      <c r="P39" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q39">
+        <v>3.58</v>
+      </c>
+      <c r="R39">
+        <v>2.3</v>
+      </c>
+      <c r="S39">
+        <v>2.56</v>
+      </c>
+      <c r="T39">
+        <v>1.27</v>
+      </c>
+      <c r="U39">
+        <v>3.4</v>
+      </c>
+      <c r="V39">
+        <v>2.34</v>
+      </c>
+      <c r="W39">
+        <v>1.53</v>
+      </c>
+      <c r="X39">
+        <v>5.4</v>
+      </c>
+      <c r="Y39">
+        <v>1.09</v>
+      </c>
+      <c r="Z39">
+        <v>3.19</v>
+      </c>
+      <c r="AA39">
+        <v>3.73</v>
+      </c>
+      <c r="AB39">
+        <v>2.05</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1.13</v>
+      </c>
+      <c r="AF39">
+        <v>4.55</v>
+      </c>
+      <c r="AG39">
+        <v>1.75</v>
+      </c>
+      <c r="AH39">
+        <v>1.91</v>
+      </c>
+      <c r="AI39">
+        <v>1.51</v>
+      </c>
+      <c r="AJ39">
+        <v>2.39</v>
+      </c>
+      <c r="AK39">
+        <v>1.73</v>
+      </c>
+      <c r="AL39">
+        <v>1.26</v>
+      </c>
+      <c r="AM39">
+        <v>1.34</v>
+      </c>
+      <c r="AN39">
+        <v>0.5</v>
+      </c>
+      <c r="AO39">
+        <v>2</v>
+      </c>
+      <c r="AP39">
+        <v>0.33</v>
+      </c>
+      <c r="AQ39">
+        <v>2.33</v>
+      </c>
+      <c r="AR39">
+        <v>1.39</v>
+      </c>
+      <c r="AS39">
+        <v>1.59</v>
+      </c>
+      <c r="AT39">
+        <v>2.98</v>
+      </c>
+      <c r="AU39">
+        <v>6</v>
+      </c>
+      <c r="AV39">
+        <v>4</v>
+      </c>
+      <c r="AW39">
+        <v>6</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>12</v>
+      </c>
+      <c r="AZ39">
+        <v>4</v>
+      </c>
+      <c r="BA39">
+        <v>4</v>
+      </c>
+      <c r="BB39">
+        <v>4</v>
+      </c>
+      <c r="BC39">
+        <v>8</v>
+      </c>
+      <c r="BD39">
+        <v>2.02</v>
+      </c>
+      <c r="BE39">
+        <v>6.75</v>
+      </c>
+      <c r="BF39">
+        <v>1.93</v>
+      </c>
+      <c r="BG39">
+        <v>1.23</v>
+      </c>
+      <c r="BH39">
+        <v>3.65</v>
+      </c>
+      <c r="BI39">
+        <v>1.4</v>
+      </c>
+      <c r="BJ39">
+        <v>2.7</v>
+      </c>
+      <c r="BK39">
+        <v>1.65</v>
+      </c>
+      <c r="BL39">
+        <v>2.08</v>
+      </c>
+      <c r="BM39">
+        <v>2</v>
+      </c>
+      <c r="BN39">
+        <v>1.71</v>
+      </c>
+      <c r="BO39">
+        <v>2.55</v>
+      </c>
+      <c r="BP39">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="141">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -355,6 +355,9 @@
     <t>['21']</t>
   </si>
   <si>
+    <t>['20', '84']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -431,6 +434,9 @@
   </si>
   <si>
     <t>['71']</t>
+  </si>
+  <si>
+    <t>['29', '71']</t>
   </si>
 </sst>
 </file>
@@ -792,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1463,7 +1469,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1669,7 +1675,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1875,7 +1881,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2081,7 +2087,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2493,7 +2499,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2574,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2699,7 +2705,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2777,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -2905,7 +2911,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3111,7 +3117,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3523,7 +3529,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3729,7 +3735,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -3935,7 +3941,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4141,7 +4147,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>2.1</v>
@@ -4347,7 +4353,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4759,7 +4765,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -5171,7 +5177,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5377,7 +5383,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q23">
         <v>2.42</v>
@@ -5789,7 +5795,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -5995,7 +6001,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6407,7 +6413,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6485,7 +6491,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6613,7 +6619,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6819,7 +6825,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -7518,7 +7524,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR33">
         <v>1.44</v>
@@ -7643,7 +7649,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q34">
         <v>2.92</v>
@@ -7849,7 +7855,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q35">
         <v>2.46</v>
@@ -8261,7 +8267,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q37">
         <v>3.16</v>
@@ -8467,7 +8473,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q38">
         <v>2.81</v>
@@ -8673,7 +8679,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q39">
         <v>3.58</v>
@@ -8830,6 +8836,212 @@
       </c>
       <c r="BP39">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7781675</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45775.58333333334</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+      <c r="O40" t="s">
+        <v>113</v>
+      </c>
+      <c r="P40" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q40">
+        <v>3.75</v>
+      </c>
+      <c r="R40">
+        <v>2.25</v>
+      </c>
+      <c r="S40">
+        <v>2.63</v>
+      </c>
+      <c r="T40">
+        <v>1.33</v>
+      </c>
+      <c r="U40">
+        <v>3.25</v>
+      </c>
+      <c r="V40">
+        <v>2.63</v>
+      </c>
+      <c r="W40">
+        <v>1.44</v>
+      </c>
+      <c r="X40">
+        <v>6.5</v>
+      </c>
+      <c r="Y40">
+        <v>1.11</v>
+      </c>
+      <c r="Z40">
+        <v>3.89</v>
+      </c>
+      <c r="AA40">
+        <v>3.79</v>
+      </c>
+      <c r="AB40">
+        <v>1.82</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>1.65</v>
+      </c>
+      <c r="AH40">
+        <v>2.05</v>
+      </c>
+      <c r="AI40">
+        <v>1.62</v>
+      </c>
+      <c r="AJ40">
+        <v>2.2</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>1.5</v>
+      </c>
+      <c r="AO40">
+        <v>1.5</v>
+      </c>
+      <c r="AP40">
+        <v>1.33</v>
+      </c>
+      <c r="AQ40">
+        <v>1.33</v>
+      </c>
+      <c r="AR40">
+        <v>1.52</v>
+      </c>
+      <c r="AS40">
+        <v>2.36</v>
+      </c>
+      <c r="AT40">
+        <v>3.88</v>
+      </c>
+      <c r="AU40">
+        <v>8</v>
+      </c>
+      <c r="AV40">
+        <v>9</v>
+      </c>
+      <c r="AW40">
+        <v>2</v>
+      </c>
+      <c r="AX40">
+        <v>3</v>
+      </c>
+      <c r="AY40">
+        <v>10</v>
+      </c>
+      <c r="AZ40">
+        <v>12</v>
+      </c>
+      <c r="BA40">
+        <v>11</v>
+      </c>
+      <c r="BB40">
+        <v>4</v>
+      </c>
+      <c r="BC40">
+        <v>15</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40">
+        <v>0</v>
+      </c>
+      <c r="BG40">
+        <v>0</v>
+      </c>
+      <c r="BH40">
+        <v>0</v>
+      </c>
+      <c r="BI40">
+        <v>0</v>
+      </c>
+      <c r="BJ40">
+        <v>0</v>
+      </c>
+      <c r="BK40">
+        <v>0</v>
+      </c>
+      <c r="BL40">
+        <v>0</v>
+      </c>
+      <c r="BM40">
+        <v>0</v>
+      </c>
+      <c r="BN40">
+        <v>0</v>
+      </c>
+      <c r="BO40">
+        <v>0</v>
+      </c>
+      <c r="BP40">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="143">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,6 +358,9 @@
     <t>['20', '84']</t>
   </si>
   <si>
+    <t>['2', '54']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -437,6 +440,9 @@
   </si>
   <si>
     <t>['29', '71']</t>
+  </si>
+  <si>
+    <t>['5']</t>
   </si>
 </sst>
 </file>
@@ -798,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP40"/>
+  <dimension ref="A1:BP41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1469,7 +1475,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1675,7 +1681,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1753,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ5">
         <v>1.67</v>
@@ -1881,7 +1887,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2087,7 +2093,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2499,7 +2505,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2705,7 +2711,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2911,7 +2917,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3117,7 +3123,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3529,7 +3535,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3735,7 +3741,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -3941,7 +3947,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4147,7 +4153,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q17">
         <v>2.1</v>
@@ -4353,7 +4359,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4765,7 +4771,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -5177,7 +5183,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5383,7 +5389,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>2.42</v>
@@ -5795,7 +5801,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -6001,7 +6007,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6079,7 +6085,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26">
         <v>2</v>
@@ -6413,7 +6419,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6619,7 +6625,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6825,7 +6831,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -7649,7 +7655,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q34">
         <v>2.92</v>
@@ -7855,7 +7861,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q35">
         <v>2.46</v>
@@ -8267,7 +8273,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q37">
         <v>3.16</v>
@@ -8473,7 +8479,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q38">
         <v>2.81</v>
@@ -8679,7 +8685,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q39">
         <v>3.58</v>
@@ -8885,7 +8891,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9041,6 +9047,212 @@
         <v>0</v>
       </c>
       <c r="BP40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7781669</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45776.58333333334</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" t="s">
+        <v>77</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41" t="s">
+        <v>114</v>
+      </c>
+      <c r="P41" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q41">
+        <v>2.63</v>
+      </c>
+      <c r="R41">
+        <v>2.2</v>
+      </c>
+      <c r="S41">
+        <v>4</v>
+      </c>
+      <c r="T41">
+        <v>1.36</v>
+      </c>
+      <c r="U41">
+        <v>3</v>
+      </c>
+      <c r="V41">
+        <v>2.75</v>
+      </c>
+      <c r="W41">
+        <v>1.4</v>
+      </c>
+      <c r="X41">
+        <v>8</v>
+      </c>
+      <c r="Y41">
+        <v>1.08</v>
+      </c>
+      <c r="Z41">
+        <v>2.03</v>
+      </c>
+      <c r="AA41">
+        <v>3.3</v>
+      </c>
+      <c r="AB41">
+        <v>3.65</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>1.91</v>
+      </c>
+      <c r="AH41">
+        <v>1.83</v>
+      </c>
+      <c r="AI41">
+        <v>1.75</v>
+      </c>
+      <c r="AJ41">
+        <v>2</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>1.67</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>2.2</v>
+      </c>
+      <c r="AS41">
+        <v>1.86</v>
+      </c>
+      <c r="AT41">
+        <v>4.06</v>
+      </c>
+      <c r="AU41">
+        <v>8</v>
+      </c>
+      <c r="AV41">
+        <v>7</v>
+      </c>
+      <c r="AW41">
+        <v>8</v>
+      </c>
+      <c r="AX41">
+        <v>6</v>
+      </c>
+      <c r="AY41">
+        <v>16</v>
+      </c>
+      <c r="AZ41">
+        <v>13</v>
+      </c>
+      <c r="BA41">
+        <v>3</v>
+      </c>
+      <c r="BB41">
+        <v>4</v>
+      </c>
+      <c r="BC41">
+        <v>7</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BF41">
+        <v>0</v>
+      </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
+      <c r="BH41">
+        <v>0</v>
+      </c>
+      <c r="BI41">
+        <v>0</v>
+      </c>
+      <c r="BJ41">
+        <v>0</v>
+      </c>
+      <c r="BK41">
+        <v>0</v>
+      </c>
+      <c r="BL41">
+        <v>0</v>
+      </c>
+      <c r="BM41">
+        <v>0</v>
+      </c>
+      <c r="BN41">
+        <v>0</v>
+      </c>
+      <c r="BO41">
+        <v>0</v>
+      </c>
+      <c r="BP41">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="148">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,12 @@
     <t>['2', '54']</t>
   </si>
   <si>
+    <t>['59', '61']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -443,6 +449,15 @@
   </si>
   <si>
     <t>['5']</t>
+  </si>
+  <si>
+    <t>['23', '36']</t>
+  </si>
+  <si>
+    <t>['74', '90']</t>
+  </si>
+  <si>
+    <t>['11', '54']</t>
   </si>
 </sst>
 </file>
@@ -804,7 +819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP41"/>
+  <dimension ref="A1:BP45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1347,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
         <v>2.33</v>
@@ -1475,7 +1490,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1556,7 +1571,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1681,7 +1696,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1887,7 +1902,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2093,7 +2108,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2505,7 +2520,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2711,7 +2726,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2792,7 +2807,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2917,7 +2932,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3123,7 +3138,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3204,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3535,7 +3550,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3613,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -3741,7 +3756,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -3947,7 +3962,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4153,7 +4168,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q17">
         <v>2.1</v>
@@ -4359,7 +4374,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4643,7 +4658,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -4771,7 +4786,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -4852,7 +4867,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>1.5</v>
@@ -5183,7 +5198,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5261,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5389,7 +5404,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>2.42</v>
@@ -5801,7 +5816,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -5882,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="AQ25">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>2.02</v>
@@ -6007,7 +6022,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6088,7 +6103,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR26">
         <v>1.89</v>
@@ -6419,7 +6434,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6625,7 +6640,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6831,7 +6846,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -6909,10 +6924,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR30">
         <v>1.53</v>
@@ -7655,7 +7670,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q34">
         <v>2.92</v>
@@ -7861,7 +7876,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>2.46</v>
@@ -8273,7 +8288,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q37">
         <v>3.16</v>
@@ -8479,7 +8494,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q38">
         <v>2.81</v>
@@ -8685,7 +8700,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q39">
         <v>3.58</v>
@@ -8763,7 +8778,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ39">
         <v>2.33</v>
@@ -8891,7 +8906,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9097,7 +9112,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9254,6 +9269,830 @@
       </c>
       <c r="BP41">
         <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7781679</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45780.33333333334</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42" t="s">
+        <v>87</v>
+      </c>
+      <c r="P42" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q42">
+        <v>2.6</v>
+      </c>
+      <c r="R42">
+        <v>2.2</v>
+      </c>
+      <c r="S42">
+        <v>4</v>
+      </c>
+      <c r="T42">
+        <v>1.36</v>
+      </c>
+      <c r="U42">
+        <v>3</v>
+      </c>
+      <c r="V42">
+        <v>2.75</v>
+      </c>
+      <c r="W42">
+        <v>1.4</v>
+      </c>
+      <c r="X42">
+        <v>7</v>
+      </c>
+      <c r="Y42">
+        <v>1.1</v>
+      </c>
+      <c r="Z42">
+        <v>1.78</v>
+      </c>
+      <c r="AA42">
+        <v>3.78</v>
+      </c>
+      <c r="AB42">
+        <v>4.1</v>
+      </c>
+      <c r="AC42">
+        <v>1.05</v>
+      </c>
+      <c r="AD42">
+        <v>8.5</v>
+      </c>
+      <c r="AE42">
+        <v>1.3</v>
+      </c>
+      <c r="AF42">
+        <v>3.35</v>
+      </c>
+      <c r="AG42">
+        <v>1.77</v>
+      </c>
+      <c r="AH42">
+        <v>1.98</v>
+      </c>
+      <c r="AI42">
+        <v>1.75</v>
+      </c>
+      <c r="AJ42">
+        <v>2</v>
+      </c>
+      <c r="AK42">
+        <v>1.28</v>
+      </c>
+      <c r="AL42">
+        <v>1.25</v>
+      </c>
+      <c r="AM42">
+        <v>1.77</v>
+      </c>
+      <c r="AN42">
+        <v>2</v>
+      </c>
+      <c r="AO42">
+        <v>2</v>
+      </c>
+      <c r="AP42">
+        <v>1.33</v>
+      </c>
+      <c r="AQ42">
+        <v>2.33</v>
+      </c>
+      <c r="AR42">
+        <v>1.94</v>
+      </c>
+      <c r="AS42">
+        <v>1.49</v>
+      </c>
+      <c r="AT42">
+        <v>3.43</v>
+      </c>
+      <c r="AU42">
+        <v>3</v>
+      </c>
+      <c r="AV42">
+        <v>5</v>
+      </c>
+      <c r="AW42">
+        <v>9</v>
+      </c>
+      <c r="AX42">
+        <v>2</v>
+      </c>
+      <c r="AY42">
+        <v>12</v>
+      </c>
+      <c r="AZ42">
+        <v>7</v>
+      </c>
+      <c r="BA42">
+        <v>5</v>
+      </c>
+      <c r="BB42">
+        <v>4</v>
+      </c>
+      <c r="BC42">
+        <v>9</v>
+      </c>
+      <c r="BD42">
+        <v>1.71</v>
+      </c>
+      <c r="BE42">
+        <v>6.75</v>
+      </c>
+      <c r="BF42">
+        <v>2.4</v>
+      </c>
+      <c r="BG42">
+        <v>1.2</v>
+      </c>
+      <c r="BH42">
+        <v>3.95</v>
+      </c>
+      <c r="BI42">
+        <v>1.36</v>
+      </c>
+      <c r="BJ42">
+        <v>2.85</v>
+      </c>
+      <c r="BK42">
+        <v>1.58</v>
+      </c>
+      <c r="BL42">
+        <v>2.18</v>
+      </c>
+      <c r="BM42">
+        <v>1.93</v>
+      </c>
+      <c r="BN42">
+        <v>1.77</v>
+      </c>
+      <c r="BO42">
+        <v>2.4</v>
+      </c>
+      <c r="BP42">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7781677</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45780.33333333334</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>4</v>
+      </c>
+      <c r="O43" t="s">
+        <v>115</v>
+      </c>
+      <c r="P43" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q43">
+        <v>3.1</v>
+      </c>
+      <c r="R43">
+        <v>2.1</v>
+      </c>
+      <c r="S43">
+        <v>3.4</v>
+      </c>
+      <c r="T43">
+        <v>1.4</v>
+      </c>
+      <c r="U43">
+        <v>2.75</v>
+      </c>
+      <c r="V43">
+        <v>3</v>
+      </c>
+      <c r="W43">
+        <v>1.36</v>
+      </c>
+      <c r="X43">
+        <v>8</v>
+      </c>
+      <c r="Y43">
+        <v>1.08</v>
+      </c>
+      <c r="Z43">
+        <v>2.15</v>
+      </c>
+      <c r="AA43">
+        <v>3.61</v>
+      </c>
+      <c r="AB43">
+        <v>3.05</v>
+      </c>
+      <c r="AC43">
+        <v>1.05</v>
+      </c>
+      <c r="AD43">
+        <v>8.5</v>
+      </c>
+      <c r="AE43">
+        <v>1.3</v>
+      </c>
+      <c r="AF43">
+        <v>3.3</v>
+      </c>
+      <c r="AG43">
+        <v>1.82</v>
+      </c>
+      <c r="AH43">
+        <v>1.92</v>
+      </c>
+      <c r="AI43">
+        <v>1.8</v>
+      </c>
+      <c r="AJ43">
+        <v>1.95</v>
+      </c>
+      <c r="AK43">
+        <v>1.42</v>
+      </c>
+      <c r="AL43">
+        <v>1.25</v>
+      </c>
+      <c r="AM43">
+        <v>1.53</v>
+      </c>
+      <c r="AN43">
+        <v>1.5</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>1.33</v>
+      </c>
+      <c r="AQ43">
+        <v>0.33</v>
+      </c>
+      <c r="AR43">
+        <v>1.52</v>
+      </c>
+      <c r="AS43">
+        <v>1.76</v>
+      </c>
+      <c r="AT43">
+        <v>3.28</v>
+      </c>
+      <c r="AU43">
+        <v>9</v>
+      </c>
+      <c r="AV43">
+        <v>10</v>
+      </c>
+      <c r="AW43">
+        <v>3</v>
+      </c>
+      <c r="AX43">
+        <v>3</v>
+      </c>
+      <c r="AY43">
+        <v>12</v>
+      </c>
+      <c r="AZ43">
+        <v>13</v>
+      </c>
+      <c r="BA43">
+        <v>2</v>
+      </c>
+      <c r="BB43">
+        <v>4</v>
+      </c>
+      <c r="BC43">
+        <v>6</v>
+      </c>
+      <c r="BD43">
+        <v>1.75</v>
+      </c>
+      <c r="BE43">
+        <v>7</v>
+      </c>
+      <c r="BF43">
+        <v>2.23</v>
+      </c>
+      <c r="BG43">
+        <v>1.24</v>
+      </c>
+      <c r="BH43">
+        <v>3.55</v>
+      </c>
+      <c r="BI43">
+        <v>1.41</v>
+      </c>
+      <c r="BJ43">
+        <v>2.65</v>
+      </c>
+      <c r="BK43">
+        <v>1.67</v>
+      </c>
+      <c r="BL43">
+        <v>2.07</v>
+      </c>
+      <c r="BM43">
+        <v>2.05</v>
+      </c>
+      <c r="BN43">
+        <v>1.68</v>
+      </c>
+      <c r="BO43">
+        <v>2.55</v>
+      </c>
+      <c r="BP43">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7781680</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45780.41666666666</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44" t="s">
+        <v>74</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>87</v>
+      </c>
+      <c r="P44" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q44">
+        <v>4.33</v>
+      </c>
+      <c r="R44">
+        <v>2.3</v>
+      </c>
+      <c r="S44">
+        <v>2.5</v>
+      </c>
+      <c r="T44">
+        <v>1.33</v>
+      </c>
+      <c r="U44">
+        <v>3.25</v>
+      </c>
+      <c r="V44">
+        <v>2.63</v>
+      </c>
+      <c r="W44">
+        <v>1.44</v>
+      </c>
+      <c r="X44">
+        <v>6.5</v>
+      </c>
+      <c r="Y44">
+        <v>1.11</v>
+      </c>
+      <c r="Z44">
+        <v>3.29</v>
+      </c>
+      <c r="AA44">
+        <v>3.81</v>
+      </c>
+      <c r="AB44">
+        <v>1.99</v>
+      </c>
+      <c r="AC44">
+        <v>1.04</v>
+      </c>
+      <c r="AD44">
+        <v>9</v>
+      </c>
+      <c r="AE44">
+        <v>1.25</v>
+      </c>
+      <c r="AF44">
+        <v>3.75</v>
+      </c>
+      <c r="AG44">
+        <v>1.73</v>
+      </c>
+      <c r="AH44">
+        <v>1.91</v>
+      </c>
+      <c r="AI44">
+        <v>1.7</v>
+      </c>
+      <c r="AJ44">
+        <v>2.05</v>
+      </c>
+      <c r="AK44">
+        <v>1.85</v>
+      </c>
+      <c r="AL44">
+        <v>1.22</v>
+      </c>
+      <c r="AM44">
+        <v>1.25</v>
+      </c>
+      <c r="AN44">
+        <v>0.33</v>
+      </c>
+      <c r="AO44">
+        <v>2</v>
+      </c>
+      <c r="AP44">
+        <v>0.25</v>
+      </c>
+      <c r="AQ44">
+        <v>2.33</v>
+      </c>
+      <c r="AR44">
+        <v>1.39</v>
+      </c>
+      <c r="AS44">
+        <v>2.02</v>
+      </c>
+      <c r="AT44">
+        <v>3.41</v>
+      </c>
+      <c r="AU44">
+        <v>4</v>
+      </c>
+      <c r="AV44">
+        <v>14</v>
+      </c>
+      <c r="AW44">
+        <v>2</v>
+      </c>
+      <c r="AX44">
+        <v>1</v>
+      </c>
+      <c r="AY44">
+        <v>6</v>
+      </c>
+      <c r="AZ44">
+        <v>15</v>
+      </c>
+      <c r="BA44">
+        <v>3</v>
+      </c>
+      <c r="BB44">
+        <v>6</v>
+      </c>
+      <c r="BC44">
+        <v>9</v>
+      </c>
+      <c r="BD44">
+        <v>2.4</v>
+      </c>
+      <c r="BE44">
+        <v>6.75</v>
+      </c>
+      <c r="BF44">
+        <v>1.7</v>
+      </c>
+      <c r="BG44">
+        <v>1.26</v>
+      </c>
+      <c r="BH44">
+        <v>3.4</v>
+      </c>
+      <c r="BI44">
+        <v>1.47</v>
+      </c>
+      <c r="BJ44">
+        <v>2.48</v>
+      </c>
+      <c r="BK44">
+        <v>1.75</v>
+      </c>
+      <c r="BL44">
+        <v>1.95</v>
+      </c>
+      <c r="BM44">
+        <v>2.17</v>
+      </c>
+      <c r="BN44">
+        <v>1.6</v>
+      </c>
+      <c r="BO44">
+        <v>2.7</v>
+      </c>
+      <c r="BP44">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7781681</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45780.41666666666</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45" t="s">
+        <v>79</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>116</v>
+      </c>
+      <c r="P45" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q45">
+        <v>2.88</v>
+      </c>
+      <c r="R45">
+        <v>2.2</v>
+      </c>
+      <c r="S45">
+        <v>3.6</v>
+      </c>
+      <c r="T45">
+        <v>1.4</v>
+      </c>
+      <c r="U45">
+        <v>2.75</v>
+      </c>
+      <c r="V45">
+        <v>2.75</v>
+      </c>
+      <c r="W45">
+        <v>1.4</v>
+      </c>
+      <c r="X45">
+        <v>8</v>
+      </c>
+      <c r="Y45">
+        <v>1.08</v>
+      </c>
+      <c r="Z45">
+        <v>2.39</v>
+      </c>
+      <c r="AA45">
+        <v>3.57</v>
+      </c>
+      <c r="AB45">
+        <v>2.7</v>
+      </c>
+      <c r="AC45">
+        <v>1.05</v>
+      </c>
+      <c r="AD45">
+        <v>8.5</v>
+      </c>
+      <c r="AE45">
+        <v>1.3</v>
+      </c>
+      <c r="AF45">
+        <v>3.25</v>
+      </c>
+      <c r="AG45">
+        <v>1.77</v>
+      </c>
+      <c r="AH45">
+        <v>1.98</v>
+      </c>
+      <c r="AI45">
+        <v>1.75</v>
+      </c>
+      <c r="AJ45">
+        <v>2</v>
+      </c>
+      <c r="AK45">
+        <v>1.36</v>
+      </c>
+      <c r="AL45">
+        <v>1.28</v>
+      </c>
+      <c r="AM45">
+        <v>1.6</v>
+      </c>
+      <c r="AN45">
+        <v>3</v>
+      </c>
+      <c r="AO45">
+        <v>1.5</v>
+      </c>
+      <c r="AP45">
+        <v>3</v>
+      </c>
+      <c r="AQ45">
+        <v>1</v>
+      </c>
+      <c r="AR45">
+        <v>1.94</v>
+      </c>
+      <c r="AS45">
+        <v>1.36</v>
+      </c>
+      <c r="AT45">
+        <v>3.3</v>
+      </c>
+      <c r="AU45">
+        <v>4</v>
+      </c>
+      <c r="AV45">
+        <v>2</v>
+      </c>
+      <c r="AW45">
+        <v>7</v>
+      </c>
+      <c r="AX45">
+        <v>10</v>
+      </c>
+      <c r="AY45">
+        <v>11</v>
+      </c>
+      <c r="AZ45">
+        <v>12</v>
+      </c>
+      <c r="BA45">
+        <v>6</v>
+      </c>
+      <c r="BB45">
+        <v>2</v>
+      </c>
+      <c r="BC45">
+        <v>8</v>
+      </c>
+      <c r="BD45">
+        <v>1.68</v>
+      </c>
+      <c r="BE45">
+        <v>7</v>
+      </c>
+      <c r="BF45">
+        <v>2.4</v>
+      </c>
+      <c r="BG45">
+        <v>1.19</v>
+      </c>
+      <c r="BH45">
+        <v>4.1</v>
+      </c>
+      <c r="BI45">
+        <v>1.33</v>
+      </c>
+      <c r="BJ45">
+        <v>2.95</v>
+      </c>
+      <c r="BK45">
+        <v>1.56</v>
+      </c>
+      <c r="BL45">
+        <v>2.23</v>
+      </c>
+      <c r="BM45">
+        <v>1.88</v>
+      </c>
+      <c r="BN45">
+        <v>1.81</v>
+      </c>
+      <c r="BO45">
+        <v>2.32</v>
+      </c>
+      <c r="BP45">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="150">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,9 @@
     <t>['69']</t>
   </si>
   <si>
+    <t>['62', '65', '85', '88']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -458,6 +461,9 @@
   </si>
   <si>
     <t>['11', '54']</t>
+  </si>
+  <si>
+    <t>['22', '41']</t>
   </si>
 </sst>
 </file>
@@ -819,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP45"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1490,7 +1496,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1568,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ4">
         <v>0.33</v>
@@ -1696,7 +1702,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1902,7 +1908,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2108,7 +2114,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2520,7 +2526,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2726,7 +2732,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2932,7 +2938,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3138,7 +3144,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3550,7 +3556,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3756,7 +3762,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -3962,7 +3968,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4043,7 +4049,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4168,7 +4174,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q17">
         <v>2.1</v>
@@ -4374,7 +4380,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4786,7 +4792,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -5070,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ21">
         <v>1.33</v>
@@ -5198,7 +5204,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5404,7 +5410,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q23">
         <v>2.42</v>
@@ -5691,7 +5697,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.8</v>
@@ -5816,7 +5822,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -6022,7 +6028,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6306,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -6434,7 +6440,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6640,7 +6646,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6846,7 +6852,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -7670,7 +7676,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q34">
         <v>2.92</v>
@@ -7876,7 +7882,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>2.46</v>
@@ -8288,7 +8294,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q37">
         <v>3.16</v>
@@ -8494,7 +8500,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q38">
         <v>2.81</v>
@@ -8700,7 +8706,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q39">
         <v>3.58</v>
@@ -8906,7 +8912,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9112,7 +9118,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9318,7 +9324,7 @@
         <v>87</v>
       </c>
       <c r="P42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9524,7 +9530,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q43">
         <v>3.1</v>
@@ -9730,7 +9736,7 @@
         <v>87</v>
       </c>
       <c r="P44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10093,6 +10099,212 @@
       </c>
       <c r="BP45">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7781684</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45781.41666666666</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>6</v>
+      </c>
+      <c r="O46" t="s">
+        <v>117</v>
+      </c>
+      <c r="P46" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q46">
+        <v>2.55</v>
+      </c>
+      <c r="R46">
+        <v>2.2</v>
+      </c>
+      <c r="S46">
+        <v>3.65</v>
+      </c>
+      <c r="T46">
+        <v>1.33</v>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46">
+        <v>2.45</v>
+      </c>
+      <c r="W46">
+        <v>1.48</v>
+      </c>
+      <c r="X46">
+        <v>6.35</v>
+      </c>
+      <c r="Y46">
+        <v>1.06</v>
+      </c>
+      <c r="Z46">
+        <v>2.02</v>
+      </c>
+      <c r="AA46">
+        <v>3.7</v>
+      </c>
+      <c r="AB46">
+        <v>3.29</v>
+      </c>
+      <c r="AC46">
+        <v>1.04</v>
+      </c>
+      <c r="AD46">
+        <v>9</v>
+      </c>
+      <c r="AE46">
+        <v>1.22</v>
+      </c>
+      <c r="AF46">
+        <v>3.95</v>
+      </c>
+      <c r="AG46">
+        <v>1.65</v>
+      </c>
+      <c r="AH46">
+        <v>2.13</v>
+      </c>
+      <c r="AI46">
+        <v>1.57</v>
+      </c>
+      <c r="AJ46">
+        <v>2.15</v>
+      </c>
+      <c r="AK46">
+        <v>1.3</v>
+      </c>
+      <c r="AL46">
+        <v>1.22</v>
+      </c>
+      <c r="AM46">
+        <v>1.77</v>
+      </c>
+      <c r="AN46">
+        <v>2.33</v>
+      </c>
+      <c r="AO46">
+        <v>1.5</v>
+      </c>
+      <c r="AP46">
+        <v>2.5</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>1.62</v>
+      </c>
+      <c r="AS46">
+        <v>1.47</v>
+      </c>
+      <c r="AT46">
+        <v>3.09</v>
+      </c>
+      <c r="AU46">
+        <v>18</v>
+      </c>
+      <c r="AV46">
+        <v>5</v>
+      </c>
+      <c r="AW46">
+        <v>5</v>
+      </c>
+      <c r="AX46">
+        <v>6</v>
+      </c>
+      <c r="AY46">
+        <v>23</v>
+      </c>
+      <c r="AZ46">
+        <v>11</v>
+      </c>
+      <c r="BA46">
+        <v>7</v>
+      </c>
+      <c r="BB46">
+        <v>1</v>
+      </c>
+      <c r="BC46">
+        <v>8</v>
+      </c>
+      <c r="BD46">
+        <v>1.84</v>
+      </c>
+      <c r="BE46">
+        <v>6.75</v>
+      </c>
+      <c r="BF46">
+        <v>2.12</v>
+      </c>
+      <c r="BG46">
+        <v>1.2</v>
+      </c>
+      <c r="BH46">
+        <v>4</v>
+      </c>
+      <c r="BI46">
+        <v>1.35</v>
+      </c>
+      <c r="BJ46">
+        <v>2.9</v>
+      </c>
+      <c r="BK46">
+        <v>1.58</v>
+      </c>
+      <c r="BL46">
+        <v>2.2</v>
+      </c>
+      <c r="BM46">
+        <v>1.9</v>
+      </c>
+      <c r="BN46">
+        <v>1.79</v>
+      </c>
+      <c r="BO46">
+        <v>2.35</v>
+      </c>
+      <c r="BP46">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="153">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -370,6 +370,9 @@
     <t>['62', '65', '85', '88']</t>
   </si>
   <si>
+    <t>['36', '61']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -464,6 +467,12 @@
   </si>
   <si>
     <t>['22', '41']</t>
+  </si>
+  <si>
+    <t>['37', '67']</t>
+  </si>
+  <si>
+    <t>['31', '45+2']</t>
   </si>
 </sst>
 </file>
@@ -825,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1371,7 +1380,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1496,7 +1505,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1702,7 +1711,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1908,7 +1917,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2114,7 +2123,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2195,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2526,7 +2535,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2604,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ9">
         <v>1.33</v>
@@ -2732,7 +2741,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2938,7 +2947,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3144,7 +3153,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3556,7 +3565,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3637,7 +3646,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3762,7 +3771,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -3968,7 +3977,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4046,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4174,7 +4183,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q17">
         <v>2.1</v>
@@ -4252,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
         <v>0.5</v>
@@ -4380,7 +4389,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4461,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>0.99</v>
@@ -4667,7 +4676,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>2.03</v>
@@ -4792,7 +4801,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -5204,7 +5213,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5285,7 +5294,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR22">
         <v>1.35</v>
@@ -5410,7 +5419,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>2.42</v>
@@ -5488,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ23">
         <v>1.67</v>
@@ -5694,7 +5703,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -5822,7 +5831,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -5900,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6028,7 +6037,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6440,7 +6449,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6646,7 +6655,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6852,7 +6861,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -7139,7 +7148,7 @@
         <v>3</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
         <v>1.83</v>
@@ -7676,7 +7685,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>2.92</v>
@@ -7882,7 +7891,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>2.46</v>
@@ -8294,7 +8303,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q37">
         <v>3.16</v>
@@ -8375,7 +8384,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.64</v>
@@ -8500,7 +8509,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q38">
         <v>2.81</v>
@@ -8706,7 +8715,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q39">
         <v>3.58</v>
@@ -8912,7 +8921,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9118,7 +9127,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9324,7 +9333,7 @@
         <v>87</v>
       </c>
       <c r="P42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9530,7 +9539,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q43">
         <v>3.1</v>
@@ -9736,7 +9745,7 @@
         <v>87</v>
       </c>
       <c r="P44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10148,7 +10157,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q46">
         <v>2.55</v>
@@ -10305,6 +10314,624 @@
       </c>
       <c r="BP46">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7781678</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45782.58333333334</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47" t="s">
+        <v>87</v>
+      </c>
+      <c r="P47" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q47">
+        <v>2.5</v>
+      </c>
+      <c r="R47">
+        <v>2.2</v>
+      </c>
+      <c r="S47">
+        <v>4.33</v>
+      </c>
+      <c r="T47">
+        <v>1.4</v>
+      </c>
+      <c r="U47">
+        <v>2.75</v>
+      </c>
+      <c r="V47">
+        <v>2.75</v>
+      </c>
+      <c r="W47">
+        <v>1.4</v>
+      </c>
+      <c r="X47">
+        <v>8</v>
+      </c>
+      <c r="Y47">
+        <v>1.08</v>
+      </c>
+      <c r="Z47">
+        <v>1.9</v>
+      </c>
+      <c r="AA47">
+        <v>3.39</v>
+      </c>
+      <c r="AB47">
+        <v>4</v>
+      </c>
+      <c r="AC47">
+        <v>1.02</v>
+      </c>
+      <c r="AD47">
+        <v>8</v>
+      </c>
+      <c r="AE47">
+        <v>1.28</v>
+      </c>
+      <c r="AF47">
+        <v>3.1</v>
+      </c>
+      <c r="AG47">
+        <v>1.91</v>
+      </c>
+      <c r="AH47">
+        <v>1.83</v>
+      </c>
+      <c r="AI47">
+        <v>1.8</v>
+      </c>
+      <c r="AJ47">
+        <v>1.95</v>
+      </c>
+      <c r="AK47">
+        <v>1.25</v>
+      </c>
+      <c r="AL47">
+        <v>1.3</v>
+      </c>
+      <c r="AM47">
+        <v>1.8</v>
+      </c>
+      <c r="AN47">
+        <v>0.5</v>
+      </c>
+      <c r="AO47">
+        <v>1.33</v>
+      </c>
+      <c r="AP47">
+        <v>0.33</v>
+      </c>
+      <c r="AQ47">
+        <v>1.75</v>
+      </c>
+      <c r="AR47">
+        <v>2.18</v>
+      </c>
+      <c r="AS47">
+        <v>1.38</v>
+      </c>
+      <c r="AT47">
+        <v>3.56</v>
+      </c>
+      <c r="AU47">
+        <v>5</v>
+      </c>
+      <c r="AV47">
+        <v>7</v>
+      </c>
+      <c r="AW47">
+        <v>6</v>
+      </c>
+      <c r="AX47">
+        <v>7</v>
+      </c>
+      <c r="AY47">
+        <v>11</v>
+      </c>
+      <c r="AZ47">
+        <v>14</v>
+      </c>
+      <c r="BA47">
+        <v>2</v>
+      </c>
+      <c r="BB47">
+        <v>3</v>
+      </c>
+      <c r="BC47">
+        <v>5</v>
+      </c>
+      <c r="BD47">
+        <v>1.89</v>
+      </c>
+      <c r="BE47">
+        <v>6.75</v>
+      </c>
+      <c r="BF47">
+        <v>2.08</v>
+      </c>
+      <c r="BG47">
+        <v>1.25</v>
+      </c>
+      <c r="BH47">
+        <v>3.45</v>
+      </c>
+      <c r="BI47">
+        <v>1.44</v>
+      </c>
+      <c r="BJ47">
+        <v>2.55</v>
+      </c>
+      <c r="BK47">
+        <v>1.71</v>
+      </c>
+      <c r="BL47">
+        <v>2</v>
+      </c>
+      <c r="BM47">
+        <v>2.1</v>
+      </c>
+      <c r="BN47">
+        <v>1.64</v>
+      </c>
+      <c r="BO47">
+        <v>2.65</v>
+      </c>
+      <c r="BP47">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7781683</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45782.58333333334</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>87</v>
+      </c>
+      <c r="P48" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q48">
+        <v>2.9</v>
+      </c>
+      <c r="R48">
+        <v>2.17</v>
+      </c>
+      <c r="S48">
+        <v>3.3</v>
+      </c>
+      <c r="T48">
+        <v>1.38</v>
+      </c>
+      <c r="U48">
+        <v>2.9</v>
+      </c>
+      <c r="V48">
+        <v>2.75</v>
+      </c>
+      <c r="W48">
+        <v>1.42</v>
+      </c>
+      <c r="X48">
+        <v>6.5</v>
+      </c>
+      <c r="Y48">
+        <v>1.07</v>
+      </c>
+      <c r="Z48">
+        <v>2.31</v>
+      </c>
+      <c r="AA48">
+        <v>3.45</v>
+      </c>
+      <c r="AB48">
+        <v>2.89</v>
+      </c>
+      <c r="AC48">
+        <v>1.03</v>
+      </c>
+      <c r="AD48">
+        <v>9</v>
+      </c>
+      <c r="AE48">
+        <v>1.25</v>
+      </c>
+      <c r="AF48">
+        <v>3.6</v>
+      </c>
+      <c r="AG48">
+        <v>1.89</v>
+      </c>
+      <c r="AH48">
+        <v>1.85</v>
+      </c>
+      <c r="AI48">
+        <v>1.67</v>
+      </c>
+      <c r="AJ48">
+        <v>2</v>
+      </c>
+      <c r="AK48">
+        <v>1.41</v>
+      </c>
+      <c r="AL48">
+        <v>1.29</v>
+      </c>
+      <c r="AM48">
+        <v>1.58</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>1.5</v>
+      </c>
+      <c r="AP48">
+        <v>0.33</v>
+      </c>
+      <c r="AQ48">
+        <v>1.33</v>
+      </c>
+      <c r="AR48">
+        <v>1.5</v>
+      </c>
+      <c r="AS48">
+        <v>1.77</v>
+      </c>
+      <c r="AT48">
+        <v>3.27</v>
+      </c>
+      <c r="AU48">
+        <v>4</v>
+      </c>
+      <c r="AV48">
+        <v>6</v>
+      </c>
+      <c r="AW48">
+        <v>2</v>
+      </c>
+      <c r="AX48">
+        <v>6</v>
+      </c>
+      <c r="AY48">
+        <v>6</v>
+      </c>
+      <c r="AZ48">
+        <v>12</v>
+      </c>
+      <c r="BA48">
+        <v>6</v>
+      </c>
+      <c r="BB48">
+        <v>6</v>
+      </c>
+      <c r="BC48">
+        <v>12</v>
+      </c>
+      <c r="BD48">
+        <v>1.74</v>
+      </c>
+      <c r="BE48">
+        <v>6.75</v>
+      </c>
+      <c r="BF48">
+        <v>2.3</v>
+      </c>
+      <c r="BG48">
+        <v>1.21</v>
+      </c>
+      <c r="BH48">
+        <v>3.8</v>
+      </c>
+      <c r="BI48">
+        <v>1.38</v>
+      </c>
+      <c r="BJ48">
+        <v>2.8</v>
+      </c>
+      <c r="BK48">
+        <v>1.61</v>
+      </c>
+      <c r="BL48">
+        <v>2.15</v>
+      </c>
+      <c r="BM48">
+        <v>1.97</v>
+      </c>
+      <c r="BN48">
+        <v>1.74</v>
+      </c>
+      <c r="BO48">
+        <v>2.43</v>
+      </c>
+      <c r="BP48">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7781682</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45783.58333333334</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>85</v>
+      </c>
+      <c r="H49" t="s">
+        <v>81</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+      <c r="O49" t="s">
+        <v>118</v>
+      </c>
+      <c r="P49" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q49">
+        <v>3.1</v>
+      </c>
+      <c r="R49">
+        <v>2.2</v>
+      </c>
+      <c r="S49">
+        <v>3.25</v>
+      </c>
+      <c r="T49">
+        <v>1.36</v>
+      </c>
+      <c r="U49">
+        <v>3</v>
+      </c>
+      <c r="V49">
+        <v>2.75</v>
+      </c>
+      <c r="W49">
+        <v>1.4</v>
+      </c>
+      <c r="X49">
+        <v>7</v>
+      </c>
+      <c r="Y49">
+        <v>1.1</v>
+      </c>
+      <c r="Z49">
+        <v>2.31</v>
+      </c>
+      <c r="AA49">
+        <v>3.31</v>
+      </c>
+      <c r="AB49">
+        <v>2.6</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>1.83</v>
+      </c>
+      <c r="AH49">
+        <v>1.87</v>
+      </c>
+      <c r="AI49">
+        <v>1.7</v>
+      </c>
+      <c r="AJ49">
+        <v>2.05</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>2</v>
+      </c>
+      <c r="AO49">
+        <v>2.33</v>
+      </c>
+      <c r="AP49">
+        <v>1.67</v>
+      </c>
+      <c r="AQ49">
+        <v>2</v>
+      </c>
+      <c r="AR49">
+        <v>1.3</v>
+      </c>
+      <c r="AS49">
+        <v>1.97</v>
+      </c>
+      <c r="AT49">
+        <v>3.27</v>
+      </c>
+      <c r="AU49">
+        <v>4</v>
+      </c>
+      <c r="AV49">
+        <v>3</v>
+      </c>
+      <c r="AW49">
+        <v>4</v>
+      </c>
+      <c r="AX49">
+        <v>9</v>
+      </c>
+      <c r="AY49">
+        <v>8</v>
+      </c>
+      <c r="AZ49">
+        <v>12</v>
+      </c>
+      <c r="BA49">
+        <v>2</v>
+      </c>
+      <c r="BB49">
+        <v>1</v>
+      </c>
+      <c r="BC49">
+        <v>3</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>0</v>
+      </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
+      <c r="BH49">
+        <v>0</v>
+      </c>
+      <c r="BI49">
+        <v>0</v>
+      </c>
+      <c r="BJ49">
+        <v>0</v>
+      </c>
+      <c r="BK49">
+        <v>0</v>
+      </c>
+      <c r="BL49">
+        <v>0</v>
+      </c>
+      <c r="BM49">
+        <v>0</v>
+      </c>
+      <c r="BN49">
+        <v>0</v>
+      </c>
+      <c r="BO49">
+        <v>0</v>
+      </c>
+      <c r="BP49">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="161">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,6 +373,18 @@
     <t>['36', '61']</t>
   </si>
   <si>
+    <t>['40', '66']</t>
+  </si>
+  <si>
+    <t>['24', '90+7']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['80', '81']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -473,6 +485,18 @@
   </si>
   <si>
     <t>['31', '45+2']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['55', '84']</t>
+  </si>
+  <si>
+    <t>['20', '74']</t>
   </si>
 </sst>
 </file>
@@ -834,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1171,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1377,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
         <v>2</v>
@@ -1505,7 +1529,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1711,7 +1735,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1917,7 +1941,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2123,7 +2147,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2407,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2535,7 +2559,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2616,7 +2640,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2741,7 +2765,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2819,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ10">
         <v>2.33</v>
@@ -2947,7 +2971,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3153,7 +3177,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3565,7 +3589,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3771,7 +3795,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -3977,7 +4001,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4183,7 +4207,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q17">
         <v>2.1</v>
@@ -4389,7 +4413,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4467,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4673,7 +4697,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ19">
         <v>1.33</v>
@@ -4801,7 +4825,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -5213,7 +5237,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5419,7 +5443,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q23">
         <v>2.42</v>
@@ -5831,7 +5855,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -6037,7 +6061,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6449,7 +6473,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6527,7 +6551,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6655,7 +6679,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6861,7 +6885,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -6939,7 +6963,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>2.33</v>
@@ -7560,7 +7584,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR33">
         <v>1.44</v>
@@ -7685,7 +7709,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q34">
         <v>2.92</v>
@@ -7891,7 +7915,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>2.46</v>
@@ -7969,7 +7993,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>1.33</v>
@@ -8303,7 +8327,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q37">
         <v>3.16</v>
@@ -8509,7 +8533,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>2.81</v>
@@ -8715,7 +8739,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>3.58</v>
@@ -8921,7 +8945,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -8999,10 +9023,10 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR40">
         <v>1.52</v>
@@ -9127,7 +9151,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9333,7 +9357,7 @@
         <v>87</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9411,7 +9435,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42">
         <v>2.33</v>
@@ -9539,7 +9563,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q43">
         <v>3.1</v>
@@ -9617,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>0.33</v>
@@ -9745,7 +9769,7 @@
         <v>87</v>
       </c>
       <c r="P44" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10157,7 +10181,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>2.55</v>
@@ -10363,7 +10387,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q47">
         <v>2.5</v>
@@ -10775,7 +10799,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -10931,6 +10955,830 @@
         <v>0</v>
       </c>
       <c r="BP49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7781690</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45787.33333333334</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" t="s">
+        <v>82</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>119</v>
+      </c>
+      <c r="P50" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q50">
+        <v>2.1</v>
+      </c>
+      <c r="R50">
+        <v>2.38</v>
+      </c>
+      <c r="S50">
+        <v>5.5</v>
+      </c>
+      <c r="T50">
+        <v>1.33</v>
+      </c>
+      <c r="U50">
+        <v>3.25</v>
+      </c>
+      <c r="V50">
+        <v>2.5</v>
+      </c>
+      <c r="W50">
+        <v>1.5</v>
+      </c>
+      <c r="X50">
+        <v>6.5</v>
+      </c>
+      <c r="Y50">
+        <v>1.11</v>
+      </c>
+      <c r="Z50">
+        <v>1.53</v>
+      </c>
+      <c r="AA50">
+        <v>4.1</v>
+      </c>
+      <c r="AB50">
+        <v>4.5</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>1.7</v>
+      </c>
+      <c r="AH50">
+        <v>1.95</v>
+      </c>
+      <c r="AI50">
+        <v>1.8</v>
+      </c>
+      <c r="AJ50">
+        <v>1.95</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>1.33</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>1.75</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>1.75</v>
+      </c>
+      <c r="AS50">
+        <v>1.26</v>
+      </c>
+      <c r="AT50">
+        <v>3.01</v>
+      </c>
+      <c r="AU50">
+        <v>12</v>
+      </c>
+      <c r="AV50">
+        <v>12</v>
+      </c>
+      <c r="AW50">
+        <v>10</v>
+      </c>
+      <c r="AX50">
+        <v>1</v>
+      </c>
+      <c r="AY50">
+        <v>22</v>
+      </c>
+      <c r="AZ50">
+        <v>13</v>
+      </c>
+      <c r="BA50">
+        <v>11</v>
+      </c>
+      <c r="BB50">
+        <v>5</v>
+      </c>
+      <c r="BC50">
+        <v>16</v>
+      </c>
+      <c r="BD50">
+        <v>0</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50">
+        <v>0</v>
+      </c>
+      <c r="BG50">
+        <v>0</v>
+      </c>
+      <c r="BH50">
+        <v>0</v>
+      </c>
+      <c r="BI50">
+        <v>0</v>
+      </c>
+      <c r="BJ50">
+        <v>0</v>
+      </c>
+      <c r="BK50">
+        <v>0</v>
+      </c>
+      <c r="BL50">
+        <v>0</v>
+      </c>
+      <c r="BM50">
+        <v>0</v>
+      </c>
+      <c r="BN50">
+        <v>0</v>
+      </c>
+      <c r="BO50">
+        <v>0</v>
+      </c>
+      <c r="BP50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7781687</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45787.41666666666</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51" t="s">
+        <v>120</v>
+      </c>
+      <c r="P51" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q51">
+        <v>2.75</v>
+      </c>
+      <c r="R51">
+        <v>2.1</v>
+      </c>
+      <c r="S51">
+        <v>4</v>
+      </c>
+      <c r="T51">
+        <v>1.4</v>
+      </c>
+      <c r="U51">
+        <v>2.75</v>
+      </c>
+      <c r="V51">
+        <v>3</v>
+      </c>
+      <c r="W51">
+        <v>1.36</v>
+      </c>
+      <c r="X51">
+        <v>8</v>
+      </c>
+      <c r="Y51">
+        <v>1.08</v>
+      </c>
+      <c r="Z51">
+        <v>1.88</v>
+      </c>
+      <c r="AA51">
+        <v>3.34</v>
+      </c>
+      <c r="AB51">
+        <v>3.47</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>2.01</v>
+      </c>
+      <c r="AH51">
+        <v>1.71</v>
+      </c>
+      <c r="AI51">
+        <v>1.91</v>
+      </c>
+      <c r="AJ51">
+        <v>1.91</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>1.5</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>1.17</v>
+      </c>
+      <c r="AS51">
+        <v>1.88</v>
+      </c>
+      <c r="AT51">
+        <v>3.05</v>
+      </c>
+      <c r="AU51">
+        <v>14</v>
+      </c>
+      <c r="AV51">
+        <v>6</v>
+      </c>
+      <c r="AW51">
+        <v>4</v>
+      </c>
+      <c r="AX51">
+        <v>8</v>
+      </c>
+      <c r="AY51">
+        <v>18</v>
+      </c>
+      <c r="AZ51">
+        <v>14</v>
+      </c>
+      <c r="BA51">
+        <v>5</v>
+      </c>
+      <c r="BB51">
+        <v>1</v>
+      </c>
+      <c r="BC51">
+        <v>6</v>
+      </c>
+      <c r="BD51">
+        <v>0</v>
+      </c>
+      <c r="BE51">
+        <v>0</v>
+      </c>
+      <c r="BF51">
+        <v>0</v>
+      </c>
+      <c r="BG51">
+        <v>0</v>
+      </c>
+      <c r="BH51">
+        <v>0</v>
+      </c>
+      <c r="BI51">
+        <v>0</v>
+      </c>
+      <c r="BJ51">
+        <v>0</v>
+      </c>
+      <c r="BK51">
+        <v>0</v>
+      </c>
+      <c r="BL51">
+        <v>0</v>
+      </c>
+      <c r="BM51">
+        <v>0</v>
+      </c>
+      <c r="BN51">
+        <v>0</v>
+      </c>
+      <c r="BO51">
+        <v>0</v>
+      </c>
+      <c r="BP51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7781685</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45787.41666666666</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" t="s">
+        <v>85</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>121</v>
+      </c>
+      <c r="P52" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q52">
+        <v>4</v>
+      </c>
+      <c r="R52">
+        <v>2.2</v>
+      </c>
+      <c r="S52">
+        <v>2.75</v>
+      </c>
+      <c r="T52">
+        <v>1.36</v>
+      </c>
+      <c r="U52">
+        <v>3</v>
+      </c>
+      <c r="V52">
+        <v>2.75</v>
+      </c>
+      <c r="W52">
+        <v>1.4</v>
+      </c>
+      <c r="X52">
+        <v>8</v>
+      </c>
+      <c r="Y52">
+        <v>1.08</v>
+      </c>
+      <c r="Z52">
+        <v>3.77</v>
+      </c>
+      <c r="AA52">
+        <v>3.63</v>
+      </c>
+      <c r="AB52">
+        <v>1.73</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>1.5</v>
+      </c>
+      <c r="AF52">
+        <v>2.4</v>
+      </c>
+      <c r="AG52">
+        <v>1.76</v>
+      </c>
+      <c r="AH52">
+        <v>1.94</v>
+      </c>
+      <c r="AI52">
+        <v>1.75</v>
+      </c>
+      <c r="AJ52">
+        <v>2</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>1.33</v>
+      </c>
+      <c r="AO52">
+        <v>1.33</v>
+      </c>
+      <c r="AP52">
+        <v>1</v>
+      </c>
+      <c r="AQ52">
+        <v>1.75</v>
+      </c>
+      <c r="AR52">
+        <v>1.58</v>
+      </c>
+      <c r="AS52">
+        <v>2.21</v>
+      </c>
+      <c r="AT52">
+        <v>3.79</v>
+      </c>
+      <c r="AU52">
+        <v>10</v>
+      </c>
+      <c r="AV52">
+        <v>11</v>
+      </c>
+      <c r="AW52">
+        <v>4</v>
+      </c>
+      <c r="AX52">
+        <v>7</v>
+      </c>
+      <c r="AY52">
+        <v>14</v>
+      </c>
+      <c r="AZ52">
+        <v>18</v>
+      </c>
+      <c r="BA52">
+        <v>6</v>
+      </c>
+      <c r="BB52">
+        <v>3</v>
+      </c>
+      <c r="BC52">
+        <v>9</v>
+      </c>
+      <c r="BD52">
+        <v>0</v>
+      </c>
+      <c r="BE52">
+        <v>0</v>
+      </c>
+      <c r="BF52">
+        <v>0</v>
+      </c>
+      <c r="BG52">
+        <v>0</v>
+      </c>
+      <c r="BH52">
+        <v>0</v>
+      </c>
+      <c r="BI52">
+        <v>0</v>
+      </c>
+      <c r="BJ52">
+        <v>0</v>
+      </c>
+      <c r="BK52">
+        <v>0</v>
+      </c>
+      <c r="BL52">
+        <v>0</v>
+      </c>
+      <c r="BM52">
+        <v>0</v>
+      </c>
+      <c r="BN52">
+        <v>0</v>
+      </c>
+      <c r="BO52">
+        <v>0</v>
+      </c>
+      <c r="BP52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7781691</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45787.41666666666</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53" t="s">
+        <v>122</v>
+      </c>
+      <c r="P53" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q53">
+        <v>3.25</v>
+      </c>
+      <c r="R53">
+        <v>2.1</v>
+      </c>
+      <c r="S53">
+        <v>3.4</v>
+      </c>
+      <c r="T53">
+        <v>1.4</v>
+      </c>
+      <c r="U53">
+        <v>2.75</v>
+      </c>
+      <c r="V53">
+        <v>3</v>
+      </c>
+      <c r="W53">
+        <v>1.36</v>
+      </c>
+      <c r="X53">
+        <v>8</v>
+      </c>
+      <c r="Y53">
+        <v>1.08</v>
+      </c>
+      <c r="Z53">
+        <v>2.37</v>
+      </c>
+      <c r="AA53">
+        <v>3.39</v>
+      </c>
+      <c r="AB53">
+        <v>2.48</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>1.87</v>
+      </c>
+      <c r="AH53">
+        <v>1.83</v>
+      </c>
+      <c r="AI53">
+        <v>1.75</v>
+      </c>
+      <c r="AJ53">
+        <v>2</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>1.33</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>1.25</v>
+      </c>
+      <c r="AQ53">
+        <v>1</v>
+      </c>
+      <c r="AR53">
+        <v>1.58</v>
+      </c>
+      <c r="AS53">
+        <v>1.44</v>
+      </c>
+      <c r="AT53">
+        <v>3.02</v>
+      </c>
+      <c r="AU53">
+        <v>13</v>
+      </c>
+      <c r="AV53">
+        <v>14</v>
+      </c>
+      <c r="AW53">
+        <v>11</v>
+      </c>
+      <c r="AX53">
+        <v>4</v>
+      </c>
+      <c r="AY53">
+        <v>24</v>
+      </c>
+      <c r="AZ53">
+        <v>18</v>
+      </c>
+      <c r="BA53">
+        <v>4</v>
+      </c>
+      <c r="BB53">
+        <v>3</v>
+      </c>
+      <c r="BC53">
+        <v>7</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
+      <c r="BG53">
+        <v>0</v>
+      </c>
+      <c r="BH53">
+        <v>0</v>
+      </c>
+      <c r="BI53">
+        <v>0</v>
+      </c>
+      <c r="BJ53">
+        <v>0</v>
+      </c>
+      <c r="BK53">
+        <v>0</v>
+      </c>
+      <c r="BL53">
+        <v>0</v>
+      </c>
+      <c r="BM53">
+        <v>0</v>
+      </c>
+      <c r="BN53">
+        <v>0</v>
+      </c>
+      <c r="BO53">
+        <v>0</v>
+      </c>
+      <c r="BP53">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="163">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -385,6 +385,9 @@
     <t>['80', '81']</t>
   </si>
   <si>
+    <t>['38', '48']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -497,6 +500,9 @@
   </si>
   <si>
     <t>['20', '74']</t>
+  </si>
+  <si>
+    <t>['1']</t>
   </si>
 </sst>
 </file>
@@ -858,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP53"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1529,7 +1535,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1735,7 +1741,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1816,7 +1822,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ5">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1941,7 +1947,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2147,7 +2153,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2559,7 +2565,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2765,7 +2771,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2971,7 +2977,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3177,7 +3183,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3255,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>2.33</v>
@@ -3589,7 +3595,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3670,7 +3676,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3795,7 +3801,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -4001,7 +4007,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4207,7 +4213,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q17">
         <v>2.1</v>
@@ -4413,7 +4419,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4700,7 +4706,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>2.03</v>
@@ -4825,7 +4831,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -5237,7 +5243,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5443,7 +5449,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q23">
         <v>2.42</v>
@@ -5524,7 +5530,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ23">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>2.18</v>
@@ -5855,7 +5861,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -6061,7 +6067,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6473,7 +6479,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6679,7 +6685,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6885,7 +6891,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -7709,7 +7715,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q34">
         <v>2.92</v>
@@ -7787,7 +7793,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ34">
         <v>0.5</v>
@@ -7915,7 +7921,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q35">
         <v>2.46</v>
@@ -8327,7 +8333,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q37">
         <v>3.16</v>
@@ -8533,7 +8539,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q38">
         <v>2.81</v>
@@ -8614,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="AQ38">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>2.08</v>
@@ -8739,7 +8745,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q39">
         <v>3.58</v>
@@ -8945,7 +8951,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9151,7 +9157,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9357,7 +9363,7 @@
         <v>87</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9563,7 +9569,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q43">
         <v>3.1</v>
@@ -9769,7 +9775,7 @@
         <v>87</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10181,7 +10187,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q46">
         <v>2.55</v>
@@ -10387,7 +10393,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q47">
         <v>2.5</v>
@@ -10674,7 +10680,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ48">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.5</v>
@@ -10799,7 +10805,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11005,7 +11011,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11211,7 +11217,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11417,7 +11423,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11623,7 +11629,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11780,6 +11786,418 @@
       </c>
       <c r="BP53">
         <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7781692</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45788.33333333334</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" t="s">
+        <v>83</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>87</v>
+      </c>
+      <c r="P54" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q54">
+        <v>3.25</v>
+      </c>
+      <c r="R54">
+        <v>2.2</v>
+      </c>
+      <c r="S54">
+        <v>3.2</v>
+      </c>
+      <c r="T54">
+        <v>1.4</v>
+      </c>
+      <c r="U54">
+        <v>2.75</v>
+      </c>
+      <c r="V54">
+        <v>2.75</v>
+      </c>
+      <c r="W54">
+        <v>1.4</v>
+      </c>
+      <c r="X54">
+        <v>8</v>
+      </c>
+      <c r="Y54">
+        <v>1.08</v>
+      </c>
+      <c r="Z54">
+        <v>2.03</v>
+      </c>
+      <c r="AA54">
+        <v>3.45</v>
+      </c>
+      <c r="AB54">
+        <v>2.97</v>
+      </c>
+      <c r="AC54">
+        <v>1.05</v>
+      </c>
+      <c r="AD54">
+        <v>8.5</v>
+      </c>
+      <c r="AE54">
+        <v>1.28</v>
+      </c>
+      <c r="AF54">
+        <v>3.4</v>
+      </c>
+      <c r="AG54">
+        <v>1.85</v>
+      </c>
+      <c r="AH54">
+        <v>1.85</v>
+      </c>
+      <c r="AI54">
+        <v>1.75</v>
+      </c>
+      <c r="AJ54">
+        <v>2</v>
+      </c>
+      <c r="AK54">
+        <v>1.45</v>
+      </c>
+      <c r="AL54">
+        <v>1.25</v>
+      </c>
+      <c r="AM54">
+        <v>1.5</v>
+      </c>
+      <c r="AN54">
+        <v>2</v>
+      </c>
+      <c r="AO54">
+        <v>1.67</v>
+      </c>
+      <c r="AP54">
+        <v>1.33</v>
+      </c>
+      <c r="AQ54">
+        <v>2</v>
+      </c>
+      <c r="AR54">
+        <v>1.75</v>
+      </c>
+      <c r="AS54">
+        <v>1.9</v>
+      </c>
+      <c r="AT54">
+        <v>3.65</v>
+      </c>
+      <c r="AU54">
+        <v>4</v>
+      </c>
+      <c r="AV54">
+        <v>6</v>
+      </c>
+      <c r="AW54">
+        <v>1</v>
+      </c>
+      <c r="AX54">
+        <v>1</v>
+      </c>
+      <c r="AY54">
+        <v>5</v>
+      </c>
+      <c r="AZ54">
+        <v>7</v>
+      </c>
+      <c r="BA54">
+        <v>4</v>
+      </c>
+      <c r="BB54">
+        <v>4</v>
+      </c>
+      <c r="BC54">
+        <v>8</v>
+      </c>
+      <c r="BD54">
+        <v>1.89</v>
+      </c>
+      <c r="BE54">
+        <v>6.6</v>
+      </c>
+      <c r="BF54">
+        <v>2.35</v>
+      </c>
+      <c r="BG54">
+        <v>1.21</v>
+      </c>
+      <c r="BH54">
+        <v>3.9</v>
+      </c>
+      <c r="BI54">
+        <v>1.3</v>
+      </c>
+      <c r="BJ54">
+        <v>2.97</v>
+      </c>
+      <c r="BK54">
+        <v>1.56</v>
+      </c>
+      <c r="BL54">
+        <v>2.21</v>
+      </c>
+      <c r="BM54">
+        <v>1.95</v>
+      </c>
+      <c r="BN54">
+        <v>1.77</v>
+      </c>
+      <c r="BO54">
+        <v>2.51</v>
+      </c>
+      <c r="BP54">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7781688</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45788.41666666666</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s">
+        <v>75</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>123</v>
+      </c>
+      <c r="P55" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q55">
+        <v>2.05</v>
+      </c>
+      <c r="R55">
+        <v>2.3</v>
+      </c>
+      <c r="S55">
+        <v>6</v>
+      </c>
+      <c r="T55">
+        <v>1.36</v>
+      </c>
+      <c r="U55">
+        <v>3</v>
+      </c>
+      <c r="V55">
+        <v>2.75</v>
+      </c>
+      <c r="W55">
+        <v>1.4</v>
+      </c>
+      <c r="X55">
+        <v>7</v>
+      </c>
+      <c r="Y55">
+        <v>1.1</v>
+      </c>
+      <c r="Z55">
+        <v>1.49</v>
+      </c>
+      <c r="AA55">
+        <v>4</v>
+      </c>
+      <c r="AB55">
+        <v>5</v>
+      </c>
+      <c r="AC55">
+        <v>1.04</v>
+      </c>
+      <c r="AD55">
+        <v>9</v>
+      </c>
+      <c r="AE55">
+        <v>1.25</v>
+      </c>
+      <c r="AF55">
+        <v>3.8</v>
+      </c>
+      <c r="AG55">
+        <v>1.91</v>
+      </c>
+      <c r="AH55">
+        <v>1.79</v>
+      </c>
+      <c r="AI55">
+        <v>2</v>
+      </c>
+      <c r="AJ55">
+        <v>1.75</v>
+      </c>
+      <c r="AK55">
+        <v>1.1</v>
+      </c>
+      <c r="AL55">
+        <v>1.18</v>
+      </c>
+      <c r="AM55">
+        <v>2.4</v>
+      </c>
+      <c r="AN55">
+        <v>3</v>
+      </c>
+      <c r="AO55">
+        <v>1.33</v>
+      </c>
+      <c r="AP55">
+        <v>3</v>
+      </c>
+      <c r="AQ55">
+        <v>1</v>
+      </c>
+      <c r="AR55">
+        <v>2</v>
+      </c>
+      <c r="AS55">
+        <v>1.72</v>
+      </c>
+      <c r="AT55">
+        <v>3.72</v>
+      </c>
+      <c r="AU55">
+        <v>8</v>
+      </c>
+      <c r="AV55">
+        <v>3</v>
+      </c>
+      <c r="AW55">
+        <v>4</v>
+      </c>
+      <c r="AX55">
+        <v>2</v>
+      </c>
+      <c r="AY55">
+        <v>12</v>
+      </c>
+      <c r="AZ55">
+        <v>5</v>
+      </c>
+      <c r="BA55">
+        <v>6</v>
+      </c>
+      <c r="BB55">
+        <v>2</v>
+      </c>
+      <c r="BC55">
+        <v>8</v>
+      </c>
+      <c r="BD55">
+        <v>1.57</v>
+      </c>
+      <c r="BE55">
+        <v>9</v>
+      </c>
+      <c r="BF55">
+        <v>2.8</v>
+      </c>
+      <c r="BG55">
+        <v>1.16</v>
+      </c>
+      <c r="BH55">
+        <v>4.4</v>
+      </c>
+      <c r="BI55">
+        <v>1.27</v>
+      </c>
+      <c r="BJ55">
+        <v>3.14</v>
+      </c>
+      <c r="BK55">
+        <v>1.5</v>
+      </c>
+      <c r="BL55">
+        <v>2.35</v>
+      </c>
+      <c r="BM55">
+        <v>1.85</v>
+      </c>
+      <c r="BN55">
+        <v>1.85</v>
+      </c>
+      <c r="BO55">
+        <v>2.34</v>
+      </c>
+      <c r="BP55">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="164">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>['1']</t>
+  </si>
+  <si>
+    <t>['35']</t>
   </si>
 </sst>
 </file>
@@ -864,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2025,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>2.33</v>
@@ -4294,7 +4297,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4909,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>0.33</v>
@@ -7796,7 +7799,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ34">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR34">
         <v>1.47</v>
@@ -8205,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -12198,6 +12201,212 @@
       </c>
       <c r="BP55">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7781689</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45789.58333333334</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>74</v>
+      </c>
+      <c r="H56" t="s">
+        <v>72</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>110</v>
+      </c>
+      <c r="P56" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q56">
+        <v>2.38</v>
+      </c>
+      <c r="R56">
+        <v>2.3</v>
+      </c>
+      <c r="S56">
+        <v>4.33</v>
+      </c>
+      <c r="T56">
+        <v>1.33</v>
+      </c>
+      <c r="U56">
+        <v>3.25</v>
+      </c>
+      <c r="V56">
+        <v>2.5</v>
+      </c>
+      <c r="W56">
+        <v>1.5</v>
+      </c>
+      <c r="X56">
+        <v>6.5</v>
+      </c>
+      <c r="Y56">
+        <v>1.11</v>
+      </c>
+      <c r="Z56">
+        <v>1.8</v>
+      </c>
+      <c r="AA56">
+        <v>3.45</v>
+      </c>
+      <c r="AB56">
+        <v>3.64</v>
+      </c>
+      <c r="AC56">
+        <v>1.04</v>
+      </c>
+      <c r="AD56">
+        <v>9</v>
+      </c>
+      <c r="AE56">
+        <v>1.22</v>
+      </c>
+      <c r="AF56">
+        <v>3.9</v>
+      </c>
+      <c r="AG56">
+        <v>1.7</v>
+      </c>
+      <c r="AH56">
+        <v>1.95</v>
+      </c>
+      <c r="AI56">
+        <v>1.67</v>
+      </c>
+      <c r="AJ56">
+        <v>2.1</v>
+      </c>
+      <c r="AK56">
+        <v>1.17</v>
+      </c>
+      <c r="AL56">
+        <v>1.22</v>
+      </c>
+      <c r="AM56">
+        <v>2</v>
+      </c>
+      <c r="AN56">
+        <v>2.33</v>
+      </c>
+      <c r="AO56">
+        <v>0.5</v>
+      </c>
+      <c r="AP56">
+        <v>2</v>
+      </c>
+      <c r="AQ56">
+        <v>0.67</v>
+      </c>
+      <c r="AR56">
+        <v>1.75</v>
+      </c>
+      <c r="AS56">
+        <v>1.57</v>
+      </c>
+      <c r="AT56">
+        <v>3.32</v>
+      </c>
+      <c r="AU56">
+        <v>4</v>
+      </c>
+      <c r="AV56">
+        <v>5</v>
+      </c>
+      <c r="AW56">
+        <v>4</v>
+      </c>
+      <c r="AX56">
+        <v>6</v>
+      </c>
+      <c r="AY56">
+        <v>8</v>
+      </c>
+      <c r="AZ56">
+        <v>11</v>
+      </c>
+      <c r="BA56">
+        <v>7</v>
+      </c>
+      <c r="BB56">
+        <v>8</v>
+      </c>
+      <c r="BC56">
+        <v>15</v>
+      </c>
+      <c r="BD56">
+        <v>1.43</v>
+      </c>
+      <c r="BE56">
+        <v>9.5</v>
+      </c>
+      <c r="BF56">
+        <v>3.32</v>
+      </c>
+      <c r="BG56">
+        <v>1.21</v>
+      </c>
+      <c r="BH56">
+        <v>3.9</v>
+      </c>
+      <c r="BI56">
+        <v>1.25</v>
+      </c>
+      <c r="BJ56">
+        <v>3.28</v>
+      </c>
+      <c r="BK56">
+        <v>1.47</v>
+      </c>
+      <c r="BL56">
+        <v>2.42</v>
+      </c>
+      <c r="BM56">
+        <v>1.85</v>
+      </c>
+      <c r="BN56">
+        <v>1.85</v>
+      </c>
+      <c r="BO56">
+        <v>2.28</v>
+      </c>
+      <c r="BP56">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="164">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -388,6 +388,9 @@
     <t>['38', '48']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -419,9 +422,6 @@
   </si>
   <si>
     <t>['17', '82']</t>
-  </si>
-  <si>
-    <t>['14']</t>
   </si>
   <si>
     <t>['10', '73', '90+2']</t>
@@ -867,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1538,7 +1538,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1744,7 +1744,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1950,7 +1950,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2031,7 +2031,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2156,7 +2156,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2568,7 +2568,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2774,7 +2774,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2980,7 +2980,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3186,7 +3186,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3598,7 +3598,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3804,7 +3804,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -4010,7 +4010,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4216,7 +4216,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="Q17">
         <v>2.1</v>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="AQ29">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR29">
         <v>1.8</v>
@@ -7590,7 +7590,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>1.75</v>
@@ -8414,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -8829,7 +8829,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ39">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR39">
         <v>1.39</v>
@@ -12407,6 +12407,212 @@
       </c>
       <c r="BP56">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7781686</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45790.58333333334</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s">
+        <v>84</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
+        <v>124</v>
+      </c>
+      <c r="P57" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q57">
+        <v>2.63</v>
+      </c>
+      <c r="R57">
+        <v>2.2</v>
+      </c>
+      <c r="S57">
+        <v>4</v>
+      </c>
+      <c r="T57">
+        <v>1.4</v>
+      </c>
+      <c r="U57">
+        <v>2.75</v>
+      </c>
+      <c r="V57">
+        <v>2.75</v>
+      </c>
+      <c r="W57">
+        <v>1.4</v>
+      </c>
+      <c r="X57">
+        <v>8</v>
+      </c>
+      <c r="Y57">
+        <v>1.08</v>
+      </c>
+      <c r="Z57">
+        <v>1.88</v>
+      </c>
+      <c r="AA57">
+        <v>3.41</v>
+      </c>
+      <c r="AB57">
+        <v>3.41</v>
+      </c>
+      <c r="AC57">
+        <v>1.05</v>
+      </c>
+      <c r="AD57">
+        <v>8.5</v>
+      </c>
+      <c r="AE57">
+        <v>1.3</v>
+      </c>
+      <c r="AF57">
+        <v>3.25</v>
+      </c>
+      <c r="AG57">
+        <v>1.88</v>
+      </c>
+      <c r="AH57">
+        <v>1.82</v>
+      </c>
+      <c r="AI57">
+        <v>1.8</v>
+      </c>
+      <c r="AJ57">
+        <v>1.95</v>
+      </c>
+      <c r="AK57">
+        <v>1.25</v>
+      </c>
+      <c r="AL57">
+        <v>1.25</v>
+      </c>
+      <c r="AM57">
+        <v>1.8</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
+        <v>2.33</v>
+      </c>
+      <c r="AP57">
+        <v>1.5</v>
+      </c>
+      <c r="AQ57">
+        <v>1.75</v>
+      </c>
+      <c r="AR57">
+        <v>1.42</v>
+      </c>
+      <c r="AS57">
+        <v>1.31</v>
+      </c>
+      <c r="AT57">
+        <v>2.73</v>
+      </c>
+      <c r="AU57">
+        <v>4</v>
+      </c>
+      <c r="AV57">
+        <v>7</v>
+      </c>
+      <c r="AW57">
+        <v>6</v>
+      </c>
+      <c r="AX57">
+        <v>8</v>
+      </c>
+      <c r="AY57">
+        <v>10</v>
+      </c>
+      <c r="AZ57">
+        <v>15</v>
+      </c>
+      <c r="BA57">
+        <v>2</v>
+      </c>
+      <c r="BB57">
+        <v>6</v>
+      </c>
+      <c r="BC57">
+        <v>8</v>
+      </c>
+      <c r="BD57">
+        <v>1.62</v>
+      </c>
+      <c r="BE57">
+        <v>6.9</v>
+      </c>
+      <c r="BF57">
+        <v>2.93</v>
+      </c>
+      <c r="BG57">
+        <v>1.23</v>
+      </c>
+      <c r="BH57">
+        <v>3.65</v>
+      </c>
+      <c r="BI57">
+        <v>1.28</v>
+      </c>
+      <c r="BJ57">
+        <v>3.05</v>
+      </c>
+      <c r="BK57">
+        <v>1.54</v>
+      </c>
+      <c r="BL57">
+        <v>2.25</v>
+      </c>
+      <c r="BM57">
+        <v>1.95</v>
+      </c>
+      <c r="BN57">
+        <v>1.77</v>
+      </c>
+      <c r="BO57">
+        <v>2.45</v>
+      </c>
+      <c r="BP57">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="165">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>['14']</t>
+  </si>
+  <si>
+    <t>['15', '38', '62', '65', '90+1']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -867,7 +870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1413,7 +1416,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1538,7 +1541,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1616,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ4">
         <v>0.33</v>
@@ -1744,7 +1747,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1822,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1950,7 +1953,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2156,7 +2159,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2568,7 +2571,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2774,7 +2777,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2980,7 +2983,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3186,7 +3189,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3598,7 +3601,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3804,7 +3807,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -4010,7 +4013,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4422,7 +4425,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4503,7 +4506,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR18">
         <v>0.99</v>
@@ -4834,7 +4837,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -5118,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ21">
         <v>1.33</v>
@@ -5246,7 +5249,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5452,7 +5455,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q23">
         <v>2.42</v>
@@ -5533,7 +5536,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR23">
         <v>2.18</v>
@@ -5864,7 +5867,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -6070,7 +6073,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6148,7 +6151,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
         <v>2.33</v>
@@ -6354,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -6482,7 +6485,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6688,7 +6691,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6894,7 +6897,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -7718,7 +7721,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <v>2.92</v>
@@ -7924,7 +7927,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>2.46</v>
@@ -8336,7 +8339,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q37">
         <v>3.16</v>
@@ -8417,7 +8420,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR37">
         <v>1.64</v>
@@ -8542,7 +8545,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q38">
         <v>2.81</v>
@@ -8623,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR38">
         <v>2.08</v>
@@ -8748,7 +8751,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q39">
         <v>3.58</v>
@@ -8954,7 +8957,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9160,7 +9163,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9238,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
         <v>0</v>
@@ -9366,7 +9369,7 @@
         <v>87</v>
       </c>
       <c r="P42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9572,7 +9575,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q43">
         <v>3.1</v>
@@ -9778,7 +9781,7 @@
         <v>87</v>
       </c>
       <c r="P44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10190,7 +10193,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>2.55</v>
@@ -10268,7 +10271,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10396,7 +10399,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q47">
         <v>2.5</v>
@@ -10808,7 +10811,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -10889,7 +10892,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR49">
         <v>1.3</v>
@@ -11014,7 +11017,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11220,7 +11223,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11426,7 +11429,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11632,7 +11635,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11838,7 +11841,7 @@
         <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q54">
         <v>3.25</v>
@@ -11919,7 +11922,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ54">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR54">
         <v>1.75</v>
@@ -12250,7 +12253,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q56">
         <v>2.38</v>
@@ -12613,6 +12616,418 @@
       </c>
       <c r="BP57">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7781699</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45793.58333333334</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" t="s">
+        <v>83</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>5</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>6</v>
+      </c>
+      <c r="O58" t="s">
+        <v>125</v>
+      </c>
+      <c r="P58" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q58">
+        <v>2.85</v>
+      </c>
+      <c r="R58">
+        <v>2.2</v>
+      </c>
+      <c r="S58">
+        <v>3.2</v>
+      </c>
+      <c r="T58">
+        <v>1.3</v>
+      </c>
+      <c r="U58">
+        <v>3.2</v>
+      </c>
+      <c r="V58">
+        <v>2.4</v>
+      </c>
+      <c r="W58">
+        <v>1.5</v>
+      </c>
+      <c r="X58">
+        <v>6.1</v>
+      </c>
+      <c r="Y58">
+        <v>1.06</v>
+      </c>
+      <c r="Z58">
+        <v>2.09</v>
+      </c>
+      <c r="AA58">
+        <v>3.57</v>
+      </c>
+      <c r="AB58">
+        <v>2.76</v>
+      </c>
+      <c r="AC58">
+        <v>1.04</v>
+      </c>
+      <c r="AD58">
+        <v>11</v>
+      </c>
+      <c r="AE58">
+        <v>1.22</v>
+      </c>
+      <c r="AF58">
+        <v>4.33</v>
+      </c>
+      <c r="AG58">
+        <v>1.67</v>
+      </c>
+      <c r="AH58">
+        <v>2</v>
+      </c>
+      <c r="AI58">
+        <v>1.53</v>
+      </c>
+      <c r="AJ58">
+        <v>2.3</v>
+      </c>
+      <c r="AK58">
+        <v>1.42</v>
+      </c>
+      <c r="AL58">
+        <v>1.25</v>
+      </c>
+      <c r="AM58">
+        <v>1.57</v>
+      </c>
+      <c r="AN58">
+        <v>2.5</v>
+      </c>
+      <c r="AO58">
+        <v>2</v>
+      </c>
+      <c r="AP58">
+        <v>2.6</v>
+      </c>
+      <c r="AQ58">
+        <v>1.6</v>
+      </c>
+      <c r="AR58">
+        <v>2.06</v>
+      </c>
+      <c r="AS58">
+        <v>1.67</v>
+      </c>
+      <c r="AT58">
+        <v>3.73</v>
+      </c>
+      <c r="AU58">
+        <v>9</v>
+      </c>
+      <c r="AV58">
+        <v>5</v>
+      </c>
+      <c r="AW58">
+        <v>7</v>
+      </c>
+      <c r="AX58">
+        <v>4</v>
+      </c>
+      <c r="AY58">
+        <v>16</v>
+      </c>
+      <c r="AZ58">
+        <v>9</v>
+      </c>
+      <c r="BA58">
+        <v>6</v>
+      </c>
+      <c r="BB58">
+        <v>6</v>
+      </c>
+      <c r="BC58">
+        <v>12</v>
+      </c>
+      <c r="BD58">
+        <v>1.93</v>
+      </c>
+      <c r="BE58">
+        <v>6.75</v>
+      </c>
+      <c r="BF58">
+        <v>2.05</v>
+      </c>
+      <c r="BG58">
+        <v>1.19</v>
+      </c>
+      <c r="BH58">
+        <v>4.1</v>
+      </c>
+      <c r="BI58">
+        <v>1.34</v>
+      </c>
+      <c r="BJ58">
+        <v>2.9</v>
+      </c>
+      <c r="BK58">
+        <v>1.56</v>
+      </c>
+      <c r="BL58">
+        <v>2.23</v>
+      </c>
+      <c r="BM58">
+        <v>1.88</v>
+      </c>
+      <c r="BN58">
+        <v>1.81</v>
+      </c>
+      <c r="BO58">
+        <v>2.33</v>
+      </c>
+      <c r="BP58">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7781693</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45793.58333333334</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s">
+        <v>81</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
+        <v>87</v>
+      </c>
+      <c r="P59" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q59">
+        <v>4</v>
+      </c>
+      <c r="R59">
+        <v>2.15</v>
+      </c>
+      <c r="S59">
+        <v>2.45</v>
+      </c>
+      <c r="T59">
+        <v>1.36</v>
+      </c>
+      <c r="U59">
+        <v>2.85</v>
+      </c>
+      <c r="V59">
+        <v>2.7</v>
+      </c>
+      <c r="W59">
+        <v>1.4</v>
+      </c>
+      <c r="X59">
+        <v>7.3</v>
+      </c>
+      <c r="Y59">
+        <v>1.03</v>
+      </c>
+      <c r="Z59">
+        <v>3.47</v>
+      </c>
+      <c r="AA59">
+        <v>3.52</v>
+      </c>
+      <c r="AB59">
+        <v>1.83</v>
+      </c>
+      <c r="AC59">
+        <v>1.06</v>
+      </c>
+      <c r="AD59">
+        <v>9</v>
+      </c>
+      <c r="AE59">
+        <v>1.3</v>
+      </c>
+      <c r="AF59">
+        <v>3.45</v>
+      </c>
+      <c r="AG59">
+        <v>1.81</v>
+      </c>
+      <c r="AH59">
+        <v>1.89</v>
+      </c>
+      <c r="AI59">
+        <v>1.75</v>
+      </c>
+      <c r="AJ59">
+        <v>1.93</v>
+      </c>
+      <c r="AK59">
+        <v>1.8</v>
+      </c>
+      <c r="AL59">
+        <v>1.25</v>
+      </c>
+      <c r="AM59">
+        <v>1.25</v>
+      </c>
+      <c r="AN59">
+        <v>1.67</v>
+      </c>
+      <c r="AO59">
+        <v>2</v>
+      </c>
+      <c r="AP59">
+        <v>1.5</v>
+      </c>
+      <c r="AQ59">
+        <v>1.8</v>
+      </c>
+      <c r="AR59">
+        <v>2.19</v>
+      </c>
+      <c r="AS59">
+        <v>1.81</v>
+      </c>
+      <c r="AT59">
+        <v>4</v>
+      </c>
+      <c r="AU59">
+        <v>4</v>
+      </c>
+      <c r="AV59">
+        <v>0</v>
+      </c>
+      <c r="AW59">
+        <v>5</v>
+      </c>
+      <c r="AX59">
+        <v>9</v>
+      </c>
+      <c r="AY59">
+        <v>9</v>
+      </c>
+      <c r="AZ59">
+        <v>9</v>
+      </c>
+      <c r="BA59">
+        <v>4</v>
+      </c>
+      <c r="BB59">
+        <v>1</v>
+      </c>
+      <c r="BC59">
+        <v>5</v>
+      </c>
+      <c r="BD59">
+        <v>2.48</v>
+      </c>
+      <c r="BE59">
+        <v>7</v>
+      </c>
+      <c r="BF59">
+        <v>1.64</v>
+      </c>
+      <c r="BG59">
+        <v>1.2</v>
+      </c>
+      <c r="BH59">
+        <v>3.95</v>
+      </c>
+      <c r="BI59">
+        <v>1.35</v>
+      </c>
+      <c r="BJ59">
+        <v>2.9</v>
+      </c>
+      <c r="BK59">
+        <v>1.57</v>
+      </c>
+      <c r="BL59">
+        <v>2.23</v>
+      </c>
+      <c r="BM59">
+        <v>1.91</v>
+      </c>
+      <c r="BN59">
+        <v>1.78</v>
+      </c>
+      <c r="BO59">
+        <v>2.38</v>
+      </c>
+      <c r="BP59">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>['15', '38', '62', '65', '90+1']</t>
+  </si>
+  <si>
+    <t>['12', '43', '53', '69', '75']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -870,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP59"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1541,7 +1544,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1747,7 +1750,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1953,7 +1956,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2159,7 +2162,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2237,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ7">
         <v>1.75</v>
@@ -2571,7 +2574,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2652,7 +2655,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ9">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2777,7 +2780,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2983,7 +2986,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3189,7 +3192,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3601,7 +3604,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3807,7 +3810,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -4013,7 +4016,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4425,7 +4428,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4837,7 +4840,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -5249,7 +5252,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5455,7 +5458,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23">
         <v>2.42</v>
@@ -5867,7 +5870,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -6073,7 +6076,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6485,7 +6488,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6691,7 +6694,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6769,7 +6772,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ29">
         <v>1.75</v>
@@ -6897,7 +6900,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -7596,7 +7599,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR33">
         <v>1.44</v>
@@ -7721,7 +7724,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q34">
         <v>2.92</v>
@@ -7927,7 +7930,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>2.46</v>
@@ -8339,7 +8342,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q37">
         <v>3.16</v>
@@ -8545,7 +8548,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q38">
         <v>2.81</v>
@@ -8623,7 +8626,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ38">
         <v>1.6</v>
@@ -8751,7 +8754,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q39">
         <v>3.58</v>
@@ -8957,7 +8960,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9038,7 +9041,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ40">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR40">
         <v>1.52</v>
@@ -9163,7 +9166,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9369,7 +9372,7 @@
         <v>87</v>
       </c>
       <c r="P42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9575,7 +9578,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q43">
         <v>3.1</v>
@@ -9781,7 +9784,7 @@
         <v>87</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10193,7 +10196,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q46">
         <v>2.55</v>
@@ -10399,7 +10402,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q47">
         <v>2.5</v>
@@ -10811,7 +10814,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11017,7 +11020,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11223,7 +11226,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11429,7 +11432,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11510,7 +11513,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR52">
         <v>1.58</v>
@@ -11635,7 +11638,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11841,7 +11844,7 @@
         <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q54">
         <v>3.25</v>
@@ -12253,7 +12256,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q56">
         <v>2.38</v>
@@ -13028,6 +13031,212 @@
       </c>
       <c r="BP59">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7781696</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45794.33333333334</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>75</v>
+      </c>
+      <c r="H60" t="s">
+        <v>85</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>5</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>5</v>
+      </c>
+      <c r="O60" t="s">
+        <v>126</v>
+      </c>
+      <c r="P60" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q60">
+        <v>3.3</v>
+      </c>
+      <c r="R60">
+        <v>2.1</v>
+      </c>
+      <c r="S60">
+        <v>2.9</v>
+      </c>
+      <c r="T60">
+        <v>1.35</v>
+      </c>
+      <c r="U60">
+        <v>2.95</v>
+      </c>
+      <c r="V60">
+        <v>2.6</v>
+      </c>
+      <c r="W60">
+        <v>1.44</v>
+      </c>
+      <c r="X60">
+        <v>6.85</v>
+      </c>
+      <c r="Y60">
+        <v>1.04</v>
+      </c>
+      <c r="Z60">
+        <v>2.62</v>
+      </c>
+      <c r="AA60">
+        <v>3.38</v>
+      </c>
+      <c r="AB60">
+        <v>2.26</v>
+      </c>
+      <c r="AC60">
+        <v>1.05</v>
+      </c>
+      <c r="AD60">
+        <v>10</v>
+      </c>
+      <c r="AE60">
+        <v>1.25</v>
+      </c>
+      <c r="AF60">
+        <v>3.85</v>
+      </c>
+      <c r="AG60">
+        <v>1.76</v>
+      </c>
+      <c r="AH60">
+        <v>1.94</v>
+      </c>
+      <c r="AI60">
+        <v>1.6</v>
+      </c>
+      <c r="AJ60">
+        <v>2.15</v>
+      </c>
+      <c r="AK60">
+        <v>1.55</v>
+      </c>
+      <c r="AL60">
+        <v>1.25</v>
+      </c>
+      <c r="AM60">
+        <v>1.42</v>
+      </c>
+      <c r="AN60">
+        <v>0</v>
+      </c>
+      <c r="AO60">
+        <v>1.75</v>
+      </c>
+      <c r="AP60">
+        <v>0.75</v>
+      </c>
+      <c r="AQ60">
+        <v>1.4</v>
+      </c>
+      <c r="AR60">
+        <v>1.99</v>
+      </c>
+      <c r="AS60">
+        <v>2.22</v>
+      </c>
+      <c r="AT60">
+        <v>4.21</v>
+      </c>
+      <c r="AU60">
+        <v>8</v>
+      </c>
+      <c r="AV60">
+        <v>0</v>
+      </c>
+      <c r="AW60">
+        <v>3</v>
+      </c>
+      <c r="AX60">
+        <v>9</v>
+      </c>
+      <c r="AY60">
+        <v>11</v>
+      </c>
+      <c r="AZ60">
+        <v>9</v>
+      </c>
+      <c r="BA60">
+        <v>2</v>
+      </c>
+      <c r="BB60">
+        <v>6</v>
+      </c>
+      <c r="BC60">
+        <v>8</v>
+      </c>
+      <c r="BD60">
+        <v>2.07</v>
+      </c>
+      <c r="BE60">
+        <v>7</v>
+      </c>
+      <c r="BF60">
+        <v>1.89</v>
+      </c>
+      <c r="BG60">
+        <v>1.19</v>
+      </c>
+      <c r="BH60">
+        <v>4.1</v>
+      </c>
+      <c r="BI60">
+        <v>1.33</v>
+      </c>
+      <c r="BJ60">
+        <v>2.95</v>
+      </c>
+      <c r="BK60">
+        <v>1.54</v>
+      </c>
+      <c r="BL60">
+        <v>2.3</v>
+      </c>
+      <c r="BM60">
+        <v>1.85</v>
+      </c>
+      <c r="BN60">
+        <v>1.83</v>
+      </c>
+      <c r="BO60">
+        <v>2.3</v>
+      </c>
+      <c r="BP60">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="169">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,6 +397,12 @@
     <t>['12', '43', '53', '69', '75']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -439,9 +445,6 @@
     <t>['9', '90+4']</t>
   </si>
   <si>
-    <t>['30']</t>
-  </si>
-  <si>
     <t>['84', '90+2']</t>
   </si>
   <si>
@@ -512,6 +515,12 @@
   </si>
   <si>
     <t>['35']</t>
+  </si>
+  <si>
+    <t>['45', '90+2', '90+5']</t>
+  </si>
+  <si>
+    <t>['61', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1544,7 +1553,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1625,7 +1634,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1750,7 +1759,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1956,7 +1965,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2162,7 +2171,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2574,7 +2583,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2652,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ9">
         <v>1.4</v>
@@ -2780,7 +2789,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2986,7 +2995,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3192,7 +3201,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3479,7 +3488,7 @@
         <v>3</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3604,7 +3613,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3682,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3810,7 +3819,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -4016,7 +4025,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4428,7 +4437,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4840,7 +4849,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -4921,7 +4930,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.5</v>
@@ -5127,7 +5136,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR21">
         <v>1.91</v>
@@ -5252,7 +5261,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5330,7 +5339,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ22">
         <v>1.75</v>
@@ -5458,7 +5467,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="Q23">
         <v>2.42</v>
@@ -5870,7 +5879,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -5948,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6076,7 +6085,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6488,7 +6497,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6694,7 +6703,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6900,7 +6909,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -7724,7 +7733,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q34">
         <v>2.92</v>
@@ -7930,7 +7939,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q35">
         <v>2.46</v>
@@ -8011,7 +8020,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR35">
         <v>1.03</v>
@@ -8342,7 +8351,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q37">
         <v>3.16</v>
@@ -8548,7 +8557,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q38">
         <v>2.81</v>
@@ -8754,7 +8763,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q39">
         <v>3.58</v>
@@ -8832,7 +8841,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ39">
         <v>1.75</v>
@@ -8960,7 +8969,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9166,7 +9175,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9372,7 +9381,7 @@
         <v>87</v>
       </c>
       <c r="P42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9578,7 +9587,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q43">
         <v>3.1</v>
@@ -9659,7 +9668,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -9784,7 +9793,7 @@
         <v>87</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -9862,7 +9871,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ44">
         <v>2.33</v>
@@ -10196,7 +10205,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q46">
         <v>2.55</v>
@@ -10402,7 +10411,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q47">
         <v>2.5</v>
@@ -10686,7 +10695,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -10814,7 +10823,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11020,7 +11029,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11226,7 +11235,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11432,7 +11441,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11638,7 +11647,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11844,7 +11853,7 @@
         <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q54">
         <v>3.25</v>
@@ -12256,7 +12265,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q56">
         <v>2.38</v>
@@ -13237,6 +13246,418 @@
       </c>
       <c r="BP60">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7781697</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45794.41666666666</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>82</v>
+      </c>
+      <c r="H61" t="s">
+        <v>78</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>4</v>
+      </c>
+      <c r="O61" t="s">
+        <v>127</v>
+      </c>
+      <c r="P61" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q61">
+        <v>3.1</v>
+      </c>
+      <c r="R61">
+        <v>2.15</v>
+      </c>
+      <c r="S61">
+        <v>3</v>
+      </c>
+      <c r="T61">
+        <v>1.36</v>
+      </c>
+      <c r="U61">
+        <v>2.88</v>
+      </c>
+      <c r="V61">
+        <v>2.65</v>
+      </c>
+      <c r="W61">
+        <v>1.42</v>
+      </c>
+      <c r="X61">
+        <v>7.2</v>
+      </c>
+      <c r="Y61">
+        <v>1.03</v>
+      </c>
+      <c r="Z61">
+        <v>2.55</v>
+      </c>
+      <c r="AA61">
+        <v>3.25</v>
+      </c>
+      <c r="AB61">
+        <v>2.38</v>
+      </c>
+      <c r="AC61">
+        <v>1.05</v>
+      </c>
+      <c r="AD61">
+        <v>10</v>
+      </c>
+      <c r="AE61">
+        <v>1.3</v>
+      </c>
+      <c r="AF61">
+        <v>3.6</v>
+      </c>
+      <c r="AG61">
+        <v>1.85</v>
+      </c>
+      <c r="AH61">
+        <v>1.85</v>
+      </c>
+      <c r="AI61">
+        <v>1.67</v>
+      </c>
+      <c r="AJ61">
+        <v>2.05</v>
+      </c>
+      <c r="AK61">
+        <v>1.5</v>
+      </c>
+      <c r="AL61">
+        <v>1.25</v>
+      </c>
+      <c r="AM61">
+        <v>1.48</v>
+      </c>
+      <c r="AN61">
+        <v>0.25</v>
+      </c>
+      <c r="AO61">
+        <v>0.33</v>
+      </c>
+      <c r="AP61">
+        <v>0.2</v>
+      </c>
+      <c r="AQ61">
+        <v>1</v>
+      </c>
+      <c r="AR61">
+        <v>1.25</v>
+      </c>
+      <c r="AS61">
+        <v>1.84</v>
+      </c>
+      <c r="AT61">
+        <v>3.09</v>
+      </c>
+      <c r="AU61">
+        <v>7</v>
+      </c>
+      <c r="AV61">
+        <v>5</v>
+      </c>
+      <c r="AW61">
+        <v>8</v>
+      </c>
+      <c r="AX61">
+        <v>7</v>
+      </c>
+      <c r="AY61">
+        <v>15</v>
+      </c>
+      <c r="AZ61">
+        <v>12</v>
+      </c>
+      <c r="BA61">
+        <v>8</v>
+      </c>
+      <c r="BB61">
+        <v>4</v>
+      </c>
+      <c r="BC61">
+        <v>12</v>
+      </c>
+      <c r="BD61">
+        <v>1.68</v>
+      </c>
+      <c r="BE61">
+        <v>7</v>
+      </c>
+      <c r="BF61">
+        <v>2.4</v>
+      </c>
+      <c r="BG61">
+        <v>1.19</v>
+      </c>
+      <c r="BH61">
+        <v>4.1</v>
+      </c>
+      <c r="BI61">
+        <v>1.33</v>
+      </c>
+      <c r="BJ61">
+        <v>2.95</v>
+      </c>
+      <c r="BK61">
+        <v>1.55</v>
+      </c>
+      <c r="BL61">
+        <v>2.28</v>
+      </c>
+      <c r="BM61">
+        <v>1.85</v>
+      </c>
+      <c r="BN61">
+        <v>1.83</v>
+      </c>
+      <c r="BO61">
+        <v>2.3</v>
+      </c>
+      <c r="BP61">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7781698</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45794.41666666666</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s">
+        <v>70</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62" t="s">
+        <v>128</v>
+      </c>
+      <c r="P62" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q62">
+        <v>2.88</v>
+      </c>
+      <c r="R62">
+        <v>2.05</v>
+      </c>
+      <c r="S62">
+        <v>3.5</v>
+      </c>
+      <c r="T62">
+        <v>1.4</v>
+      </c>
+      <c r="U62">
+        <v>2.75</v>
+      </c>
+      <c r="V62">
+        <v>2.75</v>
+      </c>
+      <c r="W62">
+        <v>1.4</v>
+      </c>
+      <c r="X62">
+        <v>6.85</v>
+      </c>
+      <c r="Y62">
+        <v>1.04</v>
+      </c>
+      <c r="Z62">
+        <v>2.01</v>
+      </c>
+      <c r="AA62">
+        <v>3.17</v>
+      </c>
+      <c r="AB62">
+        <v>3.26</v>
+      </c>
+      <c r="AC62">
+        <v>1.07</v>
+      </c>
+      <c r="AD62">
+        <v>8.5</v>
+      </c>
+      <c r="AE62">
+        <v>1.35</v>
+      </c>
+      <c r="AF62">
+        <v>3.25</v>
+      </c>
+      <c r="AG62">
+        <v>1.93</v>
+      </c>
+      <c r="AH62">
+        <v>1.77</v>
+      </c>
+      <c r="AI62">
+        <v>1.73</v>
+      </c>
+      <c r="AJ62">
+        <v>1.95</v>
+      </c>
+      <c r="AK62">
+        <v>1.36</v>
+      </c>
+      <c r="AL62">
+        <v>1.28</v>
+      </c>
+      <c r="AM62">
+        <v>1.57</v>
+      </c>
+      <c r="AN62">
+        <v>0.33</v>
+      </c>
+      <c r="AO62">
+        <v>1.33</v>
+      </c>
+      <c r="AP62">
+        <v>0.25</v>
+      </c>
+      <c r="AQ62">
+        <v>1.75</v>
+      </c>
+      <c r="AR62">
+        <v>1.35</v>
+      </c>
+      <c r="AS62">
+        <v>1.27</v>
+      </c>
+      <c r="AT62">
+        <v>2.62</v>
+      </c>
+      <c r="AU62">
+        <v>5</v>
+      </c>
+      <c r="AV62">
+        <v>3</v>
+      </c>
+      <c r="AW62">
+        <v>11</v>
+      </c>
+      <c r="AX62">
+        <v>4</v>
+      </c>
+      <c r="AY62">
+        <v>16</v>
+      </c>
+      <c r="AZ62">
+        <v>7</v>
+      </c>
+      <c r="BA62">
+        <v>5</v>
+      </c>
+      <c r="BB62">
+        <v>6</v>
+      </c>
+      <c r="BC62">
+        <v>11</v>
+      </c>
+      <c r="BD62">
+        <v>1.57</v>
+      </c>
+      <c r="BE62">
+        <v>7.5</v>
+      </c>
+      <c r="BF62">
+        <v>2.55</v>
+      </c>
+      <c r="BG62">
+        <v>1.18</v>
+      </c>
+      <c r="BH62">
+        <v>4.3</v>
+      </c>
+      <c r="BI62">
+        <v>1.3</v>
+      </c>
+      <c r="BJ62">
+        <v>3.05</v>
+      </c>
+      <c r="BK62">
+        <v>1.52</v>
+      </c>
+      <c r="BL62">
+        <v>2.33</v>
+      </c>
+      <c r="BM62">
+        <v>1.8</v>
+      </c>
+      <c r="BN62">
+        <v>1.9</v>
+      </c>
+      <c r="BO62">
+        <v>2.2</v>
+      </c>
+      <c r="BP62">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="173">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,6 +403,12 @@
     <t>['30']</t>
   </si>
   <si>
+    <t>['16', '90']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -521,6 +527,12 @@
   </si>
   <si>
     <t>['61', '90+5']</t>
+  </si>
+  <si>
+    <t>['31', '55']</t>
+  </si>
+  <si>
+    <t>['32', '47']</t>
   </si>
 </sst>
 </file>
@@ -882,7 +894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1553,7 +1565,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1759,7 +1771,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1965,7 +1977,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2171,7 +2183,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2583,7 +2595,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2789,7 +2801,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2870,7 +2882,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ10">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2995,7 +3007,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3201,7 +3213,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3279,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ12">
         <v>2.33</v>
@@ -3613,7 +3625,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3819,7 +3831,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -4025,7 +4037,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4103,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4437,7 +4449,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4849,7 +4861,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -5261,7 +5273,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5545,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ23">
         <v>1.6</v>
@@ -5879,7 +5891,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -6085,7 +6097,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6166,7 +6178,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR26">
         <v>1.89</v>
@@ -6497,7 +6509,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6703,7 +6715,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6909,7 +6921,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -7733,7 +7745,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q34">
         <v>2.92</v>
@@ -7811,7 +7823,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ34">
         <v>0.67</v>
@@ -7939,7 +7951,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q35">
         <v>2.46</v>
@@ -8351,7 +8363,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q37">
         <v>3.16</v>
@@ -8557,7 +8569,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q38">
         <v>2.81</v>
@@ -8763,7 +8775,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q39">
         <v>3.58</v>
@@ -8969,7 +8981,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9175,7 +9187,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9381,7 +9393,7 @@
         <v>87</v>
       </c>
       <c r="P42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9462,7 +9474,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR42">
         <v>1.94</v>
@@ -9587,7 +9599,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>3.1</v>
@@ -9793,7 +9805,7 @@
         <v>87</v>
       </c>
       <c r="P44" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10205,7 +10217,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q46">
         <v>2.55</v>
@@ -10411,7 +10423,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q47">
         <v>2.5</v>
@@ -10489,7 +10501,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ47">
         <v>1.75</v>
@@ -10823,7 +10835,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11029,7 +11041,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11235,7 +11247,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11441,7 +11453,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11647,7 +11659,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11853,7 +11865,7 @@
         <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q54">
         <v>3.25</v>
@@ -11931,7 +11943,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ54">
         <v>1.6</v>
@@ -12265,7 +12277,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q56">
         <v>2.38</v>
@@ -13295,7 +13307,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13501,7 +13513,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13658,6 +13670,418 @@
       </c>
       <c r="BP62">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7781700</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45794.41666666666</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>80</v>
+      </c>
+      <c r="H63" t="s">
+        <v>71</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63" t="s">
+        <v>129</v>
+      </c>
+      <c r="P63" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q63">
+        <v>2.9</v>
+      </c>
+      <c r="R63">
+        <v>2.15</v>
+      </c>
+      <c r="S63">
+        <v>3.25</v>
+      </c>
+      <c r="T63">
+        <v>1.35</v>
+      </c>
+      <c r="U63">
+        <v>2.95</v>
+      </c>
+      <c r="V63">
+        <v>2.6</v>
+      </c>
+      <c r="W63">
+        <v>1.44</v>
+      </c>
+      <c r="X63">
+        <v>6.35</v>
+      </c>
+      <c r="Y63">
+        <v>1.06</v>
+      </c>
+      <c r="Z63">
+        <v>2.23</v>
+      </c>
+      <c r="AA63">
+        <v>3.47</v>
+      </c>
+      <c r="AB63">
+        <v>2.61</v>
+      </c>
+      <c r="AC63">
+        <v>1.05</v>
+      </c>
+      <c r="AD63">
+        <v>10</v>
+      </c>
+      <c r="AE63">
+        <v>1.25</v>
+      </c>
+      <c r="AF63">
+        <v>3.85</v>
+      </c>
+      <c r="AG63">
+        <v>1.78</v>
+      </c>
+      <c r="AH63">
+        <v>1.92</v>
+      </c>
+      <c r="AI63">
+        <v>1.6</v>
+      </c>
+      <c r="AJ63">
+        <v>2.15</v>
+      </c>
+      <c r="AK63">
+        <v>1.42</v>
+      </c>
+      <c r="AL63">
+        <v>1.25</v>
+      </c>
+      <c r="AM63">
+        <v>1.55</v>
+      </c>
+      <c r="AN63">
+        <v>1.33</v>
+      </c>
+      <c r="AO63">
+        <v>1</v>
+      </c>
+      <c r="AP63">
+        <v>1.25</v>
+      </c>
+      <c r="AQ63">
+        <v>1</v>
+      </c>
+      <c r="AR63">
+        <v>1.46</v>
+      </c>
+      <c r="AS63">
+        <v>1.92</v>
+      </c>
+      <c r="AT63">
+        <v>3.38</v>
+      </c>
+      <c r="AU63">
+        <v>7</v>
+      </c>
+      <c r="AV63">
+        <v>6</v>
+      </c>
+      <c r="AW63">
+        <v>9</v>
+      </c>
+      <c r="AX63">
+        <v>5</v>
+      </c>
+      <c r="AY63">
+        <v>16</v>
+      </c>
+      <c r="AZ63">
+        <v>11</v>
+      </c>
+      <c r="BA63">
+        <v>9</v>
+      </c>
+      <c r="BB63">
+        <v>3</v>
+      </c>
+      <c r="BC63">
+        <v>12</v>
+      </c>
+      <c r="BD63">
+        <v>1.77</v>
+      </c>
+      <c r="BE63">
+        <v>6.75</v>
+      </c>
+      <c r="BF63">
+        <v>2.23</v>
+      </c>
+      <c r="BG63">
+        <v>1.22</v>
+      </c>
+      <c r="BH63">
+        <v>3.8</v>
+      </c>
+      <c r="BI63">
+        <v>1.38</v>
+      </c>
+      <c r="BJ63">
+        <v>2.8</v>
+      </c>
+      <c r="BK63">
+        <v>1.63</v>
+      </c>
+      <c r="BL63">
+        <v>2.15</v>
+      </c>
+      <c r="BM63">
+        <v>1.97</v>
+      </c>
+      <c r="BN63">
+        <v>1.74</v>
+      </c>
+      <c r="BO63">
+        <v>2.48</v>
+      </c>
+      <c r="BP63">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7781694</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45795.41666666666</v>
+      </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>84</v>
+      </c>
+      <c r="H64" t="s">
+        <v>76</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>130</v>
+      </c>
+      <c r="P64" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q64">
+        <v>2.8</v>
+      </c>
+      <c r="R64">
+        <v>2.07</v>
+      </c>
+      <c r="S64">
+        <v>3.8</v>
+      </c>
+      <c r="T64">
+        <v>1.47</v>
+      </c>
+      <c r="U64">
+        <v>2.55</v>
+      </c>
+      <c r="V64">
+        <v>3.15</v>
+      </c>
+      <c r="W64">
+        <v>1.3</v>
+      </c>
+      <c r="X64">
+        <v>7.5</v>
+      </c>
+      <c r="Y64">
+        <v>1.05</v>
+      </c>
+      <c r="Z64">
+        <v>1.99</v>
+      </c>
+      <c r="AA64">
+        <v>3.14</v>
+      </c>
+      <c r="AB64">
+        <v>3.34</v>
+      </c>
+      <c r="AC64">
+        <v>1.09</v>
+      </c>
+      <c r="AD64">
+        <v>7.5</v>
+      </c>
+      <c r="AE64">
+        <v>1.45</v>
+      </c>
+      <c r="AF64">
+        <v>2.75</v>
+      </c>
+      <c r="AG64">
+        <v>2.25</v>
+      </c>
+      <c r="AH64">
+        <v>1.57</v>
+      </c>
+      <c r="AI64">
+        <v>1.9</v>
+      </c>
+      <c r="AJ64">
+        <v>1.74</v>
+      </c>
+      <c r="AK64">
+        <v>1.32</v>
+      </c>
+      <c r="AL64">
+        <v>1.32</v>
+      </c>
+      <c r="AM64">
+        <v>1.66</v>
+      </c>
+      <c r="AN64">
+        <v>0.33</v>
+      </c>
+      <c r="AO64">
+        <v>2.33</v>
+      </c>
+      <c r="AP64">
+        <v>0.25</v>
+      </c>
+      <c r="AQ64">
+        <v>2.5</v>
+      </c>
+      <c r="AR64">
+        <v>1.83</v>
+      </c>
+      <c r="AS64">
+        <v>1.34</v>
+      </c>
+      <c r="AT64">
+        <v>3.17</v>
+      </c>
+      <c r="AU64">
+        <v>10</v>
+      </c>
+      <c r="AV64">
+        <v>10</v>
+      </c>
+      <c r="AW64">
+        <v>8</v>
+      </c>
+      <c r="AX64">
+        <v>2</v>
+      </c>
+      <c r="AY64">
+        <v>18</v>
+      </c>
+      <c r="AZ64">
+        <v>12</v>
+      </c>
+      <c r="BA64">
+        <v>8</v>
+      </c>
+      <c r="BB64">
+        <v>0</v>
+      </c>
+      <c r="BC64">
+        <v>8</v>
+      </c>
+      <c r="BD64">
+        <v>1.91</v>
+      </c>
+      <c r="BE64">
+        <v>6.75</v>
+      </c>
+      <c r="BF64">
+        <v>2.05</v>
+      </c>
+      <c r="BG64">
+        <v>1.25</v>
+      </c>
+      <c r="BH64">
+        <v>3.45</v>
+      </c>
+      <c r="BI64">
+        <v>1.44</v>
+      </c>
+      <c r="BJ64">
+        <v>2.55</v>
+      </c>
+      <c r="BK64">
+        <v>1.72</v>
+      </c>
+      <c r="BL64">
+        <v>1.98</v>
+      </c>
+      <c r="BM64">
+        <v>2.08</v>
+      </c>
+      <c r="BN64">
+        <v>1.65</v>
+      </c>
+      <c r="BO64">
+        <v>2.65</v>
+      </c>
+      <c r="BP64">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="175">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,9 @@
     <t>['36']</t>
   </si>
   <si>
+    <t>['36', '90+5', '90+8']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -533,6 +536,9 @@
   </si>
   <si>
     <t>['32', '47']</t>
+  </si>
+  <si>
+    <t>['12', '44', '48']</t>
   </si>
 </sst>
 </file>
@@ -894,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1565,7 +1571,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1771,7 +1777,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1977,7 +1983,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2055,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6">
         <v>1.75</v>
@@ -2183,7 +2189,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2595,7 +2601,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2801,7 +2807,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3007,7 +3013,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3213,7 +3219,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3625,7 +3631,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3831,7 +3837,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -4037,7 +4043,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4449,7 +4455,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4861,7 +4867,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -4939,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5273,7 +5279,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5891,7 +5897,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -6097,7 +6103,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6509,7 +6515,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6715,7 +6721,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6921,7 +6927,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -7745,7 +7751,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q34">
         <v>2.92</v>
@@ -7951,7 +7957,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>2.46</v>
@@ -8235,7 +8241,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8363,7 +8369,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q37">
         <v>3.16</v>
@@ -8569,7 +8575,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q38">
         <v>2.81</v>
@@ -8775,7 +8781,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q39">
         <v>3.58</v>
@@ -8981,7 +8987,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9187,7 +9193,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9393,7 +9399,7 @@
         <v>87</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9599,7 +9605,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>3.1</v>
@@ -9805,7 +9811,7 @@
         <v>87</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10217,7 +10223,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q46">
         <v>2.55</v>
@@ -10423,7 +10429,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q47">
         <v>2.5</v>
@@ -10835,7 +10841,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11041,7 +11047,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11247,7 +11253,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11453,7 +11459,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11659,7 +11665,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11865,7 +11871,7 @@
         <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>3.25</v>
@@ -12277,7 +12283,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>2.38</v>
@@ -12355,7 +12361,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ56">
         <v>0.67</v>
@@ -13307,7 +13313,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13513,7 +13519,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13719,7 +13725,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q63">
         <v>2.9</v>
@@ -13925,7 +13931,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q64">
         <v>2.8</v>
@@ -14082,6 +14088,212 @@
       </c>
       <c r="BP64">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7781695</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45796.58333333334</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65" t="s">
+        <v>79</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>3</v>
+      </c>
+      <c r="M65">
+        <v>3</v>
+      </c>
+      <c r="N65">
+        <v>6</v>
+      </c>
+      <c r="O65" t="s">
+        <v>131</v>
+      </c>
+      <c r="P65" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q65">
+        <v>2.62</v>
+      </c>
+      <c r="R65">
+        <v>2.1</v>
+      </c>
+      <c r="S65">
+        <v>3.75</v>
+      </c>
+      <c r="T65">
+        <v>1.36</v>
+      </c>
+      <c r="U65">
+        <v>2.88</v>
+      </c>
+      <c r="V65">
+        <v>2.65</v>
+      </c>
+      <c r="W65">
+        <v>1.42</v>
+      </c>
+      <c r="X65">
+        <v>6.7</v>
+      </c>
+      <c r="Y65">
+        <v>1.05</v>
+      </c>
+      <c r="Z65">
+        <v>2.07</v>
+      </c>
+      <c r="AA65">
+        <v>3.41</v>
+      </c>
+      <c r="AB65">
+        <v>2.9</v>
+      </c>
+      <c r="AC65">
+        <v>1.05</v>
+      </c>
+      <c r="AD65">
+        <v>10</v>
+      </c>
+      <c r="AE65">
+        <v>1.3</v>
+      </c>
+      <c r="AF65">
+        <v>3.55</v>
+      </c>
+      <c r="AG65">
+        <v>1.8</v>
+      </c>
+      <c r="AH65">
+        <v>1.9</v>
+      </c>
+      <c r="AI65">
+        <v>1.7</v>
+      </c>
+      <c r="AJ65">
+        <v>2</v>
+      </c>
+      <c r="AK65">
+        <v>1.3</v>
+      </c>
+      <c r="AL65">
+        <v>1.25</v>
+      </c>
+      <c r="AM65">
+        <v>1.7</v>
+      </c>
+      <c r="AN65">
+        <v>2</v>
+      </c>
+      <c r="AO65">
+        <v>1</v>
+      </c>
+      <c r="AP65">
+        <v>1.8</v>
+      </c>
+      <c r="AQ65">
+        <v>1</v>
+      </c>
+      <c r="AR65">
+        <v>1.65</v>
+      </c>
+      <c r="AS65">
+        <v>1.4</v>
+      </c>
+      <c r="AT65">
+        <v>3.05</v>
+      </c>
+      <c r="AU65">
+        <v>-1</v>
+      </c>
+      <c r="AV65">
+        <v>-1</v>
+      </c>
+      <c r="AW65">
+        <v>-1</v>
+      </c>
+      <c r="AX65">
+        <v>-1</v>
+      </c>
+      <c r="AY65">
+        <v>-1</v>
+      </c>
+      <c r="AZ65">
+        <v>-1</v>
+      </c>
+      <c r="BA65">
+        <v>-1</v>
+      </c>
+      <c r="BB65">
+        <v>-1</v>
+      </c>
+      <c r="BC65">
+        <v>-1</v>
+      </c>
+      <c r="BD65">
+        <v>1.56</v>
+      </c>
+      <c r="BE65">
+        <v>7</v>
+      </c>
+      <c r="BF65">
+        <v>2.65</v>
+      </c>
+      <c r="BG65">
+        <v>1.24</v>
+      </c>
+      <c r="BH65">
+        <v>3.55</v>
+      </c>
+      <c r="BI65">
+        <v>1.42</v>
+      </c>
+      <c r="BJ65">
+        <v>2.65</v>
+      </c>
+      <c r="BK65">
+        <v>1.67</v>
+      </c>
+      <c r="BL65">
+        <v>2.07</v>
+      </c>
+      <c r="BM65">
+        <v>2.05</v>
+      </c>
+      <c r="BN65">
+        <v>1.68</v>
+      </c>
+      <c r="BO65">
+        <v>2.55</v>
+      </c>
+      <c r="BP65">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14230,31 +14230,31 @@
         <v>3.05</v>
       </c>
       <c r="AU65">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV65">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW65">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="AX65">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY65">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="AZ65">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA65">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BB65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC65">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD65">
         <v>1.56</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="180">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,6 +412,18 @@
     <t>['36', '90+5', '90+8']</t>
   </si>
   <si>
+    <t>['6', '45+1', '46', '90+2']</t>
+  </si>
+  <si>
+    <t>['4', '30', '67', '86']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['19', '23', '38', '58']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -539,6 +551,9 @@
   </si>
   <si>
     <t>['12', '44', '48']</t>
+  </si>
+  <si>
+    <t>['5', '7', '53', '66']</t>
   </si>
 </sst>
 </file>
@@ -900,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP65"/>
+  <dimension ref="A1:BP69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1571,7 +1586,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1649,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1777,7 +1792,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1855,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ5">
         <v>1.6</v>
@@ -1983,7 +1998,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2189,7 +2204,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2270,7 +2285,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ7">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2601,7 +2616,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2807,7 +2822,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2885,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ10">
         <v>2.5</v>
@@ -3013,7 +3028,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3094,7 +3109,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3219,7 +3234,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3631,7 +3646,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3712,7 +3727,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3837,7 +3852,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -3918,7 +3933,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4043,7 +4058,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4327,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>0.67</v>
@@ -4455,7 +4470,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4742,7 +4757,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR19">
         <v>2.03</v>
@@ -4867,7 +4882,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -5151,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ21">
         <v>1.75</v>
@@ -5279,7 +5294,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5360,7 +5375,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ22">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR22">
         <v>1.35</v>
@@ -5769,7 +5784,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -5897,7 +5912,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -6103,7 +6118,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6181,7 +6196,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ26">
         <v>2.5</v>
@@ -6387,10 +6402,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR27">
         <v>1.52</v>
@@ -6515,7 +6530,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6593,10 +6608,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR28">
         <v>1.05</v>
@@ -6721,7 +6736,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6927,7 +6942,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -7214,7 +7229,7 @@
         <v>3</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR31">
         <v>1.83</v>
@@ -7751,7 +7766,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>2.92</v>
@@ -7957,7 +7972,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>2.46</v>
@@ -8244,7 +8259,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR36">
         <v>1.71</v>
@@ -8369,7 +8384,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q37">
         <v>3.16</v>
@@ -8575,7 +8590,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q38">
         <v>2.81</v>
@@ -8781,7 +8796,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q39">
         <v>3.58</v>
@@ -8987,7 +9002,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9065,7 +9080,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ40">
         <v>1.4</v>
@@ -9193,7 +9208,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9271,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR41">
         <v>2.2</v>
@@ -9399,7 +9414,7 @@
         <v>87</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9605,7 +9620,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q43">
         <v>3.1</v>
@@ -9811,7 +9826,7 @@
         <v>87</v>
       </c>
       <c r="P44" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10223,7 +10238,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q46">
         <v>2.55</v>
@@ -10301,7 +10316,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10429,7 +10444,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q47">
         <v>2.5</v>
@@ -10510,7 +10525,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ47">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR47">
         <v>2.18</v>
@@ -10716,7 +10731,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR48">
         <v>1.5</v>
@@ -10841,7 +10856,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -10919,7 +10934,7 @@
         <v>2.33</v>
       </c>
       <c r="AP49">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>1.8</v>
@@ -11047,7 +11062,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11253,7 +11268,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11334,7 +11349,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR51">
         <v>1.17</v>
@@ -11459,7 +11474,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11665,7 +11680,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11743,7 +11758,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -11871,7 +11886,7 @@
         <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>3.25</v>
@@ -12158,7 +12173,7 @@
         <v>3</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR55">
         <v>2</v>
@@ -12283,7 +12298,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q56">
         <v>2.38</v>
@@ -12773,7 +12788,7 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ58">
         <v>1.6</v>
@@ -12979,7 +12994,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ59">
         <v>1.8</v>
@@ -13313,7 +13328,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13519,7 +13534,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13725,7 +13740,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q63">
         <v>2.9</v>
@@ -13806,7 +13821,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -13931,7 +13946,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q64">
         <v>2.8</v>
@@ -14137,7 +14152,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q65">
         <v>2.62</v>
@@ -14294,6 +14309,830 @@
       </c>
       <c r="BP65">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7781708</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45798.58333333334</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>72</v>
+      </c>
+      <c r="H66" t="s">
+        <v>71</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>4</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>4</v>
+      </c>
+      <c r="O66" t="s">
+        <v>132</v>
+      </c>
+      <c r="P66" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q66">
+        <v>2.75</v>
+      </c>
+      <c r="R66">
+        <v>2.2</v>
+      </c>
+      <c r="S66">
+        <v>3.35</v>
+      </c>
+      <c r="T66">
+        <v>1.3</v>
+      </c>
+      <c r="U66">
+        <v>3.2</v>
+      </c>
+      <c r="V66">
+        <v>2.35</v>
+      </c>
+      <c r="W66">
+        <v>1.53</v>
+      </c>
+      <c r="X66">
+        <v>5.75</v>
+      </c>
+      <c r="Y66">
+        <v>1.08</v>
+      </c>
+      <c r="Z66">
+        <v>2.1</v>
+      </c>
+      <c r="AA66">
+        <v>3.5</v>
+      </c>
+      <c r="AB66">
+        <v>2.8</v>
+      </c>
+      <c r="AC66">
+        <v>1.04</v>
+      </c>
+      <c r="AD66">
+        <v>11</v>
+      </c>
+      <c r="AE66">
+        <v>1.2</v>
+      </c>
+      <c r="AF66">
+        <v>4.5</v>
+      </c>
+      <c r="AG66">
+        <v>1.57</v>
+      </c>
+      <c r="AH66">
+        <v>2.15</v>
+      </c>
+      <c r="AI66">
+        <v>1.5</v>
+      </c>
+      <c r="AJ66">
+        <v>2.38</v>
+      </c>
+      <c r="AK66">
+        <v>1.38</v>
+      </c>
+      <c r="AL66">
+        <v>1.22</v>
+      </c>
+      <c r="AM66">
+        <v>1.62</v>
+      </c>
+      <c r="AN66">
+        <v>2.6</v>
+      </c>
+      <c r="AO66">
+        <v>1</v>
+      </c>
+      <c r="AP66">
+        <v>2.67</v>
+      </c>
+      <c r="AQ66">
+        <v>0.8</v>
+      </c>
+      <c r="AR66">
+        <v>2.07</v>
+      </c>
+      <c r="AS66">
+        <v>1.82</v>
+      </c>
+      <c r="AT66">
+        <v>3.89</v>
+      </c>
+      <c r="AU66">
+        <v>9</v>
+      </c>
+      <c r="AV66">
+        <v>5</v>
+      </c>
+      <c r="AW66">
+        <v>6</v>
+      </c>
+      <c r="AX66">
+        <v>14</v>
+      </c>
+      <c r="AY66">
+        <v>15</v>
+      </c>
+      <c r="AZ66">
+        <v>19</v>
+      </c>
+      <c r="BA66">
+        <v>0</v>
+      </c>
+      <c r="BB66">
+        <v>3</v>
+      </c>
+      <c r="BC66">
+        <v>3</v>
+      </c>
+      <c r="BD66">
+        <v>2.05</v>
+      </c>
+      <c r="BE66">
+        <v>6.75</v>
+      </c>
+      <c r="BF66">
+        <v>1.93</v>
+      </c>
+      <c r="BG66">
+        <v>1.21</v>
+      </c>
+      <c r="BH66">
+        <v>3.9</v>
+      </c>
+      <c r="BI66">
+        <v>1.36</v>
+      </c>
+      <c r="BJ66">
+        <v>2.8</v>
+      </c>
+      <c r="BK66">
+        <v>1.6</v>
+      </c>
+      <c r="BL66">
+        <v>2.17</v>
+      </c>
+      <c r="BM66">
+        <v>1.94</v>
+      </c>
+      <c r="BN66">
+        <v>1.76</v>
+      </c>
+      <c r="BO66">
+        <v>2.4</v>
+      </c>
+      <c r="BP66">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7781701</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45798.58333333334</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>73</v>
+      </c>
+      <c r="H67" t="s">
+        <v>75</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>4</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67" t="s">
+        <v>133</v>
+      </c>
+      <c r="P67" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q67">
+        <v>2.8</v>
+      </c>
+      <c r="R67">
+        <v>2.15</v>
+      </c>
+      <c r="S67">
+        <v>3.35</v>
+      </c>
+      <c r="T67">
+        <v>1.35</v>
+      </c>
+      <c r="U67">
+        <v>2.95</v>
+      </c>
+      <c r="V67">
+        <v>2.6</v>
+      </c>
+      <c r="W67">
+        <v>1.44</v>
+      </c>
+      <c r="X67">
+        <v>6.1</v>
+      </c>
+      <c r="Y67">
+        <v>1.06</v>
+      </c>
+      <c r="Z67">
+        <v>2.17</v>
+      </c>
+      <c r="AA67">
+        <v>3.39</v>
+      </c>
+      <c r="AB67">
+        <v>2.74</v>
+      </c>
+      <c r="AC67">
+        <v>1.05</v>
+      </c>
+      <c r="AD67">
+        <v>10</v>
+      </c>
+      <c r="AE67">
+        <v>1.25</v>
+      </c>
+      <c r="AF67">
+        <v>3.9</v>
+      </c>
+      <c r="AG67">
+        <v>1.76</v>
+      </c>
+      <c r="AH67">
+        <v>1.94</v>
+      </c>
+      <c r="AI67">
+        <v>1.62</v>
+      </c>
+      <c r="AJ67">
+        <v>2.1</v>
+      </c>
+      <c r="AK67">
+        <v>1.4</v>
+      </c>
+      <c r="AL67">
+        <v>1.22</v>
+      </c>
+      <c r="AM67">
+        <v>1.6</v>
+      </c>
+      <c r="AN67">
+        <v>1.5</v>
+      </c>
+      <c r="AO67">
+        <v>1</v>
+      </c>
+      <c r="AP67">
+        <v>1.8</v>
+      </c>
+      <c r="AQ67">
+        <v>0.8</v>
+      </c>
+      <c r="AR67">
+        <v>1.91</v>
+      </c>
+      <c r="AS67">
+        <v>1.51</v>
+      </c>
+      <c r="AT67">
+        <v>3.42</v>
+      </c>
+      <c r="AU67">
+        <v>7</v>
+      </c>
+      <c r="AV67">
+        <v>3</v>
+      </c>
+      <c r="AW67">
+        <v>4</v>
+      </c>
+      <c r="AX67">
+        <v>5</v>
+      </c>
+      <c r="AY67">
+        <v>11</v>
+      </c>
+      <c r="AZ67">
+        <v>8</v>
+      </c>
+      <c r="BA67">
+        <v>4</v>
+      </c>
+      <c r="BB67">
+        <v>1</v>
+      </c>
+      <c r="BC67">
+        <v>5</v>
+      </c>
+      <c r="BD67">
+        <v>1.92</v>
+      </c>
+      <c r="BE67">
+        <v>6.75</v>
+      </c>
+      <c r="BF67">
+        <v>2.05</v>
+      </c>
+      <c r="BG67">
+        <v>1.2</v>
+      </c>
+      <c r="BH67">
+        <v>4</v>
+      </c>
+      <c r="BI67">
+        <v>1.34</v>
+      </c>
+      <c r="BJ67">
+        <v>2.9</v>
+      </c>
+      <c r="BK67">
+        <v>1.56</v>
+      </c>
+      <c r="BL67">
+        <v>2.25</v>
+      </c>
+      <c r="BM67">
+        <v>1.88</v>
+      </c>
+      <c r="BN67">
+        <v>1.81</v>
+      </c>
+      <c r="BO67">
+        <v>2.32</v>
+      </c>
+      <c r="BP67">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7781707</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45798.58333333334</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" t="s">
+        <v>80</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>134</v>
+      </c>
+      <c r="P68" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q68">
+        <v>2.05</v>
+      </c>
+      <c r="R68">
+        <v>2.35</v>
+      </c>
+      <c r="S68">
+        <v>4.75</v>
+      </c>
+      <c r="T68">
+        <v>1.3</v>
+      </c>
+      <c r="U68">
+        <v>3.2</v>
+      </c>
+      <c r="V68">
+        <v>2.45</v>
+      </c>
+      <c r="W68">
+        <v>1.48</v>
+      </c>
+      <c r="X68">
+        <v>6</v>
+      </c>
+      <c r="Y68">
+        <v>1.07</v>
+      </c>
+      <c r="Z68">
+        <v>1.53</v>
+      </c>
+      <c r="AA68">
+        <v>3.9</v>
+      </c>
+      <c r="AB68">
+        <v>4.75</v>
+      </c>
+      <c r="AC68">
+        <v>1.04</v>
+      </c>
+      <c r="AD68">
+        <v>11</v>
+      </c>
+      <c r="AE68">
+        <v>1.25</v>
+      </c>
+      <c r="AF68">
+        <v>4</v>
+      </c>
+      <c r="AG68">
+        <v>1.79</v>
+      </c>
+      <c r="AH68">
+        <v>1.91</v>
+      </c>
+      <c r="AI68">
+        <v>1.77</v>
+      </c>
+      <c r="AJ68">
+        <v>1.9</v>
+      </c>
+      <c r="AK68">
+        <v>1.15</v>
+      </c>
+      <c r="AL68">
+        <v>1.18</v>
+      </c>
+      <c r="AM68">
+        <v>2.3</v>
+      </c>
+      <c r="AN68">
+        <v>1.67</v>
+      </c>
+      <c r="AO68">
+        <v>1.75</v>
+      </c>
+      <c r="AP68">
+        <v>2</v>
+      </c>
+      <c r="AQ68">
+        <v>1.4</v>
+      </c>
+      <c r="AR68">
+        <v>1.22</v>
+      </c>
+      <c r="AS68">
+        <v>1.47</v>
+      </c>
+      <c r="AT68">
+        <v>2.69</v>
+      </c>
+      <c r="AU68">
+        <v>4</v>
+      </c>
+      <c r="AV68">
+        <v>2</v>
+      </c>
+      <c r="AW68">
+        <v>6</v>
+      </c>
+      <c r="AX68">
+        <v>3</v>
+      </c>
+      <c r="AY68">
+        <v>10</v>
+      </c>
+      <c r="AZ68">
+        <v>5</v>
+      </c>
+      <c r="BA68">
+        <v>1</v>
+      </c>
+      <c r="BB68">
+        <v>3</v>
+      </c>
+      <c r="BC68">
+        <v>4</v>
+      </c>
+      <c r="BD68">
+        <v>1.49</v>
+      </c>
+      <c r="BE68">
+        <v>7</v>
+      </c>
+      <c r="BF68">
+        <v>2.9</v>
+      </c>
+      <c r="BG68">
+        <v>1.2</v>
+      </c>
+      <c r="BH68">
+        <v>3.95</v>
+      </c>
+      <c r="BI68">
+        <v>1.35</v>
+      </c>
+      <c r="BJ68">
+        <v>2.9</v>
+      </c>
+      <c r="BK68">
+        <v>1.57</v>
+      </c>
+      <c r="BL68">
+        <v>2.23</v>
+      </c>
+      <c r="BM68">
+        <v>1.9</v>
+      </c>
+      <c r="BN68">
+        <v>1.79</v>
+      </c>
+      <c r="BO68">
+        <v>2.35</v>
+      </c>
+      <c r="BP68">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7781705</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45798.58333333334</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s">
+        <v>77</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>5</v>
+      </c>
+      <c r="L69">
+        <v>4</v>
+      </c>
+      <c r="M69">
+        <v>4</v>
+      </c>
+      <c r="N69">
+        <v>8</v>
+      </c>
+      <c r="O69" t="s">
+        <v>135</v>
+      </c>
+      <c r="P69" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q69">
+        <v>2.8</v>
+      </c>
+      <c r="R69">
+        <v>2.15</v>
+      </c>
+      <c r="S69">
+        <v>3.4</v>
+      </c>
+      <c r="T69">
+        <v>1.36</v>
+      </c>
+      <c r="U69">
+        <v>2.9</v>
+      </c>
+      <c r="V69">
+        <v>2.65</v>
+      </c>
+      <c r="W69">
+        <v>1.42</v>
+      </c>
+      <c r="X69">
+        <v>6.05</v>
+      </c>
+      <c r="Y69">
+        <v>1.06</v>
+      </c>
+      <c r="Z69">
+        <v>2.14</v>
+      </c>
+      <c r="AA69">
+        <v>3.33</v>
+      </c>
+      <c r="AB69">
+        <v>2.84</v>
+      </c>
+      <c r="AC69">
+        <v>1.05</v>
+      </c>
+      <c r="AD69">
+        <v>10</v>
+      </c>
+      <c r="AE69">
+        <v>1.28</v>
+      </c>
+      <c r="AF69">
+        <v>3.8</v>
+      </c>
+      <c r="AG69">
+        <v>1.8</v>
+      </c>
+      <c r="AH69">
+        <v>1.9</v>
+      </c>
+      <c r="AI69">
+        <v>1.62</v>
+      </c>
+      <c r="AJ69">
+        <v>2.1</v>
+      </c>
+      <c r="AK69">
+        <v>1.38</v>
+      </c>
+      <c r="AL69">
+        <v>1.25</v>
+      </c>
+      <c r="AM69">
+        <v>1.62</v>
+      </c>
+      <c r="AN69">
+        <v>1.25</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <v>1.2</v>
+      </c>
+      <c r="AQ69">
+        <v>0.2</v>
+      </c>
+      <c r="AR69">
+        <v>1.89</v>
+      </c>
+      <c r="AS69">
+        <v>1.79</v>
+      </c>
+      <c r="AT69">
+        <v>3.68</v>
+      </c>
+      <c r="AU69">
+        <v>8</v>
+      </c>
+      <c r="AV69">
+        <v>7</v>
+      </c>
+      <c r="AW69">
+        <v>8</v>
+      </c>
+      <c r="AX69">
+        <v>11</v>
+      </c>
+      <c r="AY69">
+        <v>16</v>
+      </c>
+      <c r="AZ69">
+        <v>18</v>
+      </c>
+      <c r="BA69">
+        <v>7</v>
+      </c>
+      <c r="BB69">
+        <v>8</v>
+      </c>
+      <c r="BC69">
+        <v>15</v>
+      </c>
+      <c r="BD69">
+        <v>2.25</v>
+      </c>
+      <c r="BE69">
+        <v>6.75</v>
+      </c>
+      <c r="BF69">
+        <v>1.76</v>
+      </c>
+      <c r="BG69">
+        <v>1.18</v>
+      </c>
+      <c r="BH69">
+        <v>4.1</v>
+      </c>
+      <c r="BI69">
+        <v>1.33</v>
+      </c>
+      <c r="BJ69">
+        <v>2.95</v>
+      </c>
+      <c r="BK69">
+        <v>1.54</v>
+      </c>
+      <c r="BL69">
+        <v>2.3</v>
+      </c>
+      <c r="BM69">
+        <v>1.85</v>
+      </c>
+      <c r="BN69">
+        <v>1.83</v>
+      </c>
+      <c r="BO69">
+        <v>2.3</v>
+      </c>
+      <c r="BP69">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="185">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,12 @@
     <t>['19', '23', '38', '58']</t>
   </si>
   <si>
+    <t>['5', '11', '17', '19']</t>
+  </si>
+  <si>
+    <t>['11', '63']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -554,6 +560,15 @@
   </si>
   <si>
     <t>['5', '7', '53', '66']</t>
+  </si>
+  <si>
+    <t>['82', '90+1']</t>
+  </si>
+  <si>
+    <t>['57', '68']</t>
+  </si>
+  <si>
+    <t>['30', '89']</t>
   </si>
 </sst>
 </file>
@@ -915,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP69"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1586,7 +1601,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1792,7 +1807,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1998,7 +2013,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2079,7 +2094,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ6">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2204,7 +2219,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2616,7 +2631,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2822,7 +2837,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2903,7 +2918,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ10">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3028,7 +3043,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3106,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11">
         <v>0.8</v>
@@ -3234,7 +3249,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3315,7 +3330,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ12">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3646,7 +3661,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3852,7 +3867,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -4058,7 +4073,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4470,7 +4485,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4882,7 +4897,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -5294,7 +5309,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5912,7 +5927,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -6118,7 +6133,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6199,7 +6214,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ26">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR26">
         <v>1.89</v>
@@ -6530,7 +6545,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6736,7 +6751,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6817,7 +6832,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ29">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>1.8</v>
@@ -6942,7 +6957,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -7020,10 +7035,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ30">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR30">
         <v>1.53</v>
@@ -7638,7 +7653,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ33">
         <v>1.4</v>
@@ -7766,7 +7781,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q34">
         <v>2.92</v>
@@ -7972,7 +7987,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>2.46</v>
@@ -8384,7 +8399,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q37">
         <v>3.16</v>
@@ -8462,7 +8477,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ37">
         <v>1.8</v>
@@ -8590,7 +8605,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q38">
         <v>2.81</v>
@@ -8796,7 +8811,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q39">
         <v>3.58</v>
@@ -8877,7 +8892,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ39">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>1.39</v>
@@ -9002,7 +9017,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9208,7 +9223,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9414,7 +9429,7 @@
         <v>87</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9495,7 +9510,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR42">
         <v>1.94</v>
@@ -9620,7 +9635,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>3.1</v>
@@ -9698,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -9826,7 +9841,7 @@
         <v>87</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -9907,7 +9922,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ44">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR44">
         <v>1.39</v>
@@ -10238,7 +10253,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q46">
         <v>2.55</v>
@@ -10444,7 +10459,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q47">
         <v>2.5</v>
@@ -10856,7 +10871,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11062,7 +11077,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11268,7 +11283,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11474,7 +11489,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11552,7 +11567,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ52">
         <v>1.4</v>
@@ -11680,7 +11695,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11886,7 +11901,7 @@
         <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q54">
         <v>3.25</v>
@@ -12298,7 +12313,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q56">
         <v>2.38</v>
@@ -12582,10 +12597,10 @@
         <v>2.33</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ57">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR57">
         <v>1.42</v>
@@ -13328,7 +13343,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13534,7 +13549,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13740,7 +13755,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q63">
         <v>2.9</v>
@@ -13946,7 +13961,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q64">
         <v>2.8</v>
@@ -14027,7 +14042,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ64">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR64">
         <v>1.83</v>
@@ -14152,7 +14167,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q65">
         <v>2.62</v>
@@ -14976,7 +14991,7 @@
         <v>135</v>
       </c>
       <c r="P69" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q69">
         <v>2.8</v>
@@ -15133,6 +15148,830 @@
       </c>
       <c r="BP69">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7781706</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45799.58333333334</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>83</v>
+      </c>
+      <c r="H70" t="s">
+        <v>74</v>
+      </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>4</v>
+      </c>
+      <c r="L70">
+        <v>4</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>6</v>
+      </c>
+      <c r="O70" t="s">
+        <v>136</v>
+      </c>
+      <c r="P70" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q70">
+        <v>2.8</v>
+      </c>
+      <c r="R70">
+        <v>2.32</v>
+      </c>
+      <c r="S70">
+        <v>3.15</v>
+      </c>
+      <c r="T70">
+        <v>1.3</v>
+      </c>
+      <c r="U70">
+        <v>3.2</v>
+      </c>
+      <c r="V70">
+        <v>2.45</v>
+      </c>
+      <c r="W70">
+        <v>1.5</v>
+      </c>
+      <c r="X70">
+        <v>5.6</v>
+      </c>
+      <c r="Y70">
+        <v>1.11</v>
+      </c>
+      <c r="Z70">
+        <v>2.15</v>
+      </c>
+      <c r="AA70">
+        <v>3.5</v>
+      </c>
+      <c r="AB70">
+        <v>2.72</v>
+      </c>
+      <c r="AC70">
+        <v>1.05</v>
+      </c>
+      <c r="AD70">
+        <v>10</v>
+      </c>
+      <c r="AE70">
+        <v>1.18</v>
+      </c>
+      <c r="AF70">
+        <v>4.25</v>
+      </c>
+      <c r="AG70">
+        <v>1.83</v>
+      </c>
+      <c r="AH70">
+        <v>1.87</v>
+      </c>
+      <c r="AI70">
+        <v>1.53</v>
+      </c>
+      <c r="AJ70">
+        <v>2.25</v>
+      </c>
+      <c r="AK70">
+        <v>1.36</v>
+      </c>
+      <c r="AL70">
+        <v>1.22</v>
+      </c>
+      <c r="AM70">
+        <v>1.55</v>
+      </c>
+      <c r="AN70">
+        <v>3</v>
+      </c>
+      <c r="AO70">
+        <v>2.33</v>
+      </c>
+      <c r="AP70">
+        <v>3</v>
+      </c>
+      <c r="AQ70">
+        <v>1.75</v>
+      </c>
+      <c r="AR70">
+        <v>1.83</v>
+      </c>
+      <c r="AS70">
+        <v>2.06</v>
+      </c>
+      <c r="AT70">
+        <v>3.89</v>
+      </c>
+      <c r="AU70">
+        <v>7</v>
+      </c>
+      <c r="AV70">
+        <v>5</v>
+      </c>
+      <c r="AW70">
+        <v>7</v>
+      </c>
+      <c r="AX70">
+        <v>6</v>
+      </c>
+      <c r="AY70">
+        <v>14</v>
+      </c>
+      <c r="AZ70">
+        <v>11</v>
+      </c>
+      <c r="BA70">
+        <v>2</v>
+      </c>
+      <c r="BB70">
+        <v>4</v>
+      </c>
+      <c r="BC70">
+        <v>6</v>
+      </c>
+      <c r="BD70">
+        <v>1.9</v>
+      </c>
+      <c r="BE70">
+        <v>6.75</v>
+      </c>
+      <c r="BF70">
+        <v>2.05</v>
+      </c>
+      <c r="BG70">
+        <v>1.2</v>
+      </c>
+      <c r="BH70">
+        <v>3.95</v>
+      </c>
+      <c r="BI70">
+        <v>1.35</v>
+      </c>
+      <c r="BJ70">
+        <v>2.9</v>
+      </c>
+      <c r="BK70">
+        <v>1.58</v>
+      </c>
+      <c r="BL70">
+        <v>2.2</v>
+      </c>
+      <c r="BM70">
+        <v>1.92</v>
+      </c>
+      <c r="BN70">
+        <v>1.77</v>
+      </c>
+      <c r="BO70">
+        <v>2.4</v>
+      </c>
+      <c r="BP70">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7781703</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45799.58333333334</v>
+      </c>
+      <c r="F71">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s">
+        <v>76</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71" t="s">
+        <v>87</v>
+      </c>
+      <c r="P71" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q71">
+        <v>2.4</v>
+      </c>
+      <c r="R71">
+        <v>2.17</v>
+      </c>
+      <c r="S71">
+        <v>4.6</v>
+      </c>
+      <c r="T71">
+        <v>1.41</v>
+      </c>
+      <c r="U71">
+        <v>2.8</v>
+      </c>
+      <c r="V71">
+        <v>2.9</v>
+      </c>
+      <c r="W71">
+        <v>1.38</v>
+      </c>
+      <c r="X71">
+        <v>6.75</v>
+      </c>
+      <c r="Y71">
+        <v>1.07</v>
+      </c>
+      <c r="Z71">
+        <v>1.68</v>
+      </c>
+      <c r="AA71">
+        <v>3.47</v>
+      </c>
+      <c r="AB71">
+        <v>4.2</v>
+      </c>
+      <c r="AC71">
+        <v>1.01</v>
+      </c>
+      <c r="AD71">
+        <v>10.5</v>
+      </c>
+      <c r="AE71">
+        <v>1.28</v>
+      </c>
+      <c r="AF71">
+        <v>3.35</v>
+      </c>
+      <c r="AG71">
+        <v>1.95</v>
+      </c>
+      <c r="AH71">
+        <v>1.75</v>
+      </c>
+      <c r="AI71">
+        <v>1.83</v>
+      </c>
+      <c r="AJ71">
+        <v>1.81</v>
+      </c>
+      <c r="AK71">
+        <v>1.15</v>
+      </c>
+      <c r="AL71">
+        <v>1.22</v>
+      </c>
+      <c r="AM71">
+        <v>1.93</v>
+      </c>
+      <c r="AN71">
+        <v>1.5</v>
+      </c>
+      <c r="AO71">
+        <v>2.5</v>
+      </c>
+      <c r="AP71">
+        <v>1.2</v>
+      </c>
+      <c r="AQ71">
+        <v>2.6</v>
+      </c>
+      <c r="AR71">
+        <v>1.38</v>
+      </c>
+      <c r="AS71">
+        <v>1.45</v>
+      </c>
+      <c r="AT71">
+        <v>2.83</v>
+      </c>
+      <c r="AU71">
+        <v>4</v>
+      </c>
+      <c r="AV71">
+        <v>5</v>
+      </c>
+      <c r="AW71">
+        <v>11</v>
+      </c>
+      <c r="AX71">
+        <v>2</v>
+      </c>
+      <c r="AY71">
+        <v>15</v>
+      </c>
+      <c r="AZ71">
+        <v>7</v>
+      </c>
+      <c r="BA71">
+        <v>3</v>
+      </c>
+      <c r="BB71">
+        <v>2</v>
+      </c>
+      <c r="BC71">
+        <v>5</v>
+      </c>
+      <c r="BD71">
+        <v>1.82</v>
+      </c>
+      <c r="BE71">
+        <v>6.75</v>
+      </c>
+      <c r="BF71">
+        <v>2.15</v>
+      </c>
+      <c r="BG71">
+        <v>1.25</v>
+      </c>
+      <c r="BH71">
+        <v>3.45</v>
+      </c>
+      <c r="BI71">
+        <v>1.45</v>
+      </c>
+      <c r="BJ71">
+        <v>2.55</v>
+      </c>
+      <c r="BK71">
+        <v>1.73</v>
+      </c>
+      <c r="BL71">
+        <v>1.98</v>
+      </c>
+      <c r="BM71">
+        <v>2.15</v>
+      </c>
+      <c r="BN71">
+        <v>1.61</v>
+      </c>
+      <c r="BO71">
+        <v>2.7</v>
+      </c>
+      <c r="BP71">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7781702</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45799.58333333334</v>
+      </c>
+      <c r="F72">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
+        <v>70</v>
+      </c>
+      <c r="H72" t="s">
+        <v>84</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72" t="s">
+        <v>87</v>
+      </c>
+      <c r="P72" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q72">
+        <v>3.3</v>
+      </c>
+      <c r="R72">
+        <v>2.15</v>
+      </c>
+      <c r="S72">
+        <v>2.95</v>
+      </c>
+      <c r="T72">
+        <v>1.4</v>
+      </c>
+      <c r="U72">
+        <v>2.8</v>
+      </c>
+      <c r="V72">
+        <v>2.9</v>
+      </c>
+      <c r="W72">
+        <v>1.36</v>
+      </c>
+      <c r="X72">
+        <v>6.75</v>
+      </c>
+      <c r="Y72">
+        <v>1.06</v>
+      </c>
+      <c r="Z72">
+        <v>2.62</v>
+      </c>
+      <c r="AA72">
+        <v>3.28</v>
+      </c>
+      <c r="AB72">
+        <v>2.31</v>
+      </c>
+      <c r="AC72">
+        <v>1.01</v>
+      </c>
+      <c r="AD72">
+        <v>10.5</v>
+      </c>
+      <c r="AE72">
+        <v>1.27</v>
+      </c>
+      <c r="AF72">
+        <v>3.45</v>
+      </c>
+      <c r="AG72">
+        <v>1.94</v>
+      </c>
+      <c r="AH72">
+        <v>1.76</v>
+      </c>
+      <c r="AI72">
+        <v>1.72</v>
+      </c>
+      <c r="AJ72">
+        <v>1.93</v>
+      </c>
+      <c r="AK72">
+        <v>1.5</v>
+      </c>
+      <c r="AL72">
+        <v>1.28</v>
+      </c>
+      <c r="AM72">
+        <v>1.42</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
+        <v>1.75</v>
+      </c>
+      <c r="AP72">
+        <v>0.8</v>
+      </c>
+      <c r="AQ72">
+        <v>2</v>
+      </c>
+      <c r="AR72">
+        <v>1.67</v>
+      </c>
+      <c r="AS72">
+        <v>1.52</v>
+      </c>
+      <c r="AT72">
+        <v>3.19</v>
+      </c>
+      <c r="AU72">
+        <v>6</v>
+      </c>
+      <c r="AV72">
+        <v>5</v>
+      </c>
+      <c r="AW72">
+        <v>12</v>
+      </c>
+      <c r="AX72">
+        <v>1</v>
+      </c>
+      <c r="AY72">
+        <v>18</v>
+      </c>
+      <c r="AZ72">
+        <v>6</v>
+      </c>
+      <c r="BA72">
+        <v>2</v>
+      </c>
+      <c r="BB72">
+        <v>3</v>
+      </c>
+      <c r="BC72">
+        <v>5</v>
+      </c>
+      <c r="BD72">
+        <v>2.02</v>
+      </c>
+      <c r="BE72">
+        <v>6.75</v>
+      </c>
+      <c r="BF72">
+        <v>1.93</v>
+      </c>
+      <c r="BG72">
+        <v>1.19</v>
+      </c>
+      <c r="BH72">
+        <v>4.1</v>
+      </c>
+      <c r="BI72">
+        <v>1.34</v>
+      </c>
+      <c r="BJ72">
+        <v>2.9</v>
+      </c>
+      <c r="BK72">
+        <v>1.55</v>
+      </c>
+      <c r="BL72">
+        <v>2.28</v>
+      </c>
+      <c r="BM72">
+        <v>1.86</v>
+      </c>
+      <c r="BN72">
+        <v>1.82</v>
+      </c>
+      <c r="BO72">
+        <v>2.32</v>
+      </c>
+      <c r="BP72">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7781704</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45799.58333333334</v>
+      </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
+      <c r="G73" t="s">
+        <v>81</v>
+      </c>
+      <c r="H73" t="s">
+        <v>82</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73" t="s">
+        <v>137</v>
+      </c>
+      <c r="P73" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q73">
+        <v>1.6</v>
+      </c>
+      <c r="R73">
+        <v>2.75</v>
+      </c>
+      <c r="S73">
+        <v>7.5</v>
+      </c>
+      <c r="T73">
+        <v>1.25</v>
+      </c>
+      <c r="U73">
+        <v>3.55</v>
+      </c>
+      <c r="V73">
+        <v>2.2</v>
+      </c>
+      <c r="W73">
+        <v>1.6</v>
+      </c>
+      <c r="X73">
+        <v>5.15</v>
+      </c>
+      <c r="Y73">
+        <v>1.11</v>
+      </c>
+      <c r="Z73">
+        <v>1.22</v>
+      </c>
+      <c r="AA73">
+        <v>5.2</v>
+      </c>
+      <c r="AB73">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC73">
+        <v>1.03</v>
+      </c>
+      <c r="AD73">
+        <v>13</v>
+      </c>
+      <c r="AE73">
+        <v>1.18</v>
+      </c>
+      <c r="AF73">
+        <v>5</v>
+      </c>
+      <c r="AG73">
+        <v>1.55</v>
+      </c>
+      <c r="AH73">
+        <v>2.2</v>
+      </c>
+      <c r="AI73">
+        <v>2.05</v>
+      </c>
+      <c r="AJ73">
+        <v>1.65</v>
+      </c>
+      <c r="AK73">
+        <v>1.04</v>
+      </c>
+      <c r="AL73">
+        <v>1.12</v>
+      </c>
+      <c r="AM73">
+        <v>3.85</v>
+      </c>
+      <c r="AN73">
+        <v>3</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>3</v>
+      </c>
+      <c r="AQ73">
+        <v>0</v>
+      </c>
+      <c r="AR73">
+        <v>1.9</v>
+      </c>
+      <c r="AS73">
+        <v>1.5</v>
+      </c>
+      <c r="AT73">
+        <v>3.4</v>
+      </c>
+      <c r="AU73">
+        <v>6</v>
+      </c>
+      <c r="AV73">
+        <v>4</v>
+      </c>
+      <c r="AW73">
+        <v>14</v>
+      </c>
+      <c r="AX73">
+        <v>4</v>
+      </c>
+      <c r="AY73">
+        <v>20</v>
+      </c>
+      <c r="AZ73">
+        <v>8</v>
+      </c>
+      <c r="BA73">
+        <v>8</v>
+      </c>
+      <c r="BB73">
+        <v>8</v>
+      </c>
+      <c r="BC73">
+        <v>16</v>
+      </c>
+      <c r="BD73">
+        <v>1.27</v>
+      </c>
+      <c r="BE73">
+        <v>8</v>
+      </c>
+      <c r="BF73">
+        <v>3.95</v>
+      </c>
+      <c r="BG73">
+        <v>1.22</v>
+      </c>
+      <c r="BH73">
+        <v>3.8</v>
+      </c>
+      <c r="BI73">
+        <v>1.38</v>
+      </c>
+      <c r="BJ73">
+        <v>2.8</v>
+      </c>
+      <c r="BK73">
+        <v>1.61</v>
+      </c>
+      <c r="BL73">
+        <v>2.15</v>
+      </c>
+      <c r="BM73">
+        <v>1.96</v>
+      </c>
+      <c r="BN73">
+        <v>1.74</v>
+      </c>
+      <c r="BO73">
+        <v>2.43</v>
+      </c>
+      <c r="BP73">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,18 @@
     <t>['11', '63']</t>
   </si>
   <si>
+    <t>['27', '51', '75']</t>
+  </si>
+  <si>
+    <t>['47', '66']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['38', '43', '83']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -569,6 +581,21 @@
   </si>
   <si>
     <t>['30', '89']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['38', '63']</t>
+  </si>
+  <si>
+    <t>['28', '43', '45+1', '57', '62']</t>
+  </si>
+  <si>
+    <t>['19', '42', '55']</t>
+  </si>
+  <si>
+    <t>['11', '66', '72']</t>
   </si>
 </sst>
 </file>
@@ -930,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1476,7 +1503,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1601,7 +1628,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1807,7 +1834,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2013,7 +2040,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2091,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>2</v>
@@ -2219,7 +2246,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2503,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2631,7 +2658,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2712,7 +2739,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ9">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2837,7 +2864,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3043,7 +3070,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3249,7 +3276,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3327,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ12">
         <v>1.75</v>
@@ -3661,7 +3688,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3739,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ14">
         <v>0.8</v>
@@ -3867,7 +3894,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -3945,10 +3972,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ15">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4073,7 +4100,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4151,10 +4178,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4360,7 +4387,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4485,7 +4512,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4563,10 +4590,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ18">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR18">
         <v>0.99</v>
@@ -4897,7 +4924,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -4975,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5309,7 +5336,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5387,7 +5414,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ22">
         <v>1.4</v>
@@ -5593,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ23">
         <v>1.6</v>
@@ -5802,7 +5829,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR24">
         <v>1.8</v>
@@ -5927,7 +5954,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -6133,7 +6160,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6420,7 +6447,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ27">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR27">
         <v>1.52</v>
@@ -6545,7 +6572,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6751,7 +6778,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6957,7 +6984,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -7447,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ32">
         <v>0</v>
@@ -7656,7 +7683,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ33">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR33">
         <v>1.44</v>
@@ -7781,7 +7808,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q34">
         <v>2.92</v>
@@ -7859,10 +7886,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR34">
         <v>1.47</v>
@@ -7987,7 +8014,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q35">
         <v>2.46</v>
@@ -8065,7 +8092,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ35">
         <v>1.75</v>
@@ -8271,7 +8298,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>0.8</v>
@@ -8399,7 +8426,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q37">
         <v>3.16</v>
@@ -8480,7 +8507,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ37">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR37">
         <v>1.64</v>
@@ -8605,7 +8632,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q38">
         <v>2.81</v>
@@ -8811,7 +8838,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q39">
         <v>3.58</v>
@@ -8889,7 +8916,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -9017,7 +9044,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9098,7 +9125,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ40">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR40">
         <v>1.52</v>
@@ -9223,7 +9250,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9304,7 +9331,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ41">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR41">
         <v>2.2</v>
@@ -9429,7 +9456,7 @@
         <v>87</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9635,7 +9662,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q43">
         <v>3.1</v>
@@ -9841,7 +9868,7 @@
         <v>87</v>
       </c>
       <c r="P44" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -9919,7 +9946,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ44">
         <v>1.75</v>
@@ -10125,7 +10152,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10253,7 +10280,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q46">
         <v>2.55</v>
@@ -10334,7 +10361,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR46">
         <v>1.62</v>
@@ -10459,7 +10486,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q47">
         <v>2.5</v>
@@ -10537,7 +10564,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ47">
         <v>1.4</v>
@@ -10871,7 +10898,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -10952,7 +10979,7 @@
         <v>2</v>
       </c>
       <c r="AQ49">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR49">
         <v>1.3</v>
@@ -11077,7 +11104,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11283,7 +11310,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11361,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ51">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR51">
         <v>1.17</v>
@@ -11489,7 +11516,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11570,7 +11597,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ52">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR52">
         <v>1.58</v>
@@ -11695,7 +11722,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11776,7 +11803,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR53">
         <v>1.58</v>
@@ -11901,7 +11928,7 @@
         <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q54">
         <v>3.25</v>
@@ -11979,7 +12006,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ54">
         <v>1.6</v>
@@ -12313,7 +12340,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>2.38</v>
@@ -12391,10 +12418,10 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR56">
         <v>1.75</v>
@@ -13012,7 +13039,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ59">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR59">
         <v>2.19</v>
@@ -13218,7 +13245,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ60">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR60">
         <v>1.99</v>
@@ -13343,7 +13370,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13421,7 +13448,7 @@
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -13549,7 +13576,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13755,7 +13782,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>2.9</v>
@@ -13833,7 +13860,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ63">
         <v>0.8</v>
@@ -13961,7 +13988,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>2.8</v>
@@ -14039,7 +14066,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ64">
         <v>2.6</v>
@@ -14167,7 +14194,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>2.62</v>
@@ -14245,7 +14272,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14991,7 +15018,7 @@
         <v>135</v>
       </c>
       <c r="P69" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q69">
         <v>2.8</v>
@@ -15072,7 +15099,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ69">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR69">
         <v>1.89</v>
@@ -15197,7 +15224,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15275,7 +15302,7 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ70">
         <v>1.75</v>
@@ -15403,7 +15430,7 @@
         <v>87</v>
       </c>
       <c r="P71" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15609,7 +15636,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q72">
         <v>3.3</v>
@@ -15972,6 +15999,1242 @@
       </c>
       <c r="BP73">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7781716</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45801.41666666666</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>80</v>
+      </c>
+      <c r="H74" t="s">
+        <v>77</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>4</v>
+      </c>
+      <c r="O74" t="s">
+        <v>138</v>
+      </c>
+      <c r="P74" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q74">
+        <v>2.63</v>
+      </c>
+      <c r="R74">
+        <v>2.17</v>
+      </c>
+      <c r="S74">
+        <v>3.8</v>
+      </c>
+      <c r="T74">
+        <v>1.38</v>
+      </c>
+      <c r="U74">
+        <v>2.8</v>
+      </c>
+      <c r="V74">
+        <v>2.8</v>
+      </c>
+      <c r="W74">
+        <v>1.41</v>
+      </c>
+      <c r="X74">
+        <v>6.75</v>
+      </c>
+      <c r="Y74">
+        <v>1.07</v>
+      </c>
+      <c r="Z74">
+        <v>1.9</v>
+      </c>
+      <c r="AA74">
+        <v>3.41</v>
+      </c>
+      <c r="AB74">
+        <v>3.32</v>
+      </c>
+      <c r="AC74">
+        <v>1.06</v>
+      </c>
+      <c r="AD74">
+        <v>9.5</v>
+      </c>
+      <c r="AE74">
+        <v>1.3</v>
+      </c>
+      <c r="AF74">
+        <v>3.5</v>
+      </c>
+      <c r="AG74">
+        <v>1.89</v>
+      </c>
+      <c r="AH74">
+        <v>1.81</v>
+      </c>
+      <c r="AI74">
+        <v>1.72</v>
+      </c>
+      <c r="AJ74">
+        <v>1.93</v>
+      </c>
+      <c r="AK74">
+        <v>1.28</v>
+      </c>
+      <c r="AL74">
+        <v>1.22</v>
+      </c>
+      <c r="AM74">
+        <v>1.77</v>
+      </c>
+      <c r="AN74">
+        <v>1.25</v>
+      </c>
+      <c r="AO74">
+        <v>0.2</v>
+      </c>
+      <c r="AP74">
+        <v>1.6</v>
+      </c>
+      <c r="AQ74">
+        <v>0.17</v>
+      </c>
+      <c r="AR74">
+        <v>1.6</v>
+      </c>
+      <c r="AS74">
+        <v>1.88</v>
+      </c>
+      <c r="AT74">
+        <v>3.48</v>
+      </c>
+      <c r="AU74">
+        <v>10</v>
+      </c>
+      <c r="AV74">
+        <v>10</v>
+      </c>
+      <c r="AW74">
+        <v>7</v>
+      </c>
+      <c r="AX74">
+        <v>2</v>
+      </c>
+      <c r="AY74">
+        <v>17</v>
+      </c>
+      <c r="AZ74">
+        <v>12</v>
+      </c>
+      <c r="BA74">
+        <v>4</v>
+      </c>
+      <c r="BB74">
+        <v>6</v>
+      </c>
+      <c r="BC74">
+        <v>10</v>
+      </c>
+      <c r="BD74">
+        <v>1.72</v>
+      </c>
+      <c r="BE74">
+        <v>6.75</v>
+      </c>
+      <c r="BF74">
+        <v>2.33</v>
+      </c>
+      <c r="BG74">
+        <v>1.23</v>
+      </c>
+      <c r="BH74">
+        <v>3.65</v>
+      </c>
+      <c r="BI74">
+        <v>1.41</v>
+      </c>
+      <c r="BJ74">
+        <v>2.65</v>
+      </c>
+      <c r="BK74">
+        <v>1.67</v>
+      </c>
+      <c r="BL74">
+        <v>2.07</v>
+      </c>
+      <c r="BM74">
+        <v>2.05</v>
+      </c>
+      <c r="BN74">
+        <v>1.68</v>
+      </c>
+      <c r="BO74">
+        <v>2.55</v>
+      </c>
+      <c r="BP74">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7781715</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45802.41666666666</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>83</v>
+      </c>
+      <c r="H75" t="s">
+        <v>81</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
+        <v>87</v>
+      </c>
+      <c r="P75" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q75">
+        <v>3.5</v>
+      </c>
+      <c r="R75">
+        <v>2.2</v>
+      </c>
+      <c r="S75">
+        <v>2.62</v>
+      </c>
+      <c r="T75">
+        <v>1.33</v>
+      </c>
+      <c r="U75">
+        <v>3.1</v>
+      </c>
+      <c r="V75">
+        <v>2.45</v>
+      </c>
+      <c r="W75">
+        <v>1.48</v>
+      </c>
+      <c r="X75">
+        <v>5.6</v>
+      </c>
+      <c r="Y75">
+        <v>1.08</v>
+      </c>
+      <c r="Z75">
+        <v>2.95</v>
+      </c>
+      <c r="AA75">
+        <v>3.52</v>
+      </c>
+      <c r="AB75">
+        <v>2.02</v>
+      </c>
+      <c r="AC75">
+        <v>1.04</v>
+      </c>
+      <c r="AD75">
+        <v>11</v>
+      </c>
+      <c r="AE75">
+        <v>1.22</v>
+      </c>
+      <c r="AF75">
+        <v>4.2</v>
+      </c>
+      <c r="AG75">
+        <v>1.7</v>
+      </c>
+      <c r="AH75">
+        <v>2.02</v>
+      </c>
+      <c r="AI75">
+        <v>1.57</v>
+      </c>
+      <c r="AJ75">
+        <v>2.2</v>
+      </c>
+      <c r="AK75">
+        <v>1.7</v>
+      </c>
+      <c r="AL75">
+        <v>1.22</v>
+      </c>
+      <c r="AM75">
+        <v>1.35</v>
+      </c>
+      <c r="AN75">
+        <v>3</v>
+      </c>
+      <c r="AO75">
+        <v>1.8</v>
+      </c>
+      <c r="AP75">
+        <v>2.6</v>
+      </c>
+      <c r="AQ75">
+        <v>1.67</v>
+      </c>
+      <c r="AR75">
+        <v>1.79</v>
+      </c>
+      <c r="AS75">
+        <v>1.64</v>
+      </c>
+      <c r="AT75">
+        <v>3.43</v>
+      </c>
+      <c r="AU75">
+        <v>2</v>
+      </c>
+      <c r="AV75">
+        <v>2</v>
+      </c>
+      <c r="AW75">
+        <v>9</v>
+      </c>
+      <c r="AX75">
+        <v>4</v>
+      </c>
+      <c r="AY75">
+        <v>11</v>
+      </c>
+      <c r="AZ75">
+        <v>6</v>
+      </c>
+      <c r="BA75">
+        <v>6</v>
+      </c>
+      <c r="BB75">
+        <v>8</v>
+      </c>
+      <c r="BC75">
+        <v>14</v>
+      </c>
+      <c r="BD75">
+        <v>2.3</v>
+      </c>
+      <c r="BE75">
+        <v>7</v>
+      </c>
+      <c r="BF75">
+        <v>1.73</v>
+      </c>
+      <c r="BG75">
+        <v>1.19</v>
+      </c>
+      <c r="BH75">
+        <v>4.1</v>
+      </c>
+      <c r="BI75">
+        <v>1.34</v>
+      </c>
+      <c r="BJ75">
+        <v>2.9</v>
+      </c>
+      <c r="BK75">
+        <v>1.55</v>
+      </c>
+      <c r="BL75">
+        <v>2.25</v>
+      </c>
+      <c r="BM75">
+        <v>1.88</v>
+      </c>
+      <c r="BN75">
+        <v>1.81</v>
+      </c>
+      <c r="BO75">
+        <v>2.33</v>
+      </c>
+      <c r="BP75">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7781709</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45803.58333333334</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>84</v>
+      </c>
+      <c r="H76" t="s">
+        <v>78</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>4</v>
+      </c>
+      <c r="O76" t="s">
+        <v>139</v>
+      </c>
+      <c r="P76" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q76">
+        <v>2.35</v>
+      </c>
+      <c r="R76">
+        <v>2.2</v>
+      </c>
+      <c r="S76">
+        <v>4.2</v>
+      </c>
+      <c r="T76">
+        <v>1.35</v>
+      </c>
+      <c r="U76">
+        <v>2.95</v>
+      </c>
+      <c r="V76">
+        <v>2.65</v>
+      </c>
+      <c r="W76">
+        <v>1.42</v>
+      </c>
+      <c r="X76">
+        <v>6.55</v>
+      </c>
+      <c r="Y76">
+        <v>1.05</v>
+      </c>
+      <c r="Z76">
+        <v>1.75</v>
+      </c>
+      <c r="AA76">
+        <v>3.51</v>
+      </c>
+      <c r="AB76">
+        <v>3.8</v>
+      </c>
+      <c r="AC76">
+        <v>1.05</v>
+      </c>
+      <c r="AD76">
+        <v>10</v>
+      </c>
+      <c r="AE76">
+        <v>1.28</v>
+      </c>
+      <c r="AF76">
+        <v>3.65</v>
+      </c>
+      <c r="AG76">
+        <v>1.82</v>
+      </c>
+      <c r="AH76">
+        <v>1.88</v>
+      </c>
+      <c r="AI76">
+        <v>1.75</v>
+      </c>
+      <c r="AJ76">
+        <v>1.93</v>
+      </c>
+      <c r="AK76">
+        <v>1.22</v>
+      </c>
+      <c r="AL76">
+        <v>1.22</v>
+      </c>
+      <c r="AM76">
+        <v>1.95</v>
+      </c>
+      <c r="AN76">
+        <v>0.25</v>
+      </c>
+      <c r="AO76">
+        <v>1</v>
+      </c>
+      <c r="AP76">
+        <v>0.4</v>
+      </c>
+      <c r="AQ76">
+        <v>1</v>
+      </c>
+      <c r="AR76">
+        <v>2.03</v>
+      </c>
+      <c r="AS76">
+        <v>1.74</v>
+      </c>
+      <c r="AT76">
+        <v>3.77</v>
+      </c>
+      <c r="AU76">
+        <v>9</v>
+      </c>
+      <c r="AV76">
+        <v>7</v>
+      </c>
+      <c r="AW76">
+        <v>9</v>
+      </c>
+      <c r="AX76">
+        <v>2</v>
+      </c>
+      <c r="AY76">
+        <v>18</v>
+      </c>
+      <c r="AZ76">
+        <v>9</v>
+      </c>
+      <c r="BA76">
+        <v>8</v>
+      </c>
+      <c r="BB76">
+        <v>1</v>
+      </c>
+      <c r="BC76">
+        <v>9</v>
+      </c>
+      <c r="BD76">
+        <v>1.5</v>
+      </c>
+      <c r="BE76">
+        <v>7</v>
+      </c>
+      <c r="BF76">
+        <v>2.8</v>
+      </c>
+      <c r="BG76">
+        <v>1.18</v>
+      </c>
+      <c r="BH76">
+        <v>4.1</v>
+      </c>
+      <c r="BI76">
+        <v>1.32</v>
+      </c>
+      <c r="BJ76">
+        <v>3</v>
+      </c>
+      <c r="BK76">
+        <v>1.54</v>
+      </c>
+      <c r="BL76">
+        <v>2.3</v>
+      </c>
+      <c r="BM76">
+        <v>1.85</v>
+      </c>
+      <c r="BN76">
+        <v>1.83</v>
+      </c>
+      <c r="BO76">
+        <v>2.3</v>
+      </c>
+      <c r="BP76">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7781710</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45803.58333333334</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>76</v>
+      </c>
+      <c r="H77" t="s">
+        <v>85</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
+      <c r="K77">
+        <v>4</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>5</v>
+      </c>
+      <c r="N77">
+        <v>6</v>
+      </c>
+      <c r="O77" t="s">
+        <v>140</v>
+      </c>
+      <c r="P77" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q77">
+        <v>3.6</v>
+      </c>
+      <c r="R77">
+        <v>2.1</v>
+      </c>
+      <c r="S77">
+        <v>2.75</v>
+      </c>
+      <c r="T77">
+        <v>1.4</v>
+      </c>
+      <c r="U77">
+        <v>2.75</v>
+      </c>
+      <c r="V77">
+        <v>2.88</v>
+      </c>
+      <c r="W77">
+        <v>1.36</v>
+      </c>
+      <c r="X77">
+        <v>7.6</v>
+      </c>
+      <c r="Y77">
+        <v>1.03</v>
+      </c>
+      <c r="Z77">
+        <v>3.02</v>
+      </c>
+      <c r="AA77">
+        <v>3.26</v>
+      </c>
+      <c r="AB77">
+        <v>2.08</v>
+      </c>
+      <c r="AC77">
+        <v>1.06</v>
+      </c>
+      <c r="AD77">
+        <v>9</v>
+      </c>
+      <c r="AE77">
+        <v>1.33</v>
+      </c>
+      <c r="AF77">
+        <v>3.35</v>
+      </c>
+      <c r="AG77">
+        <v>1.95</v>
+      </c>
+      <c r="AH77">
+        <v>1.75</v>
+      </c>
+      <c r="AI77">
+        <v>1.77</v>
+      </c>
+      <c r="AJ77">
+        <v>1.91</v>
+      </c>
+      <c r="AK77">
+        <v>1.67</v>
+      </c>
+      <c r="AL77">
+        <v>1.25</v>
+      </c>
+      <c r="AM77">
+        <v>1.35</v>
+      </c>
+      <c r="AN77">
+        <v>1.5</v>
+      </c>
+      <c r="AO77">
+        <v>1.4</v>
+      </c>
+      <c r="AP77">
+        <v>1.2</v>
+      </c>
+      <c r="AQ77">
+        <v>1.67</v>
+      </c>
+      <c r="AR77">
+        <v>1.47</v>
+      </c>
+      <c r="AS77">
+        <v>1.99</v>
+      </c>
+      <c r="AT77">
+        <v>3.46</v>
+      </c>
+      <c r="AU77">
+        <v>5</v>
+      </c>
+      <c r="AV77">
+        <v>8</v>
+      </c>
+      <c r="AW77">
+        <v>4</v>
+      </c>
+      <c r="AX77">
+        <v>6</v>
+      </c>
+      <c r="AY77">
+        <v>9</v>
+      </c>
+      <c r="AZ77">
+        <v>14</v>
+      </c>
+      <c r="BA77">
+        <v>2</v>
+      </c>
+      <c r="BB77">
+        <v>3</v>
+      </c>
+      <c r="BC77">
+        <v>5</v>
+      </c>
+      <c r="BD77">
+        <v>2.18</v>
+      </c>
+      <c r="BE77">
+        <v>6.75</v>
+      </c>
+      <c r="BF77">
+        <v>1.81</v>
+      </c>
+      <c r="BG77">
+        <v>1.2</v>
+      </c>
+      <c r="BH77">
+        <v>3.95</v>
+      </c>
+      <c r="BI77">
+        <v>1.36</v>
+      </c>
+      <c r="BJ77">
+        <v>2.85</v>
+      </c>
+      <c r="BK77">
+        <v>1.58</v>
+      </c>
+      <c r="BL77">
+        <v>2.18</v>
+      </c>
+      <c r="BM77">
+        <v>1.92</v>
+      </c>
+      <c r="BN77">
+        <v>1.77</v>
+      </c>
+      <c r="BO77">
+        <v>2.4</v>
+      </c>
+      <c r="BP77">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7781711</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45803.58333333334</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s">
+        <v>73</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78" t="s">
+        <v>87</v>
+      </c>
+      <c r="P78" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q78">
+        <v>2.25</v>
+      </c>
+      <c r="R78">
+        <v>2.25</v>
+      </c>
+      <c r="S78">
+        <v>4.33</v>
+      </c>
+      <c r="T78">
+        <v>1.33</v>
+      </c>
+      <c r="U78">
+        <v>3.1</v>
+      </c>
+      <c r="V78">
+        <v>2.5</v>
+      </c>
+      <c r="W78">
+        <v>1.48</v>
+      </c>
+      <c r="X78">
+        <v>6.35</v>
+      </c>
+      <c r="Y78">
+        <v>1.06</v>
+      </c>
+      <c r="Z78">
+        <v>1.7</v>
+      </c>
+      <c r="AA78">
+        <v>3.61</v>
+      </c>
+      <c r="AB78">
+        <v>3.96</v>
+      </c>
+      <c r="AC78">
+        <v>1.05</v>
+      </c>
+      <c r="AD78">
+        <v>10</v>
+      </c>
+      <c r="AE78">
+        <v>1.25</v>
+      </c>
+      <c r="AF78">
+        <v>3.95</v>
+      </c>
+      <c r="AG78">
+        <v>1.74</v>
+      </c>
+      <c r="AH78">
+        <v>1.96</v>
+      </c>
+      <c r="AI78">
+        <v>1.7</v>
+      </c>
+      <c r="AJ78">
+        <v>2</v>
+      </c>
+      <c r="AK78">
+        <v>1.2</v>
+      </c>
+      <c r="AL78">
+        <v>1.2</v>
+      </c>
+      <c r="AM78">
+        <v>2</v>
+      </c>
+      <c r="AN78">
+        <v>1.8</v>
+      </c>
+      <c r="AO78">
+        <v>1</v>
+      </c>
+      <c r="AP78">
+        <v>1.5</v>
+      </c>
+      <c r="AQ78">
+        <v>1.4</v>
+      </c>
+      <c r="AR78">
+        <v>1.9</v>
+      </c>
+      <c r="AS78">
+        <v>1.72</v>
+      </c>
+      <c r="AT78">
+        <v>3.62</v>
+      </c>
+      <c r="AU78">
+        <v>4</v>
+      </c>
+      <c r="AV78">
+        <v>9</v>
+      </c>
+      <c r="AW78">
+        <v>11</v>
+      </c>
+      <c r="AX78">
+        <v>6</v>
+      </c>
+      <c r="AY78">
+        <v>15</v>
+      </c>
+      <c r="AZ78">
+        <v>15</v>
+      </c>
+      <c r="BA78">
+        <v>9</v>
+      </c>
+      <c r="BB78">
+        <v>7</v>
+      </c>
+      <c r="BC78">
+        <v>16</v>
+      </c>
+      <c r="BD78">
+        <v>1.52</v>
+      </c>
+      <c r="BE78">
+        <v>7</v>
+      </c>
+      <c r="BF78">
+        <v>2.7</v>
+      </c>
+      <c r="BG78">
+        <v>1.2</v>
+      </c>
+      <c r="BH78">
+        <v>3.95</v>
+      </c>
+      <c r="BI78">
+        <v>1.36</v>
+      </c>
+      <c r="BJ78">
+        <v>2.8</v>
+      </c>
+      <c r="BK78">
+        <v>1.58</v>
+      </c>
+      <c r="BL78">
+        <v>2.18</v>
+      </c>
+      <c r="BM78">
+        <v>1.93</v>
+      </c>
+      <c r="BN78">
+        <v>1.77</v>
+      </c>
+      <c r="BO78">
+        <v>2.4</v>
+      </c>
+      <c r="BP78">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7781714</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45803.58333333334</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>82</v>
+      </c>
+      <c r="H79" t="s">
+        <v>72</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>3</v>
+      </c>
+      <c r="L79">
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <v>3</v>
+      </c>
+      <c r="N79">
+        <v>6</v>
+      </c>
+      <c r="O79" t="s">
+        <v>141</v>
+      </c>
+      <c r="P79" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q79">
+        <v>3.5</v>
+      </c>
+      <c r="R79">
+        <v>2.2</v>
+      </c>
+      <c r="S79">
+        <v>2.6</v>
+      </c>
+      <c r="T79">
+        <v>1.3</v>
+      </c>
+      <c r="U79">
+        <v>3.2</v>
+      </c>
+      <c r="V79">
+        <v>2.45</v>
+      </c>
+      <c r="W79">
+        <v>1.48</v>
+      </c>
+      <c r="X79">
+        <v>5.75</v>
+      </c>
+      <c r="Y79">
+        <v>1.07</v>
+      </c>
+      <c r="Z79">
+        <v>2.68</v>
+      </c>
+      <c r="AA79">
+        <v>3.45</v>
+      </c>
+      <c r="AB79">
+        <v>2.2</v>
+      </c>
+      <c r="AC79">
+        <v>1.04</v>
+      </c>
+      <c r="AD79">
+        <v>11</v>
+      </c>
+      <c r="AE79">
+        <v>1.22</v>
+      </c>
+      <c r="AF79">
+        <v>4.2</v>
+      </c>
+      <c r="AG79">
+        <v>1.61</v>
+      </c>
+      <c r="AH79">
+        <v>2.05</v>
+      </c>
+      <c r="AI79">
+        <v>1.57</v>
+      </c>
+      <c r="AJ79">
+        <v>2.2</v>
+      </c>
+      <c r="AK79">
+        <v>1.7</v>
+      </c>
+      <c r="AL79">
+        <v>1.22</v>
+      </c>
+      <c r="AM79">
+        <v>1.35</v>
+      </c>
+      <c r="AN79">
+        <v>0.2</v>
+      </c>
+      <c r="AO79">
+        <v>0.67</v>
+      </c>
+      <c r="AP79">
+        <v>0.33</v>
+      </c>
+      <c r="AQ79">
+        <v>0.75</v>
+      </c>
+      <c r="AR79">
+        <v>1.45</v>
+      </c>
+      <c r="AS79">
+        <v>1.55</v>
+      </c>
+      <c r="AT79">
+        <v>3</v>
+      </c>
+      <c r="AU79">
+        <v>6</v>
+      </c>
+      <c r="AV79">
+        <v>9</v>
+      </c>
+      <c r="AW79">
+        <v>10</v>
+      </c>
+      <c r="AX79">
+        <v>4</v>
+      </c>
+      <c r="AY79">
+        <v>16</v>
+      </c>
+      <c r="AZ79">
+        <v>13</v>
+      </c>
+      <c r="BA79">
+        <v>3</v>
+      </c>
+      <c r="BB79">
+        <v>3</v>
+      </c>
+      <c r="BC79">
+        <v>6</v>
+      </c>
+      <c r="BD79">
+        <v>1.93</v>
+      </c>
+      <c r="BE79">
+        <v>6.75</v>
+      </c>
+      <c r="BF79">
+        <v>2.05</v>
+      </c>
+      <c r="BG79">
+        <v>1.21</v>
+      </c>
+      <c r="BH79">
+        <v>3.8</v>
+      </c>
+      <c r="BI79">
+        <v>1.38</v>
+      </c>
+      <c r="BJ79">
+        <v>2.8</v>
+      </c>
+      <c r="BK79">
+        <v>1.61</v>
+      </c>
+      <c r="BL79">
+        <v>2.15</v>
+      </c>
+      <c r="BM79">
+        <v>1.98</v>
+      </c>
+      <c r="BN79">
+        <v>1.73</v>
+      </c>
+      <c r="BO79">
+        <v>2.48</v>
+      </c>
+      <c r="BP79">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -957,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3">
         <v>1.67</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ7">
         <v>1.4</v>
@@ -3563,7 +3563,7 @@
         <v>3</v>
       </c>
       <c r="AQ13">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19">
         <v>0.8</v>
@@ -5211,7 +5211,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ21">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>1.91</v>
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -8095,7 +8095,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ35">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>1.03</v>
@@ -8710,7 +8710,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ38">
         <v>1.6</v>
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ42">
         <v>2.6</v>
@@ -11182,7 +11182,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ50">
         <v>0</v>
@@ -13242,7 +13242,7 @@
         <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ60">
         <v>1.67</v>
@@ -13657,7 +13657,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ62">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR62">
         <v>1.35</v>
@@ -17235,6 +17235,418 @@
       </c>
       <c r="BP79">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7781712</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45804.58333333334</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>71</v>
+      </c>
+      <c r="H80" t="s">
+        <v>70</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80" t="s">
+        <v>87</v>
+      </c>
+      <c r="P80" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q80">
+        <v>2.1</v>
+      </c>
+      <c r="R80">
+        <v>2.3</v>
+      </c>
+      <c r="S80">
+        <v>4.75</v>
+      </c>
+      <c r="T80">
+        <v>1.3</v>
+      </c>
+      <c r="U80">
+        <v>3.2</v>
+      </c>
+      <c r="V80">
+        <v>2.4</v>
+      </c>
+      <c r="W80">
+        <v>1.5</v>
+      </c>
+      <c r="X80">
+        <v>5.6</v>
+      </c>
+      <c r="Y80">
+        <v>1.08</v>
+      </c>
+      <c r="Z80">
+        <v>1.58</v>
+      </c>
+      <c r="AA80">
+        <v>3.83</v>
+      </c>
+      <c r="AB80">
+        <v>4.4</v>
+      </c>
+      <c r="AC80">
+        <v>1.04</v>
+      </c>
+      <c r="AD80">
+        <v>11</v>
+      </c>
+      <c r="AE80">
+        <v>1.22</v>
+      </c>
+      <c r="AF80">
+        <v>4.33</v>
+      </c>
+      <c r="AG80">
+        <v>1.65</v>
+      </c>
+      <c r="AH80">
+        <v>2.1</v>
+      </c>
+      <c r="AI80">
+        <v>1.65</v>
+      </c>
+      <c r="AJ80">
+        <v>2.05</v>
+      </c>
+      <c r="AK80">
+        <v>1.18</v>
+      </c>
+      <c r="AL80">
+        <v>1.2</v>
+      </c>
+      <c r="AM80">
+        <v>2.2</v>
+      </c>
+      <c r="AN80">
+        <v>1.75</v>
+      </c>
+      <c r="AO80">
+        <v>1.75</v>
+      </c>
+      <c r="AP80">
+        <v>1.4</v>
+      </c>
+      <c r="AQ80">
+        <v>2</v>
+      </c>
+      <c r="AR80">
+        <v>2</v>
+      </c>
+      <c r="AS80">
+        <v>1.23</v>
+      </c>
+      <c r="AT80">
+        <v>3.23</v>
+      </c>
+      <c r="AU80">
+        <v>5</v>
+      </c>
+      <c r="AV80">
+        <v>3</v>
+      </c>
+      <c r="AW80">
+        <v>4</v>
+      </c>
+      <c r="AX80">
+        <v>3</v>
+      </c>
+      <c r="AY80">
+        <v>9</v>
+      </c>
+      <c r="AZ80">
+        <v>6</v>
+      </c>
+      <c r="BA80">
+        <v>8</v>
+      </c>
+      <c r="BB80">
+        <v>0</v>
+      </c>
+      <c r="BC80">
+        <v>8</v>
+      </c>
+      <c r="BD80">
+        <v>1.45</v>
+      </c>
+      <c r="BE80">
+        <v>7.5</v>
+      </c>
+      <c r="BF80">
+        <v>2.95</v>
+      </c>
+      <c r="BG80">
+        <v>1.17</v>
+      </c>
+      <c r="BH80">
+        <v>4.35</v>
+      </c>
+      <c r="BI80">
+        <v>1.3</v>
+      </c>
+      <c r="BJ80">
+        <v>3.15</v>
+      </c>
+      <c r="BK80">
+        <v>1.49</v>
+      </c>
+      <c r="BL80">
+        <v>2.4</v>
+      </c>
+      <c r="BM80">
+        <v>1.77</v>
+      </c>
+      <c r="BN80">
+        <v>1.93</v>
+      </c>
+      <c r="BO80">
+        <v>2.17</v>
+      </c>
+      <c r="BP80">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7781713</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45804.58333333334</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>75</v>
+      </c>
+      <c r="H81" t="s">
+        <v>79</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81" t="s">
+        <v>87</v>
+      </c>
+      <c r="P81" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q81">
+        <v>2.85</v>
+      </c>
+      <c r="R81">
+        <v>2.15</v>
+      </c>
+      <c r="S81">
+        <v>3.3</v>
+      </c>
+      <c r="T81">
+        <v>1.35</v>
+      </c>
+      <c r="U81">
+        <v>2.95</v>
+      </c>
+      <c r="V81">
+        <v>2.62</v>
+      </c>
+      <c r="W81">
+        <v>1.42</v>
+      </c>
+      <c r="X81">
+        <v>6.15</v>
+      </c>
+      <c r="Y81">
+        <v>1.06</v>
+      </c>
+      <c r="Z81">
+        <v>2.22</v>
+      </c>
+      <c r="AA81">
+        <v>3.39</v>
+      </c>
+      <c r="AB81">
+        <v>2.67</v>
+      </c>
+      <c r="AC81">
+        <v>1.05</v>
+      </c>
+      <c r="AD81">
+        <v>10</v>
+      </c>
+      <c r="AE81">
+        <v>1.25</v>
+      </c>
+      <c r="AF81">
+        <v>3.85</v>
+      </c>
+      <c r="AG81">
+        <v>1.76</v>
+      </c>
+      <c r="AH81">
+        <v>1.94</v>
+      </c>
+      <c r="AI81">
+        <v>1.62</v>
+      </c>
+      <c r="AJ81">
+        <v>2.1</v>
+      </c>
+      <c r="AK81">
+        <v>1.42</v>
+      </c>
+      <c r="AL81">
+        <v>1.25</v>
+      </c>
+      <c r="AM81">
+        <v>1.57</v>
+      </c>
+      <c r="AN81">
+        <v>0.75</v>
+      </c>
+      <c r="AO81">
+        <v>1</v>
+      </c>
+      <c r="AP81">
+        <v>0.8</v>
+      </c>
+      <c r="AQ81">
+        <v>1</v>
+      </c>
+      <c r="AR81">
+        <v>1.88</v>
+      </c>
+      <c r="AS81">
+        <v>1.31</v>
+      </c>
+      <c r="AT81">
+        <v>3.19</v>
+      </c>
+      <c r="AU81">
+        <v>5</v>
+      </c>
+      <c r="AV81">
+        <v>4</v>
+      </c>
+      <c r="AW81">
+        <v>9</v>
+      </c>
+      <c r="AX81">
+        <v>5</v>
+      </c>
+      <c r="AY81">
+        <v>14</v>
+      </c>
+      <c r="AZ81">
+        <v>9</v>
+      </c>
+      <c r="BA81">
+        <v>2</v>
+      </c>
+      <c r="BB81">
+        <v>1</v>
+      </c>
+      <c r="BC81">
+        <v>3</v>
+      </c>
+      <c r="BD81">
+        <v>1.58</v>
+      </c>
+      <c r="BE81">
+        <v>7</v>
+      </c>
+      <c r="BF81">
+        <v>2.55</v>
+      </c>
+      <c r="BG81">
+        <v>1.22</v>
+      </c>
+      <c r="BH81">
+        <v>3.8</v>
+      </c>
+      <c r="BI81">
+        <v>1.38</v>
+      </c>
+      <c r="BJ81">
+        <v>2.8</v>
+      </c>
+      <c r="BK81">
+        <v>1.61</v>
+      </c>
+      <c r="BL81">
+        <v>2.15</v>
+      </c>
+      <c r="BM81">
+        <v>1.96</v>
+      </c>
+      <c r="BN81">
+        <v>1.74</v>
+      </c>
+      <c r="BO81">
+        <v>2.43</v>
+      </c>
+      <c r="BP81">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="196">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,9 @@
     <t>['38', '43', '83']</t>
   </si>
   <si>
+    <t>['6', '27', '85']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -596,6 +599,9 @@
   </si>
   <si>
     <t>['11', '66', '72']</t>
+  </si>
+  <si>
+    <t>['69', '75', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -957,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1628,7 +1634,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1834,7 +1840,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2040,7 +2046,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2121,7 +2127,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2246,7 +2252,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2658,7 +2664,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2736,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ9">
         <v>1.67</v>
@@ -2864,7 +2870,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3070,7 +3076,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3276,7 +3282,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3688,7 +3694,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3894,7 +3900,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -4100,7 +4106,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4512,7 +4518,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4924,7 +4930,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -5336,7 +5342,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5954,7 +5960,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -6032,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6160,7 +6166,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6572,7 +6578,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6778,7 +6784,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6859,7 +6865,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR29">
         <v>1.8</v>
@@ -6984,7 +6990,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -7808,7 +7814,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>2.92</v>
@@ -8014,7 +8020,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>2.46</v>
@@ -8426,7 +8432,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q37">
         <v>3.16</v>
@@ -8632,7 +8638,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q38">
         <v>2.81</v>
@@ -8838,7 +8844,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q39">
         <v>3.58</v>
@@ -8919,7 +8925,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR39">
         <v>1.39</v>
@@ -9044,7 +9050,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9250,7 +9256,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9456,7 +9462,7 @@
         <v>87</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9662,7 +9668,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q43">
         <v>3.1</v>
@@ -9868,7 +9874,7 @@
         <v>87</v>
       </c>
       <c r="P44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10280,7 +10286,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>2.55</v>
@@ -10486,7 +10492,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>2.5</v>
@@ -10770,7 +10776,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ48">
         <v>0.8</v>
@@ -10898,7 +10904,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11104,7 +11110,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11310,7 +11316,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11516,7 +11522,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11722,7 +11728,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11928,7 +11934,7 @@
         <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>3.25</v>
@@ -12340,7 +12346,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q56">
         <v>2.38</v>
@@ -12627,7 +12633,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR57">
         <v>1.42</v>
@@ -13370,7 +13376,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13576,7 +13582,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13654,7 +13660,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ62">
         <v>2</v>
@@ -13782,7 +13788,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q63">
         <v>2.9</v>
@@ -13988,7 +13994,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q64">
         <v>2.8</v>
@@ -14194,7 +14200,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>2.62</v>
@@ -15018,7 +15024,7 @@
         <v>135</v>
       </c>
       <c r="P69" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q69">
         <v>2.8</v>
@@ -15224,7 +15230,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15430,7 +15436,7 @@
         <v>87</v>
       </c>
       <c r="P71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15636,7 +15642,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q72">
         <v>3.3</v>
@@ -15717,7 +15723,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ72">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR72">
         <v>1.67</v>
@@ -16048,7 +16054,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16460,7 +16466,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q76">
         <v>2.35</v>
@@ -16666,7 +16672,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -16872,7 +16878,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q78">
         <v>2.25</v>
@@ -17078,7 +17084,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17284,7 +17290,7 @@
         <v>87</v>
       </c>
       <c r="P80" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q80">
         <v>2.1</v>
@@ -17647,6 +17653,212 @@
       </c>
       <c r="BP81">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7781723</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45807.58333333334</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>77</v>
+      </c>
+      <c r="H82" t="s">
+        <v>84</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <v>3</v>
+      </c>
+      <c r="N82">
+        <v>6</v>
+      </c>
+      <c r="O82" t="s">
+        <v>142</v>
+      </c>
+      <c r="P82" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q82">
+        <v>2.9</v>
+      </c>
+      <c r="R82">
+        <v>2.1</v>
+      </c>
+      <c r="S82">
+        <v>3.45</v>
+      </c>
+      <c r="T82">
+        <v>1.42</v>
+      </c>
+      <c r="U82">
+        <v>2.75</v>
+      </c>
+      <c r="V82">
+        <v>2.9</v>
+      </c>
+      <c r="W82">
+        <v>1.36</v>
+      </c>
+      <c r="X82">
+        <v>7</v>
+      </c>
+      <c r="Y82">
+        <v>1.06</v>
+      </c>
+      <c r="Z82">
+        <v>2.33</v>
+      </c>
+      <c r="AA82">
+        <v>3.23</v>
+      </c>
+      <c r="AB82">
+        <v>2.62</v>
+      </c>
+      <c r="AC82">
+        <v>1.02</v>
+      </c>
+      <c r="AD82">
+        <v>10</v>
+      </c>
+      <c r="AE82">
+        <v>1.29</v>
+      </c>
+      <c r="AF82">
+        <v>3.25</v>
+      </c>
+      <c r="AG82">
+        <v>2</v>
+      </c>
+      <c r="AH82">
+        <v>1.72</v>
+      </c>
+      <c r="AI82">
+        <v>1.75</v>
+      </c>
+      <c r="AJ82">
+        <v>1.89</v>
+      </c>
+      <c r="AK82">
+        <v>1.4</v>
+      </c>
+      <c r="AL82">
+        <v>1.28</v>
+      </c>
+      <c r="AM82">
+        <v>1.53</v>
+      </c>
+      <c r="AN82">
+        <v>0.25</v>
+      </c>
+      <c r="AO82">
+        <v>2</v>
+      </c>
+      <c r="AP82">
+        <v>0.4</v>
+      </c>
+      <c r="AQ82">
+        <v>1.83</v>
+      </c>
+      <c r="AR82">
+        <v>1.54</v>
+      </c>
+      <c r="AS82">
+        <v>1.44</v>
+      </c>
+      <c r="AT82">
+        <v>2.98</v>
+      </c>
+      <c r="AU82">
+        <v>5</v>
+      </c>
+      <c r="AV82">
+        <v>8</v>
+      </c>
+      <c r="AW82">
+        <v>5</v>
+      </c>
+      <c r="AX82">
+        <v>2</v>
+      </c>
+      <c r="AY82">
+        <v>10</v>
+      </c>
+      <c r="AZ82">
+        <v>10</v>
+      </c>
+      <c r="BA82">
+        <v>1</v>
+      </c>
+      <c r="BB82">
+        <v>6</v>
+      </c>
+      <c r="BC82">
+        <v>7</v>
+      </c>
+      <c r="BD82">
+        <v>1.58</v>
+      </c>
+      <c r="BE82">
+        <v>7</v>
+      </c>
+      <c r="BF82">
+        <v>2.55</v>
+      </c>
+      <c r="BG82">
+        <v>1.22</v>
+      </c>
+      <c r="BH82">
+        <v>3.8</v>
+      </c>
+      <c r="BI82">
+        <v>1.38</v>
+      </c>
+      <c r="BJ82">
+        <v>2.75</v>
+      </c>
+      <c r="BK82">
+        <v>1.63</v>
+      </c>
+      <c r="BL82">
+        <v>2.12</v>
+      </c>
+      <c r="BM82">
+        <v>1.98</v>
+      </c>
+      <c r="BN82">
+        <v>1.73</v>
+      </c>
+      <c r="BO82">
+        <v>2.48</v>
+      </c>
+      <c r="BP82">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,6 +445,12 @@
     <t>['6', '27', '85']</t>
   </si>
   <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['33', '53']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -602,6 +608,9 @@
   </si>
   <si>
     <t>['69', '75', '90+3']</t>
+  </si>
+  <si>
+    <t>['1', '45+4']</t>
   </si>
 </sst>
 </file>
@@ -963,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1509,7 +1518,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ3">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1634,7 +1643,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1840,7 +1849,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2046,7 +2055,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2252,7 +2261,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2539,7 +2548,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2664,7 +2673,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2870,7 +2879,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2948,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ10">
         <v>2.6</v>
@@ -3076,7 +3085,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3282,7 +3291,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3694,7 +3703,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3900,7 +3909,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -4106,7 +4115,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4390,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ17">
         <v>0.75</v>
@@ -4518,7 +4527,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4599,7 +4608,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ18">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR18">
         <v>0.99</v>
@@ -4930,7 +4939,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -5342,7 +5351,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5832,7 +5841,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ24">
         <v>1.4</v>
@@ -5960,7 +5969,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -6166,7 +6175,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6578,7 +6587,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6656,7 +6665,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ28">
         <v>0.8</v>
@@ -6784,7 +6793,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6990,7 +6999,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -7483,7 +7492,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR32">
         <v>1.92</v>
@@ -7814,7 +7823,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q34">
         <v>2.92</v>
@@ -8020,7 +8029,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q35">
         <v>2.46</v>
@@ -8432,7 +8441,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q37">
         <v>3.16</v>
@@ -8513,7 +8522,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ37">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR37">
         <v>1.64</v>
@@ -8638,7 +8647,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q38">
         <v>2.81</v>
@@ -8844,7 +8853,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>3.58</v>
@@ -9050,7 +9059,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9128,7 +9137,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ40">
         <v>1.67</v>
@@ -9256,7 +9265,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9462,7 +9471,7 @@
         <v>87</v>
       </c>
       <c r="P42" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9668,7 +9677,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q43">
         <v>3.1</v>
@@ -9874,7 +9883,7 @@
         <v>87</v>
       </c>
       <c r="P44" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10286,7 +10295,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>2.55</v>
@@ -10492,7 +10501,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q47">
         <v>2.5</v>
@@ -10904,7 +10913,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -10982,10 +10991,10 @@
         <v>2.33</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ49">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR49">
         <v>1.3</v>
@@ -11110,7 +11119,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11191,7 +11200,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR50">
         <v>1.75</v>
@@ -11316,7 +11325,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11522,7 +11531,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11728,7 +11737,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11806,7 +11815,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ53">
         <v>1.4</v>
@@ -11934,7 +11943,7 @@
         <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q54">
         <v>3.25</v>
@@ -12346,7 +12355,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q56">
         <v>2.38</v>
@@ -13045,7 +13054,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ59">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR59">
         <v>2.19</v>
@@ -13376,7 +13385,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13582,7 +13591,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13788,7 +13797,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q63">
         <v>2.9</v>
@@ -13994,7 +14003,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q64">
         <v>2.8</v>
@@ -14200,7 +14209,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q65">
         <v>2.62</v>
@@ -14896,7 +14905,7 @@
         <v>1.75</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ68">
         <v>1.4</v>
@@ -15024,7 +15033,7 @@
         <v>135</v>
       </c>
       <c r="P69" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>2.8</v>
@@ -15102,7 +15111,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ69">
         <v>0.17</v>
@@ -15230,7 +15239,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15436,7 +15445,7 @@
         <v>87</v>
       </c>
       <c r="P71" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15642,7 +15651,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q72">
         <v>3.3</v>
@@ -15929,7 +15938,7 @@
         <v>3</v>
       </c>
       <c r="AQ73">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR73">
         <v>1.9</v>
@@ -16054,7 +16063,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16341,7 +16350,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ75">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR75">
         <v>1.79</v>
@@ -16466,7 +16475,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>2.35</v>
@@ -16672,7 +16681,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -16878,7 +16887,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q78">
         <v>2.25</v>
@@ -17084,7 +17093,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17290,7 +17299,7 @@
         <v>87</v>
       </c>
       <c r="P80" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q80">
         <v>2.1</v>
@@ -17702,7 +17711,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q82">
         <v>2.9</v>
@@ -17859,6 +17868,418 @@
       </c>
       <c r="BP82">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7781721</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45808.33333333334</v>
+      </c>
+      <c r="F83">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H83" t="s">
+        <v>81</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83" t="s">
+        <v>143</v>
+      </c>
+      <c r="P83" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q83">
+        <v>4.3</v>
+      </c>
+      <c r="R83">
+        <v>2.33</v>
+      </c>
+      <c r="S83">
+        <v>2.25</v>
+      </c>
+      <c r="T83">
+        <v>1.32</v>
+      </c>
+      <c r="U83">
+        <v>3.2</v>
+      </c>
+      <c r="V83">
+        <v>2.5</v>
+      </c>
+      <c r="W83">
+        <v>1.49</v>
+      </c>
+      <c r="X83">
+        <v>5.8</v>
+      </c>
+      <c r="Y83">
+        <v>1.1</v>
+      </c>
+      <c r="Z83">
+        <v>3.93</v>
+      </c>
+      <c r="AA83">
+        <v>3.79</v>
+      </c>
+      <c r="AB83">
+        <v>1.66</v>
+      </c>
+      <c r="AC83">
+        <v>1.05</v>
+      </c>
+      <c r="AD83">
+        <v>10</v>
+      </c>
+      <c r="AE83">
+        <v>1.28</v>
+      </c>
+      <c r="AF83">
+        <v>3.8</v>
+      </c>
+      <c r="AG83">
+        <v>1.8</v>
+      </c>
+      <c r="AH83">
+        <v>1.9</v>
+      </c>
+      <c r="AI83">
+        <v>1.65</v>
+      </c>
+      <c r="AJ83">
+        <v>2.04</v>
+      </c>
+      <c r="AK83">
+        <v>2.1</v>
+      </c>
+      <c r="AL83">
+        <v>1.2</v>
+      </c>
+      <c r="AM83">
+        <v>1.18</v>
+      </c>
+      <c r="AN83">
+        <v>1.2</v>
+      </c>
+      <c r="AO83">
+        <v>1.67</v>
+      </c>
+      <c r="AP83">
+        <v>1.17</v>
+      </c>
+      <c r="AQ83">
+        <v>1.57</v>
+      </c>
+      <c r="AR83">
+        <v>1.95</v>
+      </c>
+      <c r="AS83">
+        <v>1.52</v>
+      </c>
+      <c r="AT83">
+        <v>3.47</v>
+      </c>
+      <c r="AU83">
+        <v>3</v>
+      </c>
+      <c r="AV83">
+        <v>5</v>
+      </c>
+      <c r="AW83">
+        <v>9</v>
+      </c>
+      <c r="AX83">
+        <v>4</v>
+      </c>
+      <c r="AY83">
+        <v>12</v>
+      </c>
+      <c r="AZ83">
+        <v>9</v>
+      </c>
+      <c r="BA83">
+        <v>3</v>
+      </c>
+      <c r="BB83">
+        <v>8</v>
+      </c>
+      <c r="BC83">
+        <v>11</v>
+      </c>
+      <c r="BD83">
+        <v>2.85</v>
+      </c>
+      <c r="BE83">
+        <v>7</v>
+      </c>
+      <c r="BF83">
+        <v>1.49</v>
+      </c>
+      <c r="BG83">
+        <v>1.2</v>
+      </c>
+      <c r="BH83">
+        <v>4</v>
+      </c>
+      <c r="BI83">
+        <v>1.35</v>
+      </c>
+      <c r="BJ83">
+        <v>2.9</v>
+      </c>
+      <c r="BK83">
+        <v>1.58</v>
+      </c>
+      <c r="BL83">
+        <v>2.2</v>
+      </c>
+      <c r="BM83">
+        <v>1.9</v>
+      </c>
+      <c r="BN83">
+        <v>1.79</v>
+      </c>
+      <c r="BO83">
+        <v>2.33</v>
+      </c>
+      <c r="BP83">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7781722</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45808.33333333334</v>
+      </c>
+      <c r="F84">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>85</v>
+      </c>
+      <c r="H84" t="s">
+        <v>82</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>2</v>
+      </c>
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>4</v>
+      </c>
+      <c r="O84" t="s">
+        <v>144</v>
+      </c>
+      <c r="P84" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q84">
+        <v>1.67</v>
+      </c>
+      <c r="R84">
+        <v>2.8</v>
+      </c>
+      <c r="S84">
+        <v>7</v>
+      </c>
+      <c r="T84">
+        <v>1.23</v>
+      </c>
+      <c r="U84">
+        <v>3.8</v>
+      </c>
+      <c r="V84">
+        <v>2.17</v>
+      </c>
+      <c r="W84">
+        <v>1.66</v>
+      </c>
+      <c r="X84">
+        <v>4.6</v>
+      </c>
+      <c r="Y84">
+        <v>1.16</v>
+      </c>
+      <c r="Z84">
+        <v>1.26</v>
+      </c>
+      <c r="AA84">
+        <v>5</v>
+      </c>
+      <c r="AB84">
+        <v>8</v>
+      </c>
+      <c r="AC84">
+        <v>1.03</v>
+      </c>
+      <c r="AD84">
+        <v>13</v>
+      </c>
+      <c r="AE84">
+        <v>1.15</v>
+      </c>
+      <c r="AF84">
+        <v>5.5</v>
+      </c>
+      <c r="AG84">
+        <v>1.47</v>
+      </c>
+      <c r="AH84">
+        <v>2.5</v>
+      </c>
+      <c r="AI84">
+        <v>1.83</v>
+      </c>
+      <c r="AJ84">
+        <v>1.81</v>
+      </c>
+      <c r="AK84">
+        <v>1.05</v>
+      </c>
+      <c r="AL84">
+        <v>1.12</v>
+      </c>
+      <c r="AM84">
+        <v>3.75</v>
+      </c>
+      <c r="AN84">
+        <v>2</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>1.8</v>
+      </c>
+      <c r="AQ84">
+        <v>0.2</v>
+      </c>
+      <c r="AR84">
+        <v>1.22</v>
+      </c>
+      <c r="AS84">
+        <v>1.42</v>
+      </c>
+      <c r="AT84">
+        <v>2.64</v>
+      </c>
+      <c r="AU84">
+        <v>5</v>
+      </c>
+      <c r="AV84">
+        <v>4</v>
+      </c>
+      <c r="AW84">
+        <v>14</v>
+      </c>
+      <c r="AX84">
+        <v>5</v>
+      </c>
+      <c r="AY84">
+        <v>19</v>
+      </c>
+      <c r="AZ84">
+        <v>9</v>
+      </c>
+      <c r="BA84">
+        <v>9</v>
+      </c>
+      <c r="BB84">
+        <v>3</v>
+      </c>
+      <c r="BC84">
+        <v>12</v>
+      </c>
+      <c r="BD84">
+        <v>1.24</v>
+      </c>
+      <c r="BE84">
+        <v>8.5</v>
+      </c>
+      <c r="BF84">
+        <v>4.3</v>
+      </c>
+      <c r="BG84">
+        <v>1.18</v>
+      </c>
+      <c r="BH84">
+        <v>4.1</v>
+      </c>
+      <c r="BI84">
+        <v>1.3</v>
+      </c>
+      <c r="BJ84">
+        <v>3.05</v>
+      </c>
+      <c r="BK84">
+        <v>1.5</v>
+      </c>
+      <c r="BL84">
+        <v>2.38</v>
+      </c>
+      <c r="BM84">
+        <v>1.79</v>
+      </c>
+      <c r="BN84">
+        <v>1.91</v>
+      </c>
+      <c r="BO84">
+        <v>2.18</v>
+      </c>
+      <c r="BP84">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="201">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -449,6 +449,12 @@
   </si>
   <si>
     <t>['33', '53']</t>
+  </si>
+  <si>
+    <t>['45+1', '72']</t>
+  </si>
+  <si>
+    <t>['49', '90+2']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -972,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1515,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3">
         <v>1.57</v>
@@ -1643,7 +1649,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1721,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1849,7 +1855,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1930,7 +1936,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ5">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2055,7 +2061,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2261,7 +2267,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2673,7 +2679,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2879,7 +2885,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3085,7 +3091,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3291,7 +3297,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3703,7 +3709,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3784,7 +3790,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ14">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3909,7 +3915,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -4115,7 +4121,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4527,7 +4533,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4811,10 +4817,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR19">
         <v>2.03</v>
@@ -4939,7 +4945,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -5223,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ21">
         <v>2</v>
@@ -5351,7 +5357,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5638,7 +5644,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ23">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR23">
         <v>2.18</v>
@@ -5969,7 +5975,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -6175,7 +6181,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6459,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ27">
         <v>0.17</v>
@@ -6587,7 +6593,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6793,7 +6799,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -6999,7 +7005,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -7823,7 +7829,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>2.92</v>
@@ -8029,7 +8035,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>2.46</v>
@@ -8441,7 +8447,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>3.16</v>
@@ -8647,7 +8653,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q38">
         <v>2.81</v>
@@ -8728,7 +8734,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ38">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR38">
         <v>2.08</v>
@@ -8853,7 +8859,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q39">
         <v>3.58</v>
@@ -9059,7 +9065,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9265,7 +9271,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9471,7 +9477,7 @@
         <v>87</v>
       </c>
       <c r="P42" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9549,7 +9555,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ42">
         <v>2.6</v>
@@ -9677,7 +9683,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>3.1</v>
@@ -9883,7 +9889,7 @@
         <v>87</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10295,7 +10301,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>2.55</v>
@@ -10373,7 +10379,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ46">
         <v>1.4</v>
@@ -10501,7 +10507,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>2.5</v>
@@ -10788,7 +10794,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ48">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR48">
         <v>1.5</v>
@@ -10913,7 +10919,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11119,7 +11125,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11197,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ50">
         <v>0.2</v>
@@ -11325,7 +11331,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11531,7 +11537,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11737,7 +11743,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11943,7 +11949,7 @@
         <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q54">
         <v>3.25</v>
@@ -12024,7 +12030,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ54">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR54">
         <v>1.75</v>
@@ -12230,7 +12236,7 @@
         <v>3</v>
       </c>
       <c r="AQ55">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR55">
         <v>2</v>
@@ -12355,7 +12361,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>2.38</v>
@@ -12845,10 +12851,10 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ58">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR58">
         <v>2.06</v>
@@ -13385,7 +13391,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13591,7 +13597,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13797,7 +13803,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q63">
         <v>2.9</v>
@@ -14003,7 +14009,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>2.8</v>
@@ -14209,7 +14215,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q65">
         <v>2.62</v>
@@ -14493,7 +14499,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ66">
         <v>0.8</v>
@@ -14702,7 +14708,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ67">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR67">
         <v>1.91</v>
@@ -15033,7 +15039,7 @@
         <v>135</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q69">
         <v>2.8</v>
@@ -15239,7 +15245,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15445,7 +15451,7 @@
         <v>87</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15651,7 +15657,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q72">
         <v>3.3</v>
@@ -16063,7 +16069,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16475,7 +16481,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>2.35</v>
@@ -16681,7 +16687,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -16887,7 +16893,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q78">
         <v>2.25</v>
@@ -17093,7 +17099,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17299,7 +17305,7 @@
         <v>87</v>
       </c>
       <c r="P80" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q80">
         <v>2.1</v>
@@ -17377,7 +17383,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ80">
         <v>2</v>
@@ -17711,7 +17717,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q82">
         <v>2.9</v>
@@ -18123,7 +18129,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q84">
         <v>1.67</v>
@@ -18280,6 +18286,418 @@
       </c>
       <c r="BP84">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7781720</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45808.41666666666</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>71</v>
+      </c>
+      <c r="H85" t="s">
+        <v>83</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>145</v>
+      </c>
+      <c r="P85" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q85">
+        <v>2.7</v>
+      </c>
+      <c r="R85">
+        <v>2.38</v>
+      </c>
+      <c r="S85">
+        <v>3.15</v>
+      </c>
+      <c r="T85">
+        <v>1.27</v>
+      </c>
+      <c r="U85">
+        <v>3.4</v>
+      </c>
+      <c r="V85">
+        <v>2.33</v>
+      </c>
+      <c r="W85">
+        <v>1.56</v>
+      </c>
+      <c r="X85">
+        <v>5.3</v>
+      </c>
+      <c r="Y85">
+        <v>1.13</v>
+      </c>
+      <c r="Z85">
+        <v>2.12</v>
+      </c>
+      <c r="AA85">
+        <v>3.58</v>
+      </c>
+      <c r="AB85">
+        <v>2.72</v>
+      </c>
+      <c r="AC85">
+        <v>1.04</v>
+      </c>
+      <c r="AD85">
+        <v>11</v>
+      </c>
+      <c r="AE85">
+        <v>1.2</v>
+      </c>
+      <c r="AF85">
+        <v>4.5</v>
+      </c>
+      <c r="AG85">
+        <v>1.7</v>
+      </c>
+      <c r="AH85">
+        <v>1.95</v>
+      </c>
+      <c r="AI85">
+        <v>1.48</v>
+      </c>
+      <c r="AJ85">
+        <v>2.35</v>
+      </c>
+      <c r="AK85">
+        <v>1.4</v>
+      </c>
+      <c r="AL85">
+        <v>1.22</v>
+      </c>
+      <c r="AM85">
+        <v>1.6</v>
+      </c>
+      <c r="AN85">
+        <v>1.4</v>
+      </c>
+      <c r="AO85">
+        <v>1.6</v>
+      </c>
+      <c r="AP85">
+        <v>1.67</v>
+      </c>
+      <c r="AQ85">
+        <v>1.33</v>
+      </c>
+      <c r="AR85">
+        <v>1.93</v>
+      </c>
+      <c r="AS85">
+        <v>1.59</v>
+      </c>
+      <c r="AT85">
+        <v>3.52</v>
+      </c>
+      <c r="AU85">
+        <v>10</v>
+      </c>
+      <c r="AV85">
+        <v>8</v>
+      </c>
+      <c r="AW85">
+        <v>3</v>
+      </c>
+      <c r="AX85">
+        <v>5</v>
+      </c>
+      <c r="AY85">
+        <v>13</v>
+      </c>
+      <c r="AZ85">
+        <v>13</v>
+      </c>
+      <c r="BA85">
+        <v>5</v>
+      </c>
+      <c r="BB85">
+        <v>4</v>
+      </c>
+      <c r="BC85">
+        <v>9</v>
+      </c>
+      <c r="BD85">
+        <v>1.75</v>
+      </c>
+      <c r="BE85">
+        <v>6.75</v>
+      </c>
+      <c r="BF85">
+        <v>2.23</v>
+      </c>
+      <c r="BG85">
+        <v>1.16</v>
+      </c>
+      <c r="BH85">
+        <v>4.4</v>
+      </c>
+      <c r="BI85">
+        <v>1.29</v>
+      </c>
+      <c r="BJ85">
+        <v>3.15</v>
+      </c>
+      <c r="BK85">
+        <v>1.49</v>
+      </c>
+      <c r="BL85">
+        <v>2.4</v>
+      </c>
+      <c r="BM85">
+        <v>1.77</v>
+      </c>
+      <c r="BN85">
+        <v>1.93</v>
+      </c>
+      <c r="BO85">
+        <v>2.18</v>
+      </c>
+      <c r="BP85">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7781724</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45808.41666666666</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>72</v>
+      </c>
+      <c r="H86" t="s">
+        <v>75</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>146</v>
+      </c>
+      <c r="P86" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q86">
+        <v>2.55</v>
+      </c>
+      <c r="R86">
+        <v>2.32</v>
+      </c>
+      <c r="S86">
+        <v>3.45</v>
+      </c>
+      <c r="T86">
+        <v>1.29</v>
+      </c>
+      <c r="U86">
+        <v>3.25</v>
+      </c>
+      <c r="V86">
+        <v>2.43</v>
+      </c>
+      <c r="W86">
+        <v>1.52</v>
+      </c>
+      <c r="X86">
+        <v>5.4</v>
+      </c>
+      <c r="Y86">
+        <v>1.11</v>
+      </c>
+      <c r="Z86">
+        <v>1.95</v>
+      </c>
+      <c r="AA86">
+        <v>3.57</v>
+      </c>
+      <c r="AB86">
+        <v>3.05</v>
+      </c>
+      <c r="AC86">
+        <v>1.05</v>
+      </c>
+      <c r="AD86">
+        <v>10</v>
+      </c>
+      <c r="AE86">
+        <v>1.22</v>
+      </c>
+      <c r="AF86">
+        <v>4.2</v>
+      </c>
+      <c r="AG86">
+        <v>1.63</v>
+      </c>
+      <c r="AH86">
+        <v>2.13</v>
+      </c>
+      <c r="AI86">
+        <v>1.52</v>
+      </c>
+      <c r="AJ86">
+        <v>2.25</v>
+      </c>
+      <c r="AK86">
+        <v>1.33</v>
+      </c>
+      <c r="AL86">
+        <v>1.22</v>
+      </c>
+      <c r="AM86">
+        <v>1.7</v>
+      </c>
+      <c r="AN86">
+        <v>2.67</v>
+      </c>
+      <c r="AO86">
+        <v>0.8</v>
+      </c>
+      <c r="AP86">
+        <v>2.71</v>
+      </c>
+      <c r="AQ86">
+        <v>0.67</v>
+      </c>
+      <c r="AR86">
+        <v>2.02</v>
+      </c>
+      <c r="AS86">
+        <v>1.45</v>
+      </c>
+      <c r="AT86">
+        <v>3.47</v>
+      </c>
+      <c r="AU86">
+        <v>16</v>
+      </c>
+      <c r="AV86">
+        <v>4</v>
+      </c>
+      <c r="AW86">
+        <v>4</v>
+      </c>
+      <c r="AX86">
+        <v>6</v>
+      </c>
+      <c r="AY86">
+        <v>20</v>
+      </c>
+      <c r="AZ86">
+        <v>10</v>
+      </c>
+      <c r="BA86">
+        <v>6</v>
+      </c>
+      <c r="BB86">
+        <v>2</v>
+      </c>
+      <c r="BC86">
+        <v>8</v>
+      </c>
+      <c r="BD86">
+        <v>1.93</v>
+      </c>
+      <c r="BE86">
+        <v>6.75</v>
+      </c>
+      <c r="BF86">
+        <v>2.05</v>
+      </c>
+      <c r="BG86">
+        <v>1.2</v>
+      </c>
+      <c r="BH86">
+        <v>3.9</v>
+      </c>
+      <c r="BI86">
+        <v>1.35</v>
+      </c>
+      <c r="BJ86">
+        <v>2.9</v>
+      </c>
+      <c r="BK86">
+        <v>1.58</v>
+      </c>
+      <c r="BL86">
+        <v>2.2</v>
+      </c>
+      <c r="BM86">
+        <v>1.92</v>
+      </c>
+      <c r="BN86">
+        <v>1.77</v>
+      </c>
+      <c r="BO86">
+        <v>2.4</v>
+      </c>
+      <c r="BP86">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="203">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,9 @@
     <t>['49', '90+2']</t>
   </si>
   <si>
+    <t>['82']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -617,6 +620,9 @@
   </si>
   <si>
     <t>['1', '45+4']</t>
+  </si>
+  <si>
+    <t>['61', '69']</t>
   </si>
 </sst>
 </file>
@@ -978,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP86"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1649,7 +1655,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1855,7 +1861,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2061,7 +2067,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2267,7 +2273,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q7">
         <v>2.6</v>
@@ -2348,7 +2354,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ7">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2551,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>0.2</v>
@@ -2679,7 +2685,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2885,7 +2891,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3091,7 +3097,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3169,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ11">
         <v>0.8</v>
@@ -3297,7 +3303,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3378,7 +3384,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ12">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3709,7 +3715,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q14">
         <v>3.35</v>
@@ -3915,7 +3921,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
@@ -4121,7 +4127,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4202,7 +4208,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ16">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4533,7 +4539,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q18">
         <v>3.68</v>
@@ -4611,7 +4617,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>1.57</v>
@@ -4945,7 +4951,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>2.29</v>
@@ -5357,7 +5363,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>3.24</v>
@@ -5438,7 +5444,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ22">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>1.35</v>
@@ -5850,7 +5856,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ24">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>1.8</v>
@@ -5975,7 +5981,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q25">
         <v>3.12</v>
@@ -6181,7 +6187,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6593,7 +6599,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>3.3</v>
@@ -6799,7 +6805,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>2.7</v>
@@ -7005,7 +7011,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>3.42</v>
@@ -7083,10 +7089,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ30">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR30">
         <v>1.53</v>
@@ -7292,7 +7298,7 @@
         <v>3</v>
       </c>
       <c r="AQ31">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>1.83</v>
@@ -7701,7 +7707,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ33">
         <v>1.67</v>
@@ -7829,7 +7835,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>2.92</v>
@@ -8035,7 +8041,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>2.46</v>
@@ -8113,7 +8119,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8447,7 +8453,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q37">
         <v>3.16</v>
@@ -8525,7 +8531,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ37">
         <v>1.57</v>
@@ -8653,7 +8659,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q38">
         <v>2.81</v>
@@ -8859,7 +8865,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q39">
         <v>3.58</v>
@@ -9065,7 +9071,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9271,7 +9277,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9477,7 +9483,7 @@
         <v>87</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9683,7 +9689,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>3.1</v>
@@ -9761,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -9889,7 +9895,7 @@
         <v>87</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -9970,7 +9976,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ44">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.39</v>
@@ -10301,7 +10307,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>2.55</v>
@@ -10382,7 +10388,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ46">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.62</v>
@@ -10507,7 +10513,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>2.5</v>
@@ -10588,7 +10594,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ47">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR47">
         <v>2.18</v>
@@ -10919,7 +10925,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11125,7 +11131,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11331,7 +11337,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11409,7 +11415,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
         <v>0.17</v>
@@ -11537,7 +11543,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11615,7 +11621,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ52">
         <v>1.67</v>
@@ -11743,7 +11749,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11824,7 +11830,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ53">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
         <v>1.58</v>
@@ -11949,7 +11955,7 @@
         <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>3.25</v>
@@ -12361,7 +12367,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>2.38</v>
@@ -12645,7 +12651,7 @@
         <v>2.33</v>
       </c>
       <c r="AP57">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ57">
         <v>1.83</v>
@@ -13391,7 +13397,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13597,7 +13603,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13803,7 +13809,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>2.9</v>
@@ -14009,7 +14015,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>2.8</v>
@@ -14215,7 +14221,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q65">
         <v>2.62</v>
@@ -14914,7 +14920,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ68">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
         <v>1.22</v>
@@ -15039,7 +15045,7 @@
         <v>135</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q69">
         <v>2.8</v>
@@ -15245,7 +15251,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15326,7 +15332,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ70">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR70">
         <v>1.83</v>
@@ -15451,7 +15457,7 @@
         <v>87</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15529,7 +15535,7 @@
         <v>2.5</v>
       </c>
       <c r="AP71">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ71">
         <v>2.6</v>
@@ -15657,7 +15663,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q72">
         <v>3.3</v>
@@ -15735,7 +15741,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ72">
         <v>1.83</v>
@@ -16069,7 +16075,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16481,7 +16487,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q76">
         <v>2.35</v>
@@ -16687,7 +16693,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -16765,7 +16771,7 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
         <v>1.67</v>
@@ -16893,7 +16899,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q78">
         <v>2.25</v>
@@ -16974,7 +16980,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ78">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR78">
         <v>1.9</v>
@@ -17099,7 +17105,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17305,7 +17311,7 @@
         <v>87</v>
       </c>
       <c r="P80" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q80">
         <v>2.1</v>
@@ -17717,7 +17723,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q82">
         <v>2.9</v>
@@ -18129,7 +18135,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q84">
         <v>1.67</v>
@@ -18698,6 +18704,624 @@
       </c>
       <c r="BP86">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7781718</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45809.41666666666</v>
+      </c>
+      <c r="F87">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>79</v>
+      </c>
+      <c r="H87" t="s">
+        <v>80</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87" t="s">
+        <v>87</v>
+      </c>
+      <c r="P87" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q87">
+        <v>2.45</v>
+      </c>
+      <c r="R87">
+        <v>2.15</v>
+      </c>
+      <c r="S87">
+        <v>4</v>
+      </c>
+      <c r="T87">
+        <v>1.36</v>
+      </c>
+      <c r="U87">
+        <v>2.88</v>
+      </c>
+      <c r="V87">
+        <v>2.65</v>
+      </c>
+      <c r="W87">
+        <v>1.42</v>
+      </c>
+      <c r="X87">
+        <v>6.25</v>
+      </c>
+      <c r="Y87">
+        <v>1.06</v>
+      </c>
+      <c r="Z87">
+        <v>1.71</v>
+      </c>
+      <c r="AA87">
+        <v>3.55</v>
+      </c>
+      <c r="AB87">
+        <v>3.96</v>
+      </c>
+      <c r="AC87">
+        <v>1.05</v>
+      </c>
+      <c r="AD87">
+        <v>10</v>
+      </c>
+      <c r="AE87">
+        <v>1.3</v>
+      </c>
+      <c r="AF87">
+        <v>3.55</v>
+      </c>
+      <c r="AG87">
+        <v>1.81</v>
+      </c>
+      <c r="AH87">
+        <v>1.89</v>
+      </c>
+      <c r="AI87">
+        <v>1.73</v>
+      </c>
+      <c r="AJ87">
+        <v>1.95</v>
+      </c>
+      <c r="AK87">
+        <v>1.25</v>
+      </c>
+      <c r="AL87">
+        <v>1.22</v>
+      </c>
+      <c r="AM87">
+        <v>1.83</v>
+      </c>
+      <c r="AN87">
+        <v>1.2</v>
+      </c>
+      <c r="AO87">
+        <v>1.4</v>
+      </c>
+      <c r="AP87">
+        <v>1.17</v>
+      </c>
+      <c r="AQ87">
+        <v>1.33</v>
+      </c>
+      <c r="AR87">
+        <v>1.45</v>
+      </c>
+      <c r="AS87">
+        <v>1.34</v>
+      </c>
+      <c r="AT87">
+        <v>2.79</v>
+      </c>
+      <c r="AU87">
+        <v>6</v>
+      </c>
+      <c r="AV87">
+        <v>11</v>
+      </c>
+      <c r="AW87">
+        <v>6</v>
+      </c>
+      <c r="AX87">
+        <v>3</v>
+      </c>
+      <c r="AY87">
+        <v>12</v>
+      </c>
+      <c r="AZ87">
+        <v>14</v>
+      </c>
+      <c r="BA87">
+        <v>11</v>
+      </c>
+      <c r="BB87">
+        <v>2</v>
+      </c>
+      <c r="BC87">
+        <v>13</v>
+      </c>
+      <c r="BD87">
+        <v>2.08</v>
+      </c>
+      <c r="BE87">
+        <v>6.75</v>
+      </c>
+      <c r="BF87">
+        <v>1.89</v>
+      </c>
+      <c r="BG87">
+        <v>1.25</v>
+      </c>
+      <c r="BH87">
+        <v>3.45</v>
+      </c>
+      <c r="BI87">
+        <v>1.44</v>
+      </c>
+      <c r="BJ87">
+        <v>2.55</v>
+      </c>
+      <c r="BK87">
+        <v>1.7</v>
+      </c>
+      <c r="BL87">
+        <v>2</v>
+      </c>
+      <c r="BM87">
+        <v>2.08</v>
+      </c>
+      <c r="BN87">
+        <v>1.65</v>
+      </c>
+      <c r="BO87">
+        <v>2.65</v>
+      </c>
+      <c r="BP87">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7781717</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45809.41666666666</v>
+      </c>
+      <c r="F88">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>70</v>
+      </c>
+      <c r="H88" t="s">
+        <v>73</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88" t="s">
+        <v>87</v>
+      </c>
+      <c r="P88" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q88">
+        <v>3.2</v>
+      </c>
+      <c r="R88">
+        <v>2.05</v>
+      </c>
+      <c r="S88">
+        <v>3.1</v>
+      </c>
+      <c r="T88">
+        <v>1.38</v>
+      </c>
+      <c r="U88">
+        <v>2.8</v>
+      </c>
+      <c r="V88">
+        <v>2.75</v>
+      </c>
+      <c r="W88">
+        <v>1.4</v>
+      </c>
+      <c r="X88">
+        <v>6.8</v>
+      </c>
+      <c r="Y88">
+        <v>1.04</v>
+      </c>
+      <c r="Z88">
+        <v>2.43</v>
+      </c>
+      <c r="AA88">
+        <v>3.18</v>
+      </c>
+      <c r="AB88">
+        <v>2.54</v>
+      </c>
+      <c r="AC88">
+        <v>1.06</v>
+      </c>
+      <c r="AD88">
+        <v>9</v>
+      </c>
+      <c r="AE88">
+        <v>1.33</v>
+      </c>
+      <c r="AF88">
+        <v>3.35</v>
+      </c>
+      <c r="AG88">
+        <v>1.95</v>
+      </c>
+      <c r="AH88">
+        <v>1.75</v>
+      </c>
+      <c r="AI88">
+        <v>1.73</v>
+      </c>
+      <c r="AJ88">
+        <v>1.95</v>
+      </c>
+      <c r="AK88">
+        <v>1.5</v>
+      </c>
+      <c r="AL88">
+        <v>1.25</v>
+      </c>
+      <c r="AM88">
+        <v>1.45</v>
+      </c>
+      <c r="AN88">
+        <v>0.8</v>
+      </c>
+      <c r="AO88">
+        <v>1.4</v>
+      </c>
+      <c r="AP88">
+        <v>0.83</v>
+      </c>
+      <c r="AQ88">
+        <v>1.33</v>
+      </c>
+      <c r="AR88">
+        <v>1.77</v>
+      </c>
+      <c r="AS88">
+        <v>1.75</v>
+      </c>
+      <c r="AT88">
+        <v>3.52</v>
+      </c>
+      <c r="AU88">
+        <v>9</v>
+      </c>
+      <c r="AV88">
+        <v>12</v>
+      </c>
+      <c r="AW88">
+        <v>4</v>
+      </c>
+      <c r="AX88">
+        <v>4</v>
+      </c>
+      <c r="AY88">
+        <v>13</v>
+      </c>
+      <c r="AZ88">
+        <v>16</v>
+      </c>
+      <c r="BA88">
+        <v>4</v>
+      </c>
+      <c r="BB88">
+        <v>5</v>
+      </c>
+      <c r="BC88">
+        <v>9</v>
+      </c>
+      <c r="BD88">
+        <v>1.97</v>
+      </c>
+      <c r="BE88">
+        <v>6.75</v>
+      </c>
+      <c r="BF88">
+        <v>1.97</v>
+      </c>
+      <c r="BG88">
+        <v>1.18</v>
+      </c>
+      <c r="BH88">
+        <v>4.3</v>
+      </c>
+      <c r="BI88">
+        <v>1.3</v>
+      </c>
+      <c r="BJ88">
+        <v>3.05</v>
+      </c>
+      <c r="BK88">
+        <v>1.5</v>
+      </c>
+      <c r="BL88">
+        <v>2.33</v>
+      </c>
+      <c r="BM88">
+        <v>1.8</v>
+      </c>
+      <c r="BN88">
+        <v>1.9</v>
+      </c>
+      <c r="BO88">
+        <v>2.2</v>
+      </c>
+      <c r="BP88">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7781719</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45809.5</v>
+      </c>
+      <c r="F89">
+        <v>11</v>
+      </c>
+      <c r="G89" t="s">
+        <v>76</v>
+      </c>
+      <c r="H89" t="s">
+        <v>74</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>3</v>
+      </c>
+      <c r="O89" t="s">
+        <v>147</v>
+      </c>
+      <c r="P89" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q89">
+        <v>3.05</v>
+      </c>
+      <c r="R89">
+        <v>2.09</v>
+      </c>
+      <c r="S89">
+        <v>3.35</v>
+      </c>
+      <c r="T89">
+        <v>1.39</v>
+      </c>
+      <c r="U89">
+        <v>2.77</v>
+      </c>
+      <c r="V89">
+        <v>2.81</v>
+      </c>
+      <c r="W89">
+        <v>1.38</v>
+      </c>
+      <c r="X89">
+        <v>6.65</v>
+      </c>
+      <c r="Y89">
+        <v>1.05</v>
+      </c>
+      <c r="Z89">
+        <v>2.77</v>
+      </c>
+      <c r="AA89">
+        <v>3.09</v>
+      </c>
+      <c r="AB89">
+        <v>2.3</v>
+      </c>
+      <c r="AC89">
+        <v>1.01</v>
+      </c>
+      <c r="AD89">
+        <v>8.5</v>
+      </c>
+      <c r="AE89">
+        <v>1.27</v>
+      </c>
+      <c r="AF89">
+        <v>3.15</v>
+      </c>
+      <c r="AG89">
+        <v>1.94</v>
+      </c>
+      <c r="AH89">
+        <v>1.76</v>
+      </c>
+      <c r="AI89">
+        <v>1.74</v>
+      </c>
+      <c r="AJ89">
+        <v>1.98</v>
+      </c>
+      <c r="AK89">
+        <v>1.42</v>
+      </c>
+      <c r="AL89">
+        <v>1.28</v>
+      </c>
+      <c r="AM89">
+        <v>1.5</v>
+      </c>
+      <c r="AN89">
+        <v>1.2</v>
+      </c>
+      <c r="AO89">
+        <v>1.75</v>
+      </c>
+      <c r="AP89">
+        <v>1</v>
+      </c>
+      <c r="AQ89">
+        <v>2</v>
+      </c>
+      <c r="AR89">
+        <v>1.41</v>
+      </c>
+      <c r="AS89">
+        <v>1.97</v>
+      </c>
+      <c r="AT89">
+        <v>3.38</v>
+      </c>
+      <c r="AU89">
+        <v>6</v>
+      </c>
+      <c r="AV89">
+        <v>9</v>
+      </c>
+      <c r="AW89">
+        <v>2</v>
+      </c>
+      <c r="AX89">
+        <v>1</v>
+      </c>
+      <c r="AY89">
+        <v>8</v>
+      </c>
+      <c r="AZ89">
+        <v>10</v>
+      </c>
+      <c r="BA89">
+        <v>5</v>
+      </c>
+      <c r="BB89">
+        <v>4</v>
+      </c>
+      <c r="BC89">
+        <v>9</v>
+      </c>
+      <c r="BD89">
+        <v>1.84</v>
+      </c>
+      <c r="BE89">
+        <v>6.75</v>
+      </c>
+      <c r="BF89">
+        <v>2.15</v>
+      </c>
+      <c r="BG89">
+        <v>1.25</v>
+      </c>
+      <c r="BH89">
+        <v>3.55</v>
+      </c>
+      <c r="BI89">
+        <v>1.44</v>
+      </c>
+      <c r="BJ89">
+        <v>2.55</v>
+      </c>
+      <c r="BK89">
+        <v>1.72</v>
+      </c>
+      <c r="BL89">
+        <v>1.98</v>
+      </c>
+      <c r="BM89">
+        <v>2.08</v>
+      </c>
+      <c r="BN89">
+        <v>1.65</v>
+      </c>
+      <c r="BO89">
+        <v>2.65</v>
+      </c>
+      <c r="BP89">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Superettan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="202">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,16 +445,16 @@
     <t>['6', '27', '85']</t>
   </si>
   <si>
-    <t>['45+2']</t>
+    <t>['4502']</t>
   </si>
   <si>
     <t>['33', '53']</t>
   </si>
   <si>
-    <t>['45+1', '72']</t>
-  </si>
-  <si>
-    <t>['49', '90+2']</t>
+    <t>['4501', '72']</t>
+  </si>
+  <si>
+    <t>['9002']</t>
   </si>
   <si>
     <t>['82']</t>
@@ -616,13 +616,10 @@
     <t>['11', '66', '72']</t>
   </si>
   <si>
-    <t>['69', '75', '90+3']</t>
-  </si>
-  <si>
-    <t>['1', '45+4']</t>
-  </si>
-  <si>
-    <t>['61', '69']</t>
+    <t>['75', '9003']</t>
+  </si>
+  <si>
+    <t>['1', '4504']</t>
   </si>
 </sst>
 </file>
@@ -2148,7 +2145,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2557,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ8">
         <v>0.2</v>
@@ -2763,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AQ9">
         <v>1.67</v>
@@ -3384,7 +3381,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4617,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ18">
         <v>1.57</v>
@@ -6059,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6886,7 +6883,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ29">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AR29">
         <v>1.8</v>
@@ -7092,7 +7089,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR30">
         <v>1.53</v>
@@ -8119,7 +8116,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8946,7 +8943,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ39">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AR39">
         <v>1.39</v>
@@ -9976,7 +9973,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR44">
         <v>1.39</v>
@@ -10797,7 +10794,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AQ48">
         <v>0.67</v>
@@ -11415,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ51">
         <v>0.17</v>
@@ -12654,7 +12651,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ57">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AR57">
         <v>1.42</v>
@@ -13681,7 +13678,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AQ62">
         <v>2</v>
@@ -15332,7 +15329,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR70">
         <v>1.83</v>
@@ -15744,7 +15741,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ72">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AR72">
         <v>1.67</v>
@@ -16771,7 +16768,7 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ77">
         <v>1.67</v>
@@ -17714,10 +17711,10 @@
         <v>3</v>
       </c>
       <c r="M82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N82">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O82" t="s">
         <v>142</v>
@@ -17801,10 +17798,10 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AQ82">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AR82">
         <v>1.54</v>
@@ -17816,22 +17813,22 @@
         <v>2.98</v>
       </c>
       <c r="AU82">
+        <v>4</v>
+      </c>
+      <c r="AV82">
         <v>5</v>
-      </c>
-      <c r="AV82">
-        <v>8</v>
       </c>
       <c r="AW82">
         <v>5</v>
       </c>
       <c r="AX82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY82">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ82">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA82">
         <v>1</v>
@@ -18022,22 +18019,22 @@
         <v>3.47</v>
       </c>
       <c r="AU83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV83">
         <v>5</v>
       </c>
       <c r="AW83">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY83">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ83">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA83">
         <v>3</v>
@@ -18228,31 +18225,31 @@
         <v>2.64</v>
       </c>
       <c r="AU84">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW84">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AX84">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AY84">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="AZ84">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BA84">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BB84">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BC84">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BD84">
         <v>1.24</v>
@@ -18443,13 +18440,13 @@
         <v>3</v>
       </c>
       <c r="AX85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY85">
         <v>13</v>
       </c>
       <c r="AZ85">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA85">
         <v>5</v>
@@ -18535,13 +18532,13 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M86">
         <v>0</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O86" t="s">
         <v>146</v>
@@ -18640,31 +18637,31 @@
         <v>3.47</v>
       </c>
       <c r="AU86">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AV86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW86">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX86">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY86">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ86">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA86">
         <v>6</v>
       </c>
       <c r="BB86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC86">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD86">
         <v>1.93</v>
@@ -18846,10 +18843,10 @@
         <v>2.79</v>
       </c>
       <c r="AU87">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV87">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AW87">
         <v>6</v>
@@ -18858,10 +18855,10 @@
         <v>3</v>
       </c>
       <c r="AY87">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ87">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA87">
         <v>11</v>
@@ -19055,19 +19052,19 @@
         <v>9</v>
       </c>
       <c r="AV88">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AW88">
         <v>4</v>
       </c>
       <c r="AX88">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY88">
         <v>13</v>
       </c>
       <c r="AZ88">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA88">
         <v>4</v>
@@ -19156,16 +19153,16 @@
         <v>1</v>
       </c>
       <c r="M89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O89" t="s">
         <v>147</v>
       </c>
       <c r="P89" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="Q89">
         <v>3.05</v>
@@ -19243,10 +19240,10 @@
         <v>1.75</v>
       </c>
       <c r="AP89">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ89">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR89">
         <v>1.41</v>
@@ -19258,22 +19255,22 @@
         <v>3.38</v>
       </c>
       <c r="AU89">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV89">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AW89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY89">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ89">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA89">
         <v>5</v>
